--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -2238,6 +2238,3601 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
+{
+    "costMillisecond":75,
+    "costSecond":0.075,
+    "data":{
+        "count":6511,
+        "result":[
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到台积电、联发科等半导体业者进出口畅旺加持，中国台湾财政部公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月出口值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>241.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿美元，年增率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，财政部统计处处长蔡美娜说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出口年增率是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月以来首度正成长。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国台湾出口总算摆脱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑困境，回到成长轨道。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梁国源：谷底已过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元大宝华综合经济院董事长梁国源表示，出口月增率与年增率转正是正面消息，但还是要看绝对金额，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月出口金额仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>241.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿美元，距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年高点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多亿美元仍有一段距离，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加持，今年有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上市，但预估效应不会像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那样明确。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.9985952,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果日报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "create_on":"2016-08-10T02:36:12.000Z",
+                "id":"39a3414df6a804f7c56ab52f31aa526e",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半导体业助台湾出口年增率呈首度正成长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市调单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也指出，受到面板厂转往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产影响，让面板厂正逐渐退出非晶矽手机面板供应，导致非晶矽手机面板供货吃紧。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瀚宇彩晶（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）也坦承，目前手机面板供货确实很紧，这波涨势预估会到第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>季底。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彩晶说，目前产能利用率约在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成以上，玻璃基板投片量约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万片，手机面板占营收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成以上，主要以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.5~5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸面板为为主，彩晶也正在改线，以配合市场往高阶发展需求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>季价格松动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另外，值得注意的是目前内嵌式（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>oncell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）触控面板资源，主要集中在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸，目前主要只有京东方和群创在大量出货，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸产品而言，解析度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是主流规格，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>oncell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的整合优势，使其需求增长快速、导致供货缺口扩大，价格上涨幅度最大，供需吃紧的情况也最为严重，陈丽娟预估，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>oncell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品紧缺形势将持续整个下半年。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.9945276,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果日报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "create_on":"2016-07-20T00:46:49.000Z",
+                "id":"50916d0dab4de72ede2cf9069ed96443",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机面板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> q3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价量看涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联发科的新总部邻近新竹高铁，交通位置佳，座落新竹高铁站旁光明六路东一段、东兴路、嘉祥七街的三角地段，根据初步规划，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年启用后，可容纳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名人员。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能无法如期完工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但近期市场消息传出，联发科新总部建案，可能无法在原订期间内完工。房仲表示，原先规划倾向建经贸大楼并结合附近商城，带动邻近消费商机，且近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1~2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年也因联发科此建案带动邻近房价。不过，房仲分析，因竹科人口假日仍会往新竹大远百和威秀影城群聚，并不会往高铁商区移动，毕竟娱乐商圈效应还是比较方便。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建案延迟一事，交通部高铁专员说明，联发科在建案相关设计有些变更，据了解，原本设计为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋建筑，但已改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋，因为还要考量相关委员的意见，目前案子还在新竹县政府都市审议委员会审议中，原先预定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年完工的时程或有些调整。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.9926236,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果日报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "create_on":"2016-07-14T06:16:26.000Z",
+                "id":"d38af4e01e179f6c380d5713cf25f11a",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联发科建新总部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>惊传生变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "events":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ]
+            },
+            {
+                "summary":"#&amp;#AMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议，夜间户外照明灯具，尤其是路灯，色温应小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3000K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。色温计量是依据光源中的蓝、绿、黄、红光多寡而定，色温越高表示灯光越白越亮，其中的蓝光含量也越多，会因此产生眩光，影响驾驶人视线准确度及安全。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#AMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也表示，蓝光较其他光源更易抑制人体在夜间分泌褪黑激素，可能导致睡眠时间缩短、睡眠品质变差、日间精神不佳甚至肥胖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.983306,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果日报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "create_on":"2016-06-24T01:52:29.000Z",
+                "id":"3671c4e1b71941c7caafcfb84087397f",
+                "title":"led</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路灯色温大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3000k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恐危害安全与健康？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天凌晨，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WWDC2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的开场发布会上展示了新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>wathOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tvOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>macOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（对，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OSX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改名了）系统。今天一上网被铺天盖地的媒体报道和专家分析烦得不得了是吧？我们照例只写一吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”#&amp;#QuickType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（看着挺好，不知道中文怎么样）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更强的照片管理功能，还找回了此前被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干掉的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhoto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里的自动生成影片功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新的地图、新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AppleMusic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（新界面，而且有歌词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.977025,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>博客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "topics":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果概念</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ],
+                "create_on":"2016-06-13T20:46:00.000Z",
+                "id":"d4ca9706531657ed3085619baa43bfe7",
+                "title":"&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;wwdc2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新系统发布会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟无废话版简介</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "events":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能家居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ]
+            },
+            {
+                "summary":"#&amp;#OFweek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子工程网讯台积电今举行股东会，共同执行长刘德音在营业报告书中指出，台积电受惠于在技术与制造上所获得的进展，凭借着技术上的领先地位，并在适切的时间提供客户适当的产能，是台积电能够在去年表现优于其他同业的主要关键。在技术方面，台积电已完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米的技术验证，预计于今年进入量产，整合型扇出（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）封装技术，也预计今年中之前开始量产。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘德音指出，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年是台积公司再创佳绩的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年。面对全球半导体产业环境的诸多挑战，依然缔造营收与获利的新纪录，并且取得重要的技术突破。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.9722972,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果日报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "create_on":"2016-06-07T02:40:03.000Z",
+                "id":"c549e90dc3b7c79bc8960c43a010ec0d",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台积电：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米制程及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术今年量产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其实，这次咱们天朝派出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>416</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名奥运健儿远赴里约奥运会，其中有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名奥运冠军，超过七成的选手是奥运新人。已经有媒体选出了十大名将进行特别介绍，小编也无需再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关公门前耍大刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，倒是替各位扒出了这十大奥运健儿的御用手机，好奇的你不妨来看看，顺便认认脸，也积累些谈资！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、孙杨（游泳）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>御用机型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">iPhone6Plus# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、宁泽涛（游泳）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>御用机型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vivoX7Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（照亮你的美）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、林丹（羽毛球）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>御用机型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（型号不详，偶尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone6s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，偶尔神秘安卓）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、张继科（乒乓球）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简介：别称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>藏獒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，历史最快大满贯得主、伦敦奥运会男单冠军。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.412708,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机中国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "topics":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ],
+                "create_on":"2016-08-08T23:36:00.000Z",
+                "id":"4e0556b1bdbd89b4f0174fba9996e6c7",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深扒！里约奥运中国十大健儿用啥手机？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前传的沸沸扬扬的双卡双待似乎也仅仅是个传言而已，从曝光的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡槽来看，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仍然采用单卡设计，这点丝毫不令人感意外，因为无论是从系统层级还是其他方面都没有过要出现双卡版本的征兆。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不过还是有激动人心的消息，困扰无数果粉多年的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乞丐版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”16GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终于要退出历史舞台了。据爆料称，新款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的容量将为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>32GB/128GB/256GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这三个版本。无论是之前曝光的电容式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键，还是全新的配色，以及取消的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.5mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耳机插口，都是小小的改动，据称，目前曝光的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前面板均为测试机，真正的前面板会采用令人眼前一亮的设计。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.4127045,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机中国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "topics":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ],
+                "create_on":"2016-08-08T22:30:00.000Z",
+                "id":"bac794fba2f9bcefdb0987695827bb1e",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iphone 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谍照曝光：可惜没有双卡双待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"#&amp;#iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的爆料天天有，今天也不意外。不久前，有网友曝光了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列的上手视频，显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列将拥有金、玫瑰金、银三种配色。至于外观，视频中也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>360</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>度全方位的交了底，不出意外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是这个样子了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频中亮相的三款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别为：金色版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、玫瑰金版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和银色版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhonePlus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的尺寸差很明显，分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则在背部配备了双镜头，尺寸与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iPhone7Plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.4126232,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机中国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "topics":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ],
+                "create_on":"2016-08-07T22:50:00.000Z",
+                "id":"c7eda265e3edb86252bff93e7f481de1",
+                "title":"iphone 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三色上手视频曝光：确定有三款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "summary":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机，感兴趣的消费者可考虑入手。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#&amp;#&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;iPhone6sPlus(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数报价论坛软件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)#&amp;#&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;iPhone6sPlus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有一块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸的屏幕，搭载一颗全新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span style=color:red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;A9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理器，后置摄像头为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万像素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "score":2.4124537,
+                "auth":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新浪手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "topics":[
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                ],
+                "create_on":"2016-08-06T03:27:00.000Z",
+                "id":"4fcbe84d1fa3863d95ee5823444a25c6",
+                "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚正有型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适合男士使用智能手机盘点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            }
+        ],
+        "suggests":null
+    },
+    "msg":"sucsess",
+    "code":0
+}
+http://54.222.222.172:8999/es/search/news?query=%E8%A1%B0%E9%80%80%E5%9B%9E%E7%A8%B3%EF%BC%8C%E6%98%AF%E5%8F%B0
+{"costMillisecond":179.0,"costSecond":0.179,"data":{"count":0,"result":null,"suggests":{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衰退回稳，是台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衰退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"]}},"msg":"sucsess","code":0}
 </t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -2814,6 +6409,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2898,29 +6502,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4221,7 +7816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B233" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
       <selection activeCell="B251" sqref="B251:F255"/>
     </sheetView>
   </sheetViews>
@@ -4235,113 +7830,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -4383,18 +7978,18 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
       <c r="B18" s="24" t="s">
@@ -4486,139 +8081,139 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -4724,18 +8319,18 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B51" s="24" t="s">
@@ -4756,41 +8351,41 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -4810,95 +8405,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="54"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="54"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -4972,11 +8567,11 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B76" s="24" t="s">
@@ -5071,38 +8666,38 @@
       <c r="B83" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="38"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="35"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="38"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="36"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -5122,95 +8717,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="48"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="51"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="54"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="54"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="54"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="52"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="54"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -5271,11 +8866,11 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="55"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="57"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B105" s="24" t="s">
@@ -5365,41 +8960,41 @@
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="35"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="38"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="38"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="35"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="38"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="36"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="41"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -5419,95 +9014,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="42"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="42"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="45"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="48"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="46" t="s">
+      <c r="C124" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="48"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="51"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="54"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="52" t="s">
+      <c r="C126" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="54"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="57"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="54"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="57"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="52"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="57"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -5534,11 +9129,11 @@
       <c r="F130" s="26"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="57"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B132" s="24" t="s">
@@ -5628,41 +9223,41 @@
       <c r="F138" s="26"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="61" t="s">
+      <c r="B139" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="32"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="35"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="35"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="38"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="38"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="36"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="41"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -5682,95 +9277,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="42"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="45"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="40" t="s">
+      <c r="C149" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="42"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="45"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="48"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="48"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="51"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="49"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="51"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="54"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="54"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="57"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="53"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="54"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="57"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="52"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="54"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="57"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -5797,11 +9392,11 @@
       <c r="F157" s="26"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="55"/>
-      <c r="C158" s="56"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="57"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B159" s="24" t="s">
@@ -5891,41 +9486,41 @@
       <c r="F165" s="26"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="61" t="s">
+      <c r="B166" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="32"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="35"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="33"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="35"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="38"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="35"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="33"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="38"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="36"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="38"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="41"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -5935,95 +9530,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="40" t="s">
+      <c r="C173" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="42"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="40" t="s">
+      <c r="C174" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="41"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="42"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="45"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="44"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="45"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="48"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="48"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="51"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="49"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="51"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="54"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="54"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="57"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="54"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="57"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="52"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="54"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="57"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -6065,11 +9660,11 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="55"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="57"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="29"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B185" s="24" t="s">
@@ -6159,41 +9754,41 @@
       <c r="F191" s="26"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="61" t="s">
+      <c r="B192" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="32"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="35"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="33"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="35"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="38"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="33"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="35"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="38"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="33"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="35"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="38"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="36"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="38"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="41"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -6203,95 +9798,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C199" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="41"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="42"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="45"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="40" t="s">
+      <c r="C200" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="41"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="42"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="45"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="43" t="s">
+      <c r="C201" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="44"/>
-      <c r="E201" s="44"/>
-      <c r="F201" s="45"/>
+      <c r="D201" s="47"/>
+      <c r="E201" s="47"/>
+      <c r="F201" s="48"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="46" t="s">
+      <c r="C202" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="48"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="51"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="49"/>
-      <c r="D203" s="50"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="51"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="54"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C204" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="54"/>
+      <c r="D204" s="56"/>
+      <c r="E204" s="56"/>
+      <c r="F204" s="57"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="52" t="s">
+      <c r="C205" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="54"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="57"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="52"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="54"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="57"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -6332,7 +9927,7 @@
       </c>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" ht="26.25" thickBot="1">
+    <row r="210" spans="2:6" ht="14.25" thickBot="1">
       <c r="B210" s="20" t="s">
         <v>161</v>
       </c>
@@ -6350,11 +9945,11 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="55"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="57"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="29"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B212" s="24" t="s">
@@ -6444,41 +10039,41 @@
       <c r="F218" s="26"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="61" t="s">
+      <c r="B219" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="31"/>
-      <c r="F219" s="32"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="35"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="33"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="35"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
+      <c r="F220" s="38"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="33"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="35"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="38"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="33"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="35"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="37"/>
+      <c r="F222" s="38"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="36"/>
-      <c r="C223" s="37"/>
-      <c r="D223" s="37"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="38"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="41"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -6488,95 +10083,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C225" s="39"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-      <c r="F225" s="39"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="40" t="s">
+      <c r="C226" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D226" s="41"/>
-      <c r="E226" s="41"/>
-      <c r="F226" s="42"/>
+      <c r="D226" s="44"/>
+      <c r="E226" s="44"/>
+      <c r="F226" s="45"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="43" t="s">
+      <c r="C227" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="45"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="48"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="43" t="s">
+      <c r="C228" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D228" s="44"/>
-      <c r="E228" s="44"/>
-      <c r="F228" s="45"/>
+      <c r="D228" s="47"/>
+      <c r="E228" s="47"/>
+      <c r="F228" s="48"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="46" t="s">
+      <c r="C229" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="47"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="48"/>
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="51"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="49"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="50"/>
-      <c r="F230" s="51"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="54"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="52" t="s">
+      <c r="C231" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="D231" s="53"/>
-      <c r="E231" s="53"/>
-      <c r="F231" s="54"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="57"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="52" t="s">
+      <c r="C232" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="53"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="54"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="57"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="52"/>
-      <c r="C233" s="53"/>
-      <c r="D233" s="53"/>
-      <c r="E233" s="53"/>
-      <c r="F233" s="54"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="57"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -6705,18 +10300,18 @@
       </c>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B242" s="55"/>
-      <c r="C242" s="56"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="57"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="29"/>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="27"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
-      <c r="F243" s="29"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="31"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
+      <c r="F243" s="32"/>
     </row>
     <row r="244" spans="2:6" ht="13.5" thickBot="1">
       <c r="B244" s="24" t="s">
@@ -6808,41 +10403,41 @@
       <c r="F250" s="26"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C251" s="31"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="31"/>
-      <c r="F251" s="32"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="35"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="33"/>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
-      <c r="F252" s="35"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="38"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="35"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="38"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="33"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="35"/>
-    </row>
-    <row r="255" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B255" s="36"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
-      <c r="F255" s="38"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
+      <c r="F254" s="38"/>
+    </row>
+    <row r="255" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
+      <c r="B255" s="39"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="41"/>
     </row>
     <row r="256" spans="2:6" ht="90" customHeight="1">
       <c r="B256" s="15"/>
@@ -6852,104 +10447,104 @@
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B257" s="58" t="s">
+      <c r="B257" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
+      <c r="C257" s="62"/>
+      <c r="D257" s="62"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="62"/>
     </row>
     <row r="258" spans="2:6" ht="21" thickBot="1">
-      <c r="B258" s="39" t="s">
+      <c r="B258" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C258" s="39"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="39"/>
-      <c r="F258" s="39"/>
+      <c r="C258" s="42"/>
+      <c r="D258" s="42"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
     </row>
     <row r="259" spans="2:6" ht="13.5" thickBot="1">
       <c r="B259" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C259" s="40" t="s">
+      <c r="C259" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D259" s="41"/>
-      <c r="E259" s="41"/>
-      <c r="F259" s="42"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44"/>
+      <c r="F259" s="45"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C260" s="40" t="s">
+      <c r="C260" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D260" s="41"/>
-      <c r="E260" s="41"/>
-      <c r="F260" s="42"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44"/>
+      <c r="F260" s="45"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C261" s="43" t="s">
+      <c r="C261" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D261" s="44"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="45"/>
+      <c r="D261" s="47"/>
+      <c r="E261" s="47"/>
+      <c r="F261" s="48"/>
     </row>
     <row r="262" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="46" t="s">
+      <c r="C262" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="47"/>
-      <c r="E262" s="47"/>
-      <c r="F262" s="48"/>
+      <c r="D262" s="50"/>
+      <c r="E262" s="50"/>
+      <c r="F262" s="51"/>
     </row>
     <row r="263" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C263" s="49"/>
-      <c r="D263" s="50"/>
-      <c r="E263" s="50"/>
-      <c r="F263" s="51"/>
+      <c r="C263" s="52"/>
+      <c r="D263" s="53"/>
+      <c r="E263" s="53"/>
+      <c r="F263" s="54"/>
     </row>
     <row r="264" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C264" s="52" t="s">
+      <c r="C264" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D264" s="53"/>
-      <c r="E264" s="53"/>
-      <c r="F264" s="54"/>
+      <c r="D264" s="56"/>
+      <c r="E264" s="56"/>
+      <c r="F264" s="57"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="52" t="s">
+      <c r="C265" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="53"/>
-      <c r="E265" s="53"/>
-      <c r="F265" s="54"/>
+      <c r="D265" s="56"/>
+      <c r="E265" s="56"/>
+      <c r="F265" s="57"/>
     </row>
     <row r="266" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B266" s="52"/>
-      <c r="C266" s="53"/>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="54"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="56"/>
+      <c r="D266" s="56"/>
+      <c r="E266" s="56"/>
+      <c r="F266" s="57"/>
     </row>
     <row r="267" spans="2:6" ht="13.5" thickBot="1">
       <c r="B267" s="2" t="s">
@@ -6991,11 +10586,11 @@
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B270" s="27"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="28"/>
-      <c r="E270" s="28"/>
-      <c r="F270" s="29"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="31"/>
+      <c r="E270" s="31"/>
+      <c r="F270" s="32"/>
     </row>
     <row r="271" spans="2:6" ht="13.5" thickBot="1">
       <c r="B271" s="24" t="s">
@@ -7085,133 +10680,133 @@
       <c r="F277" s="26"/>
     </row>
     <row r="278" spans="2:6">
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C278" s="31"/>
-      <c r="D278" s="31"/>
-      <c r="E278" s="31"/>
-      <c r="F278" s="32"/>
+      <c r="C278" s="34"/>
+      <c r="D278" s="34"/>
+      <c r="E278" s="34"/>
+      <c r="F278" s="35"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="33"/>
-      <c r="C279" s="34"/>
-      <c r="D279" s="34"/>
-      <c r="E279" s="34"/>
-      <c r="F279" s="35"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="37"/>
+      <c r="F279" s="38"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="33"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="35"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="37"/>
+      <c r="E280" s="37"/>
+      <c r="F280" s="38"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="33"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="35"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
+      <c r="F281" s="38"/>
     </row>
     <row r="282" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B282" s="36"/>
-      <c r="C282" s="37"/>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
-      <c r="F282" s="38"/>
-    </row>
-    <row r="283" spans="2:6" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="40"/>
+      <c r="D282" s="40"/>
+      <c r="E282" s="40"/>
+      <c r="F282" s="41"/>
+    </row>
+    <row r="283" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="284" spans="2:6" ht="21" thickBot="1">
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C284" s="39"/>
-      <c r="D284" s="39"/>
-      <c r="E284" s="39"/>
-      <c r="F284" s="39"/>
+      <c r="C284" s="42"/>
+      <c r="D284" s="42"/>
+      <c r="E284" s="42"/>
+      <c r="F284" s="42"/>
     </row>
     <row r="285" spans="2:6" ht="13.5" thickBot="1">
       <c r="B285" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C285" s="40" t="s">
+      <c r="C285" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D285" s="41"/>
-      <c r="E285" s="41"/>
-      <c r="F285" s="42"/>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44"/>
+      <c r="F285" s="45"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C286" s="40" t="s">
+      <c r="C286" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D286" s="41"/>
-      <c r="E286" s="41"/>
-      <c r="F286" s="42"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44"/>
+      <c r="F286" s="45"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C287" s="43" t="s">
+      <c r="C287" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="45"/>
+      <c r="D287" s="47"/>
+      <c r="E287" s="47"/>
+      <c r="F287" s="48"/>
     </row>
     <row r="288" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C288" s="46" t="s">
+      <c r="C288" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D288" s="47"/>
-      <c r="E288" s="47"/>
-      <c r="F288" s="48"/>
+      <c r="D288" s="50"/>
+      <c r="E288" s="50"/>
+      <c r="F288" s="51"/>
     </row>
     <row r="289" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C289" s="49"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="51"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="53"/>
+      <c r="E289" s="53"/>
+      <c r="F289" s="54"/>
     </row>
     <row r="290" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C290" s="52" t="s">
+      <c r="C290" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D290" s="53"/>
-      <c r="E290" s="53"/>
-      <c r="F290" s="54"/>
+      <c r="D290" s="56"/>
+      <c r="E290" s="56"/>
+      <c r="F290" s="57"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C291" s="52" t="s">
+      <c r="C291" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="53"/>
-      <c r="E291" s="53"/>
-      <c r="F291" s="54"/>
+      <c r="D291" s="56"/>
+      <c r="E291" s="56"/>
+      <c r="F291" s="57"/>
     </row>
     <row r="292" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B292" s="52"/>
-      <c r="C292" s="53"/>
-      <c r="D292" s="53"/>
-      <c r="E292" s="53"/>
-      <c r="F292" s="54"/>
+      <c r="B292" s="55"/>
+      <c r="C292" s="56"/>
+      <c r="D292" s="56"/>
+      <c r="E292" s="56"/>
+      <c r="F292" s="57"/>
     </row>
     <row r="293" spans="2:6" ht="13.5" thickBot="1">
       <c r="B293" s="7" t="s">
@@ -7260,11 +10855,11 @@
       <c r="F296" s="9"/>
     </row>
     <row r="297" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B297" s="27"/>
-      <c r="C297" s="28"/>
-      <c r="D297" s="28"/>
-      <c r="E297" s="28"/>
-      <c r="F297" s="29"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="31"/>
+      <c r="F297" s="32"/>
     </row>
     <row r="298" spans="2:6" ht="13.5" thickBot="1">
       <c r="B298" s="24" t="s">
@@ -7354,134 +10949,134 @@
       <c r="F304" s="26"/>
     </row>
     <row r="305" spans="2:6">
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C305" s="31"/>
-      <c r="D305" s="31"/>
-      <c r="E305" s="31"/>
-      <c r="F305" s="32"/>
+      <c r="C305" s="34"/>
+      <c r="D305" s="34"/>
+      <c r="E305" s="34"/>
+      <c r="F305" s="35"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="33"/>
-      <c r="C306" s="34"/>
-      <c r="D306" s="34"/>
-      <c r="E306" s="34"/>
-      <c r="F306" s="35"/>
+      <c r="B306" s="36"/>
+      <c r="C306" s="37"/>
+      <c r="D306" s="37"/>
+      <c r="E306" s="37"/>
+      <c r="F306" s="38"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="33"/>
-      <c r="C307" s="34"/>
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="35"/>
+      <c r="B307" s="36"/>
+      <c r="C307" s="37"/>
+      <c r="D307" s="37"/>
+      <c r="E307" s="37"/>
+      <c r="F307" s="38"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="34"/>
-      <c r="E308" s="34"/>
-      <c r="F308" s="35"/>
+      <c r="B308" s="36"/>
+      <c r="C308" s="37"/>
+      <c r="D308" s="37"/>
+      <c r="E308" s="37"/>
+      <c r="F308" s="38"/>
     </row>
     <row r="309" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B309" s="36"/>
-      <c r="C309" s="37"/>
-      <c r="D309" s="37"/>
-      <c r="E309" s="37"/>
-      <c r="F309" s="38"/>
+      <c r="B309" s="39"/>
+      <c r="C309" s="40"/>
+      <c r="D309" s="40"/>
+      <c r="E309" s="40"/>
+      <c r="F309" s="41"/>
     </row>
     <row r="310" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="312" spans="2:6" ht="21" thickBot="1">
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C312" s="39"/>
-      <c r="D312" s="39"/>
-      <c r="E312" s="39"/>
-      <c r="F312" s="39"/>
+      <c r="C312" s="42"/>
+      <c r="D312" s="42"/>
+      <c r="E312" s="42"/>
+      <c r="F312" s="42"/>
     </row>
     <row r="313" spans="2:6" ht="13.5" thickBot="1">
       <c r="B313" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C313" s="40" t="s">
+      <c r="C313" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D313" s="41"/>
-      <c r="E313" s="41"/>
-      <c r="F313" s="42"/>
+      <c r="D313" s="44"/>
+      <c r="E313" s="44"/>
+      <c r="F313" s="45"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C314" s="40" t="s">
+      <c r="C314" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D314" s="41"/>
-      <c r="E314" s="41"/>
-      <c r="F314" s="42"/>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44"/>
+      <c r="F314" s="45"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C315" s="43" t="s">
+      <c r="C315" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D315" s="44"/>
-      <c r="E315" s="44"/>
-      <c r="F315" s="45"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="47"/>
+      <c r="F315" s="48"/>
     </row>
     <row r="316" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C316" s="46" t="s">
+      <c r="C316" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D316" s="47"/>
-      <c r="E316" s="47"/>
-      <c r="F316" s="48"/>
+      <c r="D316" s="50"/>
+      <c r="E316" s="50"/>
+      <c r="F316" s="51"/>
     </row>
     <row r="317" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C317" s="49"/>
-      <c r="D317" s="50"/>
-      <c r="E317" s="50"/>
-      <c r="F317" s="51"/>
+      <c r="C317" s="52"/>
+      <c r="D317" s="53"/>
+      <c r="E317" s="53"/>
+      <c r="F317" s="54"/>
     </row>
     <row r="318" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="52" t="s">
+      <c r="C318" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D318" s="53"/>
-      <c r="E318" s="53"/>
-      <c r="F318" s="54"/>
+      <c r="D318" s="56"/>
+      <c r="E318" s="56"/>
+      <c r="F318" s="57"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C319" s="52" t="s">
+      <c r="C319" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="53"/>
-      <c r="E319" s="53"/>
-      <c r="F319" s="54"/>
+      <c r="D319" s="56"/>
+      <c r="E319" s="56"/>
+      <c r="F319" s="57"/>
     </row>
     <row r="320" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B320" s="52"/>
-      <c r="C320" s="53"/>
-      <c r="D320" s="53"/>
-      <c r="E320" s="53"/>
-      <c r="F320" s="54"/>
+      <c r="B320" s="55"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="56"/>
+      <c r="E320" s="56"/>
+      <c r="F320" s="57"/>
     </row>
     <row r="321" spans="2:6" ht="13.5" thickBot="1">
       <c r="B321" s="7" t="s">
@@ -7523,11 +11118,11 @@
       <c r="F323" s="9"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B324" s="27"/>
-      <c r="C324" s="28"/>
-      <c r="D324" s="28"/>
-      <c r="E324" s="28"/>
-      <c r="F324" s="29"/>
+      <c r="B324" s="30"/>
+      <c r="C324" s="31"/>
+      <c r="D324" s="31"/>
+      <c r="E324" s="31"/>
+      <c r="F324" s="32"/>
     </row>
     <row r="325" spans="2:6" ht="13.5" thickBot="1">
       <c r="B325" s="24" t="s">
@@ -7617,133 +11212,133 @@
       <c r="F331" s="26"/>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="30" t="s">
+      <c r="B332" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C332" s="31"/>
-      <c r="D332" s="31"/>
-      <c r="E332" s="31"/>
-      <c r="F332" s="32"/>
+      <c r="C332" s="34"/>
+      <c r="D332" s="34"/>
+      <c r="E332" s="34"/>
+      <c r="F332" s="35"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="33"/>
-      <c r="C333" s="34"/>
-      <c r="D333" s="34"/>
-      <c r="E333" s="34"/>
-      <c r="F333" s="35"/>
+      <c r="B333" s="36"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="38"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="34"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="35"/>
+      <c r="B334" s="36"/>
+      <c r="C334" s="37"/>
+      <c r="D334" s="37"/>
+      <c r="E334" s="37"/>
+      <c r="F334" s="38"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="33"/>
-      <c r="C335" s="34"/>
-      <c r="D335" s="34"/>
-      <c r="E335" s="34"/>
-      <c r="F335" s="35"/>
+      <c r="B335" s="36"/>
+      <c r="C335" s="37"/>
+      <c r="D335" s="37"/>
+      <c r="E335" s="37"/>
+      <c r="F335" s="38"/>
     </row>
     <row r="336" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B336" s="36"/>
-      <c r="C336" s="37"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="38"/>
+      <c r="B336" s="39"/>
+      <c r="C336" s="40"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="40"/>
+      <c r="F336" s="41"/>
     </row>
     <row r="337" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="338" spans="2:6" ht="21" thickBot="1">
-      <c r="B338" s="39" t="s">
+      <c r="B338" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C338" s="39"/>
-      <c r="D338" s="39"/>
-      <c r="E338" s="39"/>
-      <c r="F338" s="39"/>
+      <c r="C338" s="42"/>
+      <c r="D338" s="42"/>
+      <c r="E338" s="42"/>
+      <c r="F338" s="42"/>
     </row>
     <row r="339" spans="2:6" ht="13.5" thickBot="1">
       <c r="B339" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C339" s="40" t="s">
+      <c r="C339" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D339" s="41"/>
-      <c r="E339" s="41"/>
-      <c r="F339" s="42"/>
+      <c r="D339" s="44"/>
+      <c r="E339" s="44"/>
+      <c r="F339" s="45"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C340" s="40" t="s">
+      <c r="C340" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="41"/>
-      <c r="E340" s="41"/>
-      <c r="F340" s="42"/>
+      <c r="D340" s="44"/>
+      <c r="E340" s="44"/>
+      <c r="F340" s="45"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C341" s="43" t="s">
+      <c r="C341" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D341" s="44"/>
-      <c r="E341" s="44"/>
-      <c r="F341" s="45"/>
+      <c r="D341" s="47"/>
+      <c r="E341" s="47"/>
+      <c r="F341" s="48"/>
     </row>
     <row r="342" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C342" s="46" t="s">
+      <c r="C342" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="47"/>
-      <c r="E342" s="47"/>
-      <c r="F342" s="48"/>
+      <c r="D342" s="50"/>
+      <c r="E342" s="50"/>
+      <c r="F342" s="51"/>
     </row>
     <row r="343" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C343" s="49"/>
-      <c r="D343" s="50"/>
-      <c r="E343" s="50"/>
-      <c r="F343" s="51"/>
+      <c r="C343" s="52"/>
+      <c r="D343" s="53"/>
+      <c r="E343" s="53"/>
+      <c r="F343" s="54"/>
     </row>
     <row r="344" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C344" s="52" t="s">
+      <c r="C344" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D344" s="53"/>
-      <c r="E344" s="53"/>
-      <c r="F344" s="54"/>
+      <c r="D344" s="56"/>
+      <c r="E344" s="56"/>
+      <c r="F344" s="57"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C345" s="52" t="s">
+      <c r="C345" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="53"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="54"/>
+      <c r="D345" s="56"/>
+      <c r="E345" s="56"/>
+      <c r="F345" s="57"/>
     </row>
     <row r="346" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B346" s="52"/>
-      <c r="C346" s="53"/>
-      <c r="D346" s="53"/>
-      <c r="E346" s="53"/>
-      <c r="F346" s="54"/>
+      <c r="B346" s="55"/>
+      <c r="C346" s="56"/>
+      <c r="D346" s="56"/>
+      <c r="E346" s="56"/>
+      <c r="F346" s="57"/>
     </row>
     <row r="347" spans="2:6" ht="13.5" thickBot="1">
       <c r="B347" s="7" t="s">
@@ -7784,11 +11379,11 @@
       <c r="F350" s="9"/>
     </row>
     <row r="351" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B351" s="27"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="28"/>
-      <c r="E351" s="28"/>
-      <c r="F351" s="29"/>
+      <c r="B351" s="30"/>
+      <c r="C351" s="31"/>
+      <c r="D351" s="31"/>
+      <c r="E351" s="31"/>
+      <c r="F351" s="32"/>
     </row>
     <row r="352" spans="2:6" ht="13.5" thickBot="1">
       <c r="B352" s="24" t="s">
@@ -7876,126 +11471,128 @@
       <c r="F358" s="26"/>
     </row>
     <row r="359" spans="2:6">
-      <c r="B359" s="30" t="s">
+      <c r="B359" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C359" s="31"/>
-      <c r="D359" s="31"/>
-      <c r="E359" s="31"/>
-      <c r="F359" s="32"/>
+      <c r="C359" s="34"/>
+      <c r="D359" s="34"/>
+      <c r="E359" s="34"/>
+      <c r="F359" s="35"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="33"/>
-      <c r="C360" s="34"/>
-      <c r="D360" s="34"/>
-      <c r="E360" s="34"/>
-      <c r="F360" s="35"/>
+      <c r="B360" s="36"/>
+      <c r="C360" s="37"/>
+      <c r="D360" s="37"/>
+      <c r="E360" s="37"/>
+      <c r="F360" s="38"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="33"/>
-      <c r="C361" s="34"/>
-      <c r="D361" s="34"/>
-      <c r="E361" s="34"/>
-      <c r="F361" s="35"/>
+      <c r="B361" s="36"/>
+      <c r="C361" s="37"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="37"/>
+      <c r="F361" s="38"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="33"/>
-      <c r="C362" s="34"/>
-      <c r="D362" s="34"/>
-      <c r="E362" s="34"/>
-      <c r="F362" s="35"/>
+      <c r="B362" s="36"/>
+      <c r="C362" s="37"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="37"/>
+      <c r="F362" s="38"/>
     </row>
     <row r="363" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B363" s="36"/>
-      <c r="C363" s="37"/>
-      <c r="D363" s="37"/>
-      <c r="E363" s="37"/>
-      <c r="F363" s="38"/>
+      <c r="B363" s="39"/>
+      <c r="C363" s="40"/>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F255"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F363"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="C339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="C285:F285"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F309"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C264:F264"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B24:F24"/>
@@ -8020,90 +11617,88 @@
     <mergeCell ref="B271:F271"/>
     <mergeCell ref="B278:F282"/>
     <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C264:F264"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="C261:F261"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="C285:F285"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F309"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F363"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="C339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F255"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="203">
   <si>
     <t>服务地址</t>
   </si>
@@ -5835,6 +5835,26 @@
       <t xml:space="preserve">"]}},"msg":"sucsess","code":0}
 </t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>needHl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要标记高亮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Init</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否 1是</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6409,15 +6429,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6502,20 +6513,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7814,10 +7834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F363"/>
+  <dimension ref="B2:F364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251:F255"/>
+    <sheetView tabSelected="1" topLeftCell="B232" workbookViewId="0">
+      <selection activeCell="F242" sqref="F242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7830,113 +7850,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -7978,18 +7998,18 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
       <c r="B18" s="24" t="s">
@@ -8081,139 +8101,139 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8319,18 +8339,18 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B51" s="24" t="s">
@@ -8351,41 +8371,41 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="38"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="38"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -8405,95 +8425,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -8567,11 +8587,11 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B76" s="24" t="s">
@@ -8666,38 +8686,38 @@
       <c r="B83" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="35"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="38"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="36"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="38"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="38"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="41"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -8717,95 +8737,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="45"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="45"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C94" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="48"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="51"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="54"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="51"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="57"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="54"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="55" t="s">
+      <c r="C98" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="54"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="57"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="54"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -8866,11 +8886,11 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="27"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="57"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B105" s="24" t="s">
@@ -8960,41 +8980,41 @@
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="35"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="36"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="38"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="36"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="38"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="36"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="38"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="35"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="39"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="41"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9014,95 +9034,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="43" t="s">
+      <c r="C121" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="45"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="42"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="45"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="46" t="s">
+      <c r="C123" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="48"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="51"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="48"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="52"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="54"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="51"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="55" t="s">
+      <c r="C126" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="57"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="54"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="55" t="s">
+      <c r="C127" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="57"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="54"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="57"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="54"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9129,11 +9149,11 @@
       <c r="F130" s="26"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="27"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="57"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B132" s="24" t="s">
@@ -9223,41 +9243,41 @@
       <c r="F138" s="26"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="58" t="s">
+      <c r="B139" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="35"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="32"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="36"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="38"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="35"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="36"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="38"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="35"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="36"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="38"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="35"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="39"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="41"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="38"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9277,95 +9297,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="42" t="s">
+      <c r="B147" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="43" t="s">
+      <c r="C148" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="45"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="45"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="46" t="s">
+      <c r="C150" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="48"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="45"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="50"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="51"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="48"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53"/>
-      <c r="E152" s="53"/>
-      <c r="F152" s="54"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="51"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="55" t="s">
+      <c r="C153" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="56"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="57"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="54"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="55" t="s">
+      <c r="C154" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="56"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="57"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="54"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="55"/>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="57"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="54"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9392,11 +9412,11 @@
       <c r="F157" s="26"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="27"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="29"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="57"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B159" s="24" t="s">
@@ -9486,41 +9506,41 @@
       <c r="F165" s="26"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="58" t="s">
+      <c r="B166" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="35"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="32"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="36"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="38"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="35"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="36"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="38"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="35"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="36"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="38"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="35"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="39"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="41"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="38"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -9530,95 +9550,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="42" t="s">
+      <c r="B172" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="44"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="45"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="42"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="43" t="s">
+      <c r="C174" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="44"/>
-      <c r="E174" s="44"/>
-      <c r="F174" s="45"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="42"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="46" t="s">
+      <c r="C175" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="47"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="48"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="45"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="51"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="48"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="52"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="54"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="51"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="55" t="s">
+      <c r="C178" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="57"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="54"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="55" t="s">
+      <c r="C179" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="56"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="57"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="54"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="55"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="57"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="54"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -9660,11 +9680,11 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="27"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="57"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B185" s="24" t="s">
@@ -9754,41 +9774,41 @@
       <c r="F191" s="26"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="35"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="32"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="36"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="38"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="35"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="36"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="38"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="35"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="36"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="38"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="39"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="41"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="38"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -9798,95 +9818,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="42"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="43" t="s">
+      <c r="C199" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="44"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="45"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="42"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="43" t="s">
+      <c r="C200" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="44"/>
-      <c r="E200" s="44"/>
-      <c r="F200" s="45"/>
+      <c r="D200" s="41"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="42"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="46" t="s">
+      <c r="C201" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="47"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="48"/>
+      <c r="D201" s="44"/>
+      <c r="E201" s="44"/>
+      <c r="F201" s="45"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="50"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="51"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="47"/>
+      <c r="F202" s="48"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="52"/>
-      <c r="D203" s="53"/>
-      <c r="E203" s="53"/>
-      <c r="F203" s="54"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="51"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="55" t="s">
+      <c r="C204" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="56"/>
-      <c r="E204" s="56"/>
-      <c r="F204" s="57"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="53"/>
+      <c r="F204" s="54"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="55" t="s">
+      <c r="C205" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="56"/>
-      <c r="E205" s="56"/>
-      <c r="F205" s="57"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="54"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="55"/>
-      <c r="C206" s="56"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="56"/>
-      <c r="F206" s="57"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="54"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -9945,11 +9965,11 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="27"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="29"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="57"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B212" s="24" t="s">
@@ -10039,41 +10059,41 @@
       <c r="F218" s="26"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="58" t="s">
+      <c r="B219" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="35"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="32"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="36"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="38"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="35"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="36"/>
-      <c r="C221" s="37"/>
-      <c r="D221" s="37"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="38"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="35"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="36"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="37"/>
-      <c r="E222" s="37"/>
-      <c r="F222" s="38"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="34"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="35"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="39"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="41"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
+      <c r="F223" s="38"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10083,95 +10103,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C225" s="42"/>
-      <c r="D225" s="42"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
+      <c r="C225" s="39"/>
+      <c r="D225" s="39"/>
+      <c r="E225" s="39"/>
+      <c r="F225" s="39"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="43" t="s">
+      <c r="C226" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D226" s="44"/>
-      <c r="E226" s="44"/>
-      <c r="F226" s="45"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="42"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="46" t="s">
+      <c r="C227" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="47"/>
-      <c r="E227" s="47"/>
-      <c r="F227" s="48"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="45"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="46" t="s">
+      <c r="C228" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D228" s="47"/>
-      <c r="E228" s="47"/>
-      <c r="F228" s="48"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="45"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="49" t="s">
+      <c r="C229" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="51"/>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="48"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="52"/>
-      <c r="D230" s="53"/>
-      <c r="E230" s="53"/>
-      <c r="F230" s="54"/>
+      <c r="C230" s="49"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="51"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="55" t="s">
+      <c r="C231" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="57"/>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="54"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="55" t="s">
+      <c r="C232" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="57"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="55"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="57"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="53"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="54"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10300,47 +10320,51 @@
       </c>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B242" s="27"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="28"/>
-      <c r="F242" s="29"/>
+      <c r="B242" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="30"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="31"/>
-      <c r="F243" s="32"/>
-    </row>
-    <row r="244" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B244" s="24" t="s">
+      <c r="B243" s="55"/>
+      <c r="C243" s="56"/>
+      <c r="D243" s="56"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="57"/>
+    </row>
+    <row r="244" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B244" s="27"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="29"/>
+    </row>
+    <row r="245" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B245" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
-      <c r="F244" s="26"/>
-    </row>
-    <row r="245" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B245" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
+      <c r="F245" s="26"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>93</v>
@@ -10350,1230 +10374,1289 @@
     </row>
     <row r="247" spans="2:6" ht="14.25" thickBot="1">
       <c r="B247" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B248" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C248" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D248" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E247" s="4"/>
-      <c r="F247" s="4" t="s">
+      <c r="E248" s="4"/>
+      <c r="F248" s="4" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B248" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E248" s="11"/>
-      <c r="F248" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="249" spans="2:6" ht="14.25" thickBot="1">
       <c r="B249" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E249" s="11"/>
       <c r="F249" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B250" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E250" s="11"/>
+      <c r="F250" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="250" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B250" s="24" t="s">
+    <row r="251" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B251" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-      <c r="F250" s="26"/>
-    </row>
-    <row r="251" spans="2:6">
-      <c r="B251" s="33" t="s">
+      <c r="C251" s="25"/>
+      <c r="D251" s="25"/>
+      <c r="E251" s="25"/>
+      <c r="F251" s="26"/>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="35"/>
-    </row>
-    <row r="252" spans="2:6">
-      <c r="B252" s="36"/>
-      <c r="C252" s="37"/>
-      <c r="D252" s="37"/>
-      <c r="E252" s="37"/>
-      <c r="F252" s="38"/>
+      <c r="C252" s="31"/>
+      <c r="D252" s="31"/>
+      <c r="E252" s="31"/>
+      <c r="F252" s="32"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="36"/>
-      <c r="C253" s="37"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="37"/>
-      <c r="F253" s="38"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="34"/>
+      <c r="F253" s="35"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="36"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
-      <c r="F254" s="38"/>
-    </row>
-    <row r="255" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B255" s="39"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="41"/>
-    </row>
-    <row r="256" spans="2:6" ht="90" customHeight="1">
-      <c r="B256" s="15"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-    </row>
-    <row r="257" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B257" s="62" t="s">
+      <c r="B254" s="33"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34"/>
+      <c r="F254" s="35"/>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" s="33"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="35"/>
+    </row>
+    <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
+      <c r="B256" s="36"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="38"/>
+    </row>
+    <row r="257" spans="2:6" ht="90" customHeight="1">
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+    </row>
+    <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B258" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="62"/>
-    </row>
-    <row r="258" spans="2:6" ht="21" thickBot="1">
-      <c r="B258" s="42" t="s">
+      <c r="C258" s="58"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="58"/>
+    </row>
+    <row r="259" spans="2:6" ht="21" thickBot="1">
+      <c r="B259" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C258" s="42"/>
-      <c r="D258" s="42"/>
-      <c r="E258" s="42"/>
-      <c r="F258" s="42"/>
-    </row>
-    <row r="259" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B259" s="12" t="s">
+      <c r="C259" s="39"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="39"/>
+      <c r="F259" s="39"/>
+    </row>
+    <row r="260" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C259" s="43" t="s">
+      <c r="C260" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D259" s="44"/>
-      <c r="E259" s="44"/>
-      <c r="F259" s="45"/>
-    </row>
-    <row r="260" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B260" s="5" t="s">
+      <c r="D260" s="41"/>
+      <c r="E260" s="41"/>
+      <c r="F260" s="42"/>
+    </row>
+    <row r="261" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C260" s="43" t="s">
+      <c r="C261" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D260" s="44"/>
-      <c r="E260" s="44"/>
-      <c r="F260" s="45"/>
-    </row>
-    <row r="261" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B261" s="2" t="s">
+      <c r="D261" s="41"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="42"/>
+    </row>
+    <row r="262" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C261" s="46" t="s">
+      <c r="C262" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D261" s="47"/>
-      <c r="E261" s="47"/>
-      <c r="F261" s="48"/>
-    </row>
-    <row r="262" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B262" s="2" t="s">
+      <c r="D262" s="44"/>
+      <c r="E262" s="44"/>
+      <c r="F262" s="45"/>
+    </row>
+    <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="49" t="s">
+      <c r="C263" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="50"/>
-      <c r="E262" s="50"/>
-      <c r="F262" s="51"/>
-    </row>
-    <row r="263" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B263" s="2" t="s">
+      <c r="D263" s="47"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="48"/>
+    </row>
+    <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C263" s="52"/>
-      <c r="D263" s="53"/>
-      <c r="E263" s="53"/>
-      <c r="F263" s="54"/>
-    </row>
-    <row r="264" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B264" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C264" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D264" s="56"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="57"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="50"/>
+      <c r="E264" s="50"/>
+      <c r="F264" s="51"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" s="53"/>
+      <c r="E265" s="53"/>
+      <c r="F265" s="54"/>
+    </row>
+    <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="55" t="s">
+      <c r="C266" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="56"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="57"/>
-    </row>
-    <row r="266" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B266" s="55"/>
-      <c r="C266" s="56"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="57"/>
-    </row>
-    <row r="267" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B267" s="2" t="s">
+      <c r="D266" s="53"/>
+      <c r="E266" s="53"/>
+      <c r="F266" s="54"/>
+    </row>
+    <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B267" s="52"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="53"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="54"/>
+    </row>
+    <row r="268" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B268" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3" t="s">
+      <c r="D268" s="3"/>
+      <c r="E268" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F267" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B268" s="24" t="s">
+    <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B269" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C268" s="25"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="25"/>
-      <c r="F268" s="26"/>
-    </row>
-    <row r="269" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="25"/>
+      <c r="D269" s="25"/>
+      <c r="E269" s="25"/>
+      <c r="F269" s="26"/>
+    </row>
+    <row r="270" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B270" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E269" s="6" t="s">
+      <c r="E270" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F269" s="3"/>
-    </row>
-    <row r="270" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B270" s="30"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
-      <c r="E270" s="31"/>
-      <c r="F270" s="32"/>
-    </row>
-    <row r="271" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B271" s="24" t="s">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B271" s="27"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="29"/>
+    </row>
+    <row r="272" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B272" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C271" s="25"/>
-      <c r="D271" s="25"/>
-      <c r="E271" s="25"/>
-      <c r="F271" s="26"/>
-    </row>
-    <row r="272" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B272" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D272" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="25"/>
+      <c r="E272" s="25"/>
+      <c r="F272" s="26"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
     <row r="274" spans="2:6" ht="14.25" thickBot="1">
       <c r="B274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B275" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C275" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D275" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E274" s="4"/>
-      <c r="F274" s="9" t="s">
+      <c r="E275" s="4"/>
+      <c r="F275" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B275" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E275" s="11"/>
-      <c r="F275" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="276" spans="2:6" ht="14.25" thickBot="1">
       <c r="B276" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E276" s="11"/>
+      <c r="F276" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B277" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D276" s="8" t="s">
+      <c r="D277" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E276" s="11"/>
-      <c r="F276" s="4"/>
-    </row>
-    <row r="277" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B277" s="24" t="s">
+      <c r="E277" s="11"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B278" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C277" s="25"/>
-      <c r="D277" s="25"/>
-      <c r="E277" s="25"/>
-      <c r="F277" s="26"/>
-    </row>
-    <row r="278" spans="2:6">
-      <c r="B278" s="33" t="s">
+      <c r="C278" s="25"/>
+      <c r="D278" s="25"/>
+      <c r="E278" s="25"/>
+      <c r="F278" s="26"/>
+    </row>
+    <row r="279" spans="2:6">
+      <c r="B279" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C278" s="34"/>
-      <c r="D278" s="34"/>
-      <c r="E278" s="34"/>
-      <c r="F278" s="35"/>
-    </row>
-    <row r="279" spans="2:6">
-      <c r="B279" s="36"/>
-      <c r="C279" s="37"/>
-      <c r="D279" s="37"/>
-      <c r="E279" s="37"/>
-      <c r="F279" s="38"/>
+      <c r="C279" s="31"/>
+      <c r="D279" s="31"/>
+      <c r="E279" s="31"/>
+      <c r="F279" s="32"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="36"/>
-      <c r="C280" s="37"/>
-      <c r="D280" s="37"/>
-      <c r="E280" s="37"/>
-      <c r="F280" s="38"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="34"/>
+      <c r="D280" s="34"/>
+      <c r="E280" s="34"/>
+      <c r="F280" s="35"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="36"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-      <c r="F281" s="38"/>
-    </row>
-    <row r="282" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B282" s="39"/>
-      <c r="C282" s="40"/>
-      <c r="D282" s="40"/>
-      <c r="E282" s="40"/>
-      <c r="F282" s="41"/>
-    </row>
-    <row r="283" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="284" spans="2:6" ht="21" thickBot="1">
-      <c r="B284" s="42" t="s">
+      <c r="B281" s="33"/>
+      <c r="C281" s="34"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
+      <c r="F281" s="35"/>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="34"/>
+      <c r="E282" s="34"/>
+      <c r="F282" s="35"/>
+    </row>
+    <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B283" s="36"/>
+      <c r="C283" s="37"/>
+      <c r="D283" s="37"/>
+      <c r="E283" s="37"/>
+      <c r="F283" s="38"/>
+    </row>
+    <row r="284" spans="2:6" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="285" spans="2:6" ht="21" thickBot="1">
+      <c r="B285" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C284" s="42"/>
-      <c r="D284" s="42"/>
-      <c r="E284" s="42"/>
-      <c r="F284" s="42"/>
-    </row>
-    <row r="285" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B285" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D285" s="44"/>
-      <c r="E285" s="44"/>
-      <c r="F285" s="45"/>
+      <c r="C285" s="39"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="39"/>
+      <c r="F285" s="39"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D286" s="41"/>
+      <c r="E286" s="41"/>
+      <c r="F286" s="42"/>
+    </row>
+    <row r="287" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C286" s="43" t="s">
+      <c r="C287" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D286" s="44"/>
-      <c r="E286" s="44"/>
-      <c r="F286" s="45"/>
-    </row>
-    <row r="287" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B287" s="7" t="s">
+      <c r="D287" s="41"/>
+      <c r="E287" s="41"/>
+      <c r="F287" s="42"/>
+    </row>
+    <row r="288" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C287" s="46" t="s">
+      <c r="C288" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D287" s="47"/>
-      <c r="E287" s="47"/>
-      <c r="F287" s="48"/>
-    </row>
-    <row r="288" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B288" s="7" t="s">
+      <c r="D288" s="44"/>
+      <c r="E288" s="44"/>
+      <c r="F288" s="45"/>
+    </row>
+    <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C288" s="49" t="s">
+      <c r="C289" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D288" s="50"/>
-      <c r="E288" s="50"/>
-      <c r="F288" s="51"/>
-    </row>
-    <row r="289" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B289" s="7" t="s">
+      <c r="D289" s="47"/>
+      <c r="E289" s="47"/>
+      <c r="F289" s="48"/>
+    </row>
+    <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C289" s="52"/>
-      <c r="D289" s="53"/>
-      <c r="E289" s="53"/>
-      <c r="F289" s="54"/>
-    </row>
-    <row r="290" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B290" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C290" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D290" s="56"/>
-      <c r="E290" s="56"/>
-      <c r="F290" s="57"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="51"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" s="53"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="54"/>
+    </row>
+    <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C291" s="55" t="s">
+      <c r="C292" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="56"/>
-      <c r="E291" s="56"/>
-      <c r="F291" s="57"/>
-    </row>
-    <row r="292" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B292" s="55"/>
-      <c r="C292" s="56"/>
-      <c r="D292" s="56"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="57"/>
-    </row>
-    <row r="293" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B293" s="7" t="s">
+      <c r="D292" s="53"/>
+      <c r="E292" s="53"/>
+      <c r="F292" s="54"/>
+    </row>
+    <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B293" s="52"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="53"/>
+      <c r="E293" s="53"/>
+      <c r="F293" s="54"/>
+    </row>
+    <row r="294" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B294" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C294" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9" t="s">
+      <c r="D294" s="9"/>
+      <c r="E294" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F293" s="9" t="s">
+      <c r="F294" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B294" s="24" t="s">
+    <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B295" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C294" s="25"/>
-      <c r="D294" s="25"/>
-      <c r="E294" s="25"/>
-      <c r="F294" s="26"/>
-    </row>
-    <row r="295" spans="2:6" ht="27.75" thickBot="1">
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="25"/>
+      <c r="D295" s="25"/>
+      <c r="E295" s="25"/>
+      <c r="F295" s="26"/>
+    </row>
+    <row r="296" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B296" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C296" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D296" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E296" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F295" s="9"/>
-    </row>
-    <row r="296" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B296" s="10"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="14"/>
       <c r="F296" s="9"/>
     </row>
     <row r="297" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B297" s="30"/>
-      <c r="C297" s="31"/>
-      <c r="D297" s="31"/>
-      <c r="E297" s="31"/>
-      <c r="F297" s="32"/>
-    </row>
-    <row r="298" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B298" s="24" t="s">
+      <c r="B297" s="10"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="9"/>
+    </row>
+    <row r="298" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B298" s="27"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="28"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="29"/>
+    </row>
+    <row r="299" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B299" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C298" s="25"/>
-      <c r="D298" s="25"/>
-      <c r="E298" s="25"/>
-      <c r="F298" s="26"/>
-    </row>
-    <row r="299" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B299" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D299" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="25"/>
+      <c r="E299" s="25"/>
+      <c r="F299" s="26"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
     <row r="301" spans="2:6" ht="14.25" thickBot="1">
       <c r="B301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B302" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C301" s="9" t="s">
+      <c r="C302" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D302" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E301" s="4"/>
-      <c r="F301" s="9" t="s">
+      <c r="E302" s="4"/>
+      <c r="F302" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="302" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B302" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C302" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E302" s="11"/>
-      <c r="F302" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="303" spans="2:6" ht="14.25" thickBot="1">
       <c r="B303" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E303" s="11"/>
+      <c r="F303" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B304" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C304" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D303" s="8" t="s">
+      <c r="D304" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E303" s="11"/>
-      <c r="F303" s="4"/>
-    </row>
-    <row r="304" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B304" s="24" t="s">
+      <c r="E304" s="11"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B305" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C304" s="25"/>
-      <c r="D304" s="25"/>
-      <c r="E304" s="25"/>
-      <c r="F304" s="26"/>
-    </row>
-    <row r="305" spans="2:6">
-      <c r="B305" s="33" t="s">
+      <c r="C305" s="25"/>
+      <c r="D305" s="25"/>
+      <c r="E305" s="25"/>
+      <c r="F305" s="26"/>
+    </row>
+    <row r="306" spans="2:6">
+      <c r="B306" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C305" s="34"/>
-      <c r="D305" s="34"/>
-      <c r="E305" s="34"/>
-      <c r="F305" s="35"/>
-    </row>
-    <row r="306" spans="2:6">
-      <c r="B306" s="36"/>
-      <c r="C306" s="37"/>
-      <c r="D306" s="37"/>
-      <c r="E306" s="37"/>
-      <c r="F306" s="38"/>
+      <c r="C306" s="31"/>
+      <c r="D306" s="31"/>
+      <c r="E306" s="31"/>
+      <c r="F306" s="32"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="36"/>
-      <c r="C307" s="37"/>
-      <c r="D307" s="37"/>
-      <c r="E307" s="37"/>
-      <c r="F307" s="38"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="34"/>
+      <c r="D307" s="34"/>
+      <c r="E307" s="34"/>
+      <c r="F307" s="35"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="36"/>
-      <c r="C308" s="37"/>
-      <c r="D308" s="37"/>
-      <c r="E308" s="37"/>
-      <c r="F308" s="38"/>
-    </row>
-    <row r="309" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B309" s="39"/>
-      <c r="C309" s="40"/>
-      <c r="D309" s="40"/>
-      <c r="E309" s="40"/>
-      <c r="F309" s="41"/>
-    </row>
-    <row r="310" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="312" spans="2:6" ht="21" thickBot="1">
-      <c r="B312" s="42" t="s">
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="34"/>
+      <c r="E308" s="34"/>
+      <c r="F308" s="35"/>
+    </row>
+    <row r="309" spans="2:6">
+      <c r="B309" s="33"/>
+      <c r="C309" s="34"/>
+      <c r="D309" s="34"/>
+      <c r="E309" s="34"/>
+      <c r="F309" s="35"/>
+    </row>
+    <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B310" s="36"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="37"/>
+      <c r="E310" s="37"/>
+      <c r="F310" s="38"/>
+    </row>
+    <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="313" spans="2:6" ht="21" thickBot="1">
+      <c r="B313" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C312" s="42"/>
-      <c r="D312" s="42"/>
-      <c r="E312" s="42"/>
-      <c r="F312" s="42"/>
-    </row>
-    <row r="313" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B313" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D313" s="44"/>
-      <c r="E313" s="44"/>
-      <c r="F313" s="45"/>
+      <c r="C313" s="39"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="39"/>
+      <c r="F313" s="39"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D314" s="41"/>
+      <c r="E314" s="41"/>
+      <c r="F314" s="42"/>
+    </row>
+    <row r="315" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C314" s="43" t="s">
+      <c r="C315" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D314" s="44"/>
-      <c r="E314" s="44"/>
-      <c r="F314" s="45"/>
-    </row>
-    <row r="315" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B315" s="7" t="s">
+      <c r="D315" s="41"/>
+      <c r="E315" s="41"/>
+      <c r="F315" s="42"/>
+    </row>
+    <row r="316" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C315" s="46" t="s">
+      <c r="C316" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D315" s="47"/>
-      <c r="E315" s="47"/>
-      <c r="F315" s="48"/>
-    </row>
-    <row r="316" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B316" s="7" t="s">
+      <c r="D316" s="44"/>
+      <c r="E316" s="44"/>
+      <c r="F316" s="45"/>
+    </row>
+    <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C316" s="49" t="s">
+      <c r="C317" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D316" s="50"/>
-      <c r="E316" s="50"/>
-      <c r="F316" s="51"/>
-    </row>
-    <row r="317" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B317" s="7" t="s">
+      <c r="D317" s="47"/>
+      <c r="E317" s="47"/>
+      <c r="F317" s="48"/>
+    </row>
+    <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C317" s="52"/>
-      <c r="D317" s="53"/>
-      <c r="E317" s="53"/>
-      <c r="F317" s="54"/>
-    </row>
-    <row r="318" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B318" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C318" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D318" s="56"/>
-      <c r="E318" s="56"/>
-      <c r="F318" s="57"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="50"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="51"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C319" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" s="53"/>
+      <c r="E319" s="53"/>
+      <c r="F319" s="54"/>
+    </row>
+    <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C319" s="55" t="s">
+      <c r="C320" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="56"/>
-      <c r="E319" s="56"/>
-      <c r="F319" s="57"/>
-    </row>
-    <row r="320" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B320" s="55"/>
-      <c r="C320" s="56"/>
-      <c r="D320" s="56"/>
-      <c r="E320" s="56"/>
-      <c r="F320" s="57"/>
-    </row>
-    <row r="321" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B321" s="7" t="s">
+      <c r="D320" s="53"/>
+      <c r="E320" s="53"/>
+      <c r="F320" s="54"/>
+    </row>
+    <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B321" s="52"/>
+      <c r="C321" s="53"/>
+      <c r="D321" s="53"/>
+      <c r="E321" s="53"/>
+      <c r="F321" s="54"/>
+    </row>
+    <row r="322" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B322" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C321" s="9" t="s">
+      <c r="C322" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D321" s="9"/>
-      <c r="E321" s="9" t="s">
+      <c r="D322" s="9"/>
+      <c r="E322" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F321" s="9" t="s">
+      <c r="F322" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B322" s="24" t="s">
+    <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B323" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C322" s="25"/>
-      <c r="D322" s="25"/>
-      <c r="E322" s="25"/>
-      <c r="F322" s="26"/>
-    </row>
-    <row r="323" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="25"/>
+      <c r="D323" s="25"/>
+      <c r="E323" s="25"/>
+      <c r="F323" s="26"/>
+    </row>
+    <row r="324" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B324" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C324" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="D324" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E323" s="6" t="s">
+      <c r="E324" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F323" s="9"/>
-    </row>
-    <row r="324" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B324" s="30"/>
-      <c r="C324" s="31"/>
-      <c r="D324" s="31"/>
-      <c r="E324" s="31"/>
-      <c r="F324" s="32"/>
-    </row>
-    <row r="325" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B325" s="24" t="s">
+      <c r="F324" s="9"/>
+    </row>
+    <row r="325" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B325" s="27"/>
+      <c r="C325" s="28"/>
+      <c r="D325" s="28"/>
+      <c r="E325" s="28"/>
+      <c r="F325" s="29"/>
+    </row>
+    <row r="326" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B326" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C325" s="25"/>
-      <c r="D325" s="25"/>
-      <c r="E325" s="25"/>
-      <c r="F325" s="26"/>
-    </row>
-    <row r="326" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B326" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D326" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
+      <c r="C326" s="25"/>
+      <c r="D326" s="25"/>
+      <c r="E326" s="25"/>
+      <c r="F326" s="26"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
     </row>
     <row r="328" spans="2:6" ht="14.25" thickBot="1">
       <c r="B328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B329" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C329" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D328" s="9" t="s">
+      <c r="D329" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E328" s="4"/>
-      <c r="F328" s="9" t="s">
+      <c r="E329" s="4"/>
+      <c r="F329" s="9" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="329" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B329" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E329" s="11"/>
-      <c r="F329" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="330" spans="2:6" ht="14.25" thickBot="1">
       <c r="B330" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E330" s="11"/>
+      <c r="F330" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B331" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C331" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D330" s="8" t="s">
+      <c r="D331" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E330" s="11"/>
-      <c r="F330" s="4"/>
-    </row>
-    <row r="331" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B331" s="24" t="s">
+      <c r="E331" s="11"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B332" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C331" s="25"/>
-      <c r="D331" s="25"/>
-      <c r="E331" s="25"/>
-      <c r="F331" s="26"/>
-    </row>
-    <row r="332" spans="2:6">
-      <c r="B332" s="33" t="s">
+      <c r="C332" s="25"/>
+      <c r="D332" s="25"/>
+      <c r="E332" s="25"/>
+      <c r="F332" s="26"/>
+    </row>
+    <row r="333" spans="2:6">
+      <c r="B333" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C332" s="34"/>
-      <c r="D332" s="34"/>
-      <c r="E332" s="34"/>
-      <c r="F332" s="35"/>
-    </row>
-    <row r="333" spans="2:6">
-      <c r="B333" s="36"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="38"/>
+      <c r="C333" s="31"/>
+      <c r="D333" s="31"/>
+      <c r="E333" s="31"/>
+      <c r="F333" s="32"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="36"/>
-      <c r="C334" s="37"/>
-      <c r="D334" s="37"/>
-      <c r="E334" s="37"/>
-      <c r="F334" s="38"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="34"/>
+      <c r="E334" s="34"/>
+      <c r="F334" s="35"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="36"/>
-      <c r="C335" s="37"/>
-      <c r="D335" s="37"/>
-      <c r="E335" s="37"/>
-      <c r="F335" s="38"/>
-    </row>
-    <row r="336" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B336" s="39"/>
-      <c r="C336" s="40"/>
-      <c r="D336" s="40"/>
-      <c r="E336" s="40"/>
-      <c r="F336" s="41"/>
-    </row>
-    <row r="337" spans="2:6" ht="13.5" thickBot="1"/>
-    <row r="338" spans="2:6" ht="21" thickBot="1">
-      <c r="B338" s="42" t="s">
+      <c r="B335" s="33"/>
+      <c r="C335" s="34"/>
+      <c r="D335" s="34"/>
+      <c r="E335" s="34"/>
+      <c r="F335" s="35"/>
+    </row>
+    <row r="336" spans="2:6">
+      <c r="B336" s="33"/>
+      <c r="C336" s="34"/>
+      <c r="D336" s="34"/>
+      <c r="E336" s="34"/>
+      <c r="F336" s="35"/>
+    </row>
+    <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B337" s="36"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="37"/>
+      <c r="F337" s="38"/>
+    </row>
+    <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
+    <row r="339" spans="2:6" ht="21" thickBot="1">
+      <c r="B339" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C338" s="42"/>
-      <c r="D338" s="42"/>
-      <c r="E338" s="42"/>
-      <c r="F338" s="42"/>
-    </row>
-    <row r="339" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B339" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D339" s="44"/>
-      <c r="E339" s="44"/>
-      <c r="F339" s="45"/>
+      <c r="C339" s="39"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="39"/>
+      <c r="F339" s="39"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D340" s="41"/>
+      <c r="E340" s="41"/>
+      <c r="F340" s="42"/>
+    </row>
+    <row r="341" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C340" s="43" t="s">
+      <c r="C341" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="44"/>
-      <c r="E340" s="44"/>
-      <c r="F340" s="45"/>
-    </row>
-    <row r="341" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B341" s="7" t="s">
+      <c r="D341" s="41"/>
+      <c r="E341" s="41"/>
+      <c r="F341" s="42"/>
+    </row>
+    <row r="342" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C341" s="46" t="s">
+      <c r="C342" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D341" s="47"/>
-      <c r="E341" s="47"/>
-      <c r="F341" s="48"/>
-    </row>
-    <row r="342" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B342" s="7" t="s">
+      <c r="D342" s="44"/>
+      <c r="E342" s="44"/>
+      <c r="F342" s="45"/>
+    </row>
+    <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C342" s="49" t="s">
+      <c r="C343" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="50"/>
-      <c r="E342" s="50"/>
-      <c r="F342" s="51"/>
-    </row>
-    <row r="343" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B343" s="7" t="s">
+      <c r="D343" s="47"/>
+      <c r="E343" s="47"/>
+      <c r="F343" s="48"/>
+    </row>
+    <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C343" s="52"/>
-      <c r="D343" s="53"/>
-      <c r="E343" s="53"/>
-      <c r="F343" s="54"/>
-    </row>
-    <row r="344" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B344" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C344" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D344" s="56"/>
-      <c r="E344" s="56"/>
-      <c r="F344" s="57"/>
+      <c r="C344" s="49"/>
+      <c r="D344" s="50"/>
+      <c r="E344" s="50"/>
+      <c r="F344" s="51"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="53"/>
+      <c r="E345" s="53"/>
+      <c r="F345" s="54"/>
+    </row>
+    <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C345" s="55" t="s">
+      <c r="C346" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="56"/>
-      <c r="E345" s="56"/>
-      <c r="F345" s="57"/>
-    </row>
-    <row r="346" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B346" s="55"/>
-      <c r="C346" s="56"/>
-      <c r="D346" s="56"/>
-      <c r="E346" s="56"/>
-      <c r="F346" s="57"/>
-    </row>
-    <row r="347" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B347" s="7" t="s">
+      <c r="D346" s="53"/>
+      <c r="E346" s="53"/>
+      <c r="F346" s="54"/>
+    </row>
+    <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B347" s="52"/>
+      <c r="C347" s="53"/>
+      <c r="D347" s="53"/>
+      <c r="E347" s="53"/>
+      <c r="F347" s="54"/>
+    </row>
+    <row r="348" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B348" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C348" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D347" s="9"/>
-      <c r="E347" s="9" t="s">
+      <c r="D348" s="9"/>
+      <c r="E348" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F347" s="9" t="s">
+      <c r="F348" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B348" s="24" t="s">
+    <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B349" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C348" s="25"/>
-      <c r="D348" s="25"/>
-      <c r="E348" s="25"/>
-      <c r="F348" s="26"/>
-    </row>
-    <row r="349" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B349" s="1"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
-      <c r="E349" s="6"/>
-      <c r="F349" s="9"/>
+      <c r="C349" s="25"/>
+      <c r="D349" s="25"/>
+      <c r="E349" s="25"/>
+      <c r="F349" s="26"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B350" s="10"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="14"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="9"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="6"/>
       <c r="F350" s="9"/>
     </row>
     <row r="351" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B351" s="30"/>
-      <c r="C351" s="31"/>
-      <c r="D351" s="31"/>
-      <c r="E351" s="31"/>
-      <c r="F351" s="32"/>
-    </row>
-    <row r="352" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B352" s="24" t="s">
+      <c r="B351" s="10"/>
+      <c r="C351" s="8"/>
+      <c r="D351" s="8"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="9"/>
+    </row>
+    <row r="352" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B352" s="27"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="29"/>
+    </row>
+    <row r="353" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B353" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C352" s="25"/>
-      <c r="D352" s="25"/>
-      <c r="E352" s="25"/>
-      <c r="F352" s="26"/>
-    </row>
-    <row r="353" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B353" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D353" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E353" s="4"/>
-      <c r="F353" s="4"/>
+      <c r="C353" s="25"/>
+      <c r="D353" s="25"/>
+      <c r="E353" s="25"/>
+      <c r="F353" s="26"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
     </row>
     <row r="355" spans="2:6" ht="14.25" thickBot="1">
       <c r="B355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
+    </row>
+    <row r="356" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B356" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C355" s="9" t="s">
+      <c r="C356" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D355" s="9" t="s">
+      <c r="D356" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E355" s="4"/>
-      <c r="F355" s="9"/>
-    </row>
-    <row r="356" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B356" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E356" s="11"/>
-      <c r="F356" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E356" s="4"/>
+      <c r="F356" s="9"/>
     </row>
     <row r="357" spans="2:6" ht="14.25" thickBot="1">
       <c r="B357" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E357" s="11"/>
+      <c r="F357" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B358" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C357" s="8" t="s">
+      <c r="C358" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D357" s="8" t="s">
+      <c r="D358" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E357" s="11"/>
-      <c r="F357" s="4"/>
-    </row>
-    <row r="358" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B358" s="24" t="s">
+      <c r="E358" s="11"/>
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B359" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C358" s="25"/>
-      <c r="D358" s="25"/>
-      <c r="E358" s="25"/>
-      <c r="F358" s="26"/>
-    </row>
-    <row r="359" spans="2:6">
-      <c r="B359" s="33" t="s">
+      <c r="C359" s="25"/>
+      <c r="D359" s="25"/>
+      <c r="E359" s="25"/>
+      <c r="F359" s="26"/>
+    </row>
+    <row r="360" spans="2:6">
+      <c r="B360" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C359" s="34"/>
-      <c r="D359" s="34"/>
-      <c r="E359" s="34"/>
-      <c r="F359" s="35"/>
-    </row>
-    <row r="360" spans="2:6">
-      <c r="B360" s="36"/>
-      <c r="C360" s="37"/>
-      <c r="D360" s="37"/>
-      <c r="E360" s="37"/>
-      <c r="F360" s="38"/>
+      <c r="C360" s="31"/>
+      <c r="D360" s="31"/>
+      <c r="E360" s="31"/>
+      <c r="F360" s="32"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="36"/>
-      <c r="C361" s="37"/>
-      <c r="D361" s="37"/>
-      <c r="E361" s="37"/>
-      <c r="F361" s="38"/>
+      <c r="B361" s="33"/>
+      <c r="C361" s="34"/>
+      <c r="D361" s="34"/>
+      <c r="E361" s="34"/>
+      <c r="F361" s="35"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="36"/>
-      <c r="C362" s="37"/>
-      <c r="D362" s="37"/>
-      <c r="E362" s="37"/>
-      <c r="F362" s="38"/>
-    </row>
-    <row r="363" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B363" s="39"/>
-      <c r="C363" s="40"/>
-      <c r="D363" s="40"/>
-      <c r="E363" s="40"/>
-      <c r="F363" s="41"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="34"/>
+      <c r="D362" s="34"/>
+      <c r="E362" s="34"/>
+      <c r="F362" s="35"/>
+    </row>
+    <row r="363" spans="2:6">
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="34"/>
+      <c r="E363" s="34"/>
+      <c r="F363" s="35"/>
+    </row>
+    <row r="364" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B364" s="36"/>
+      <c r="C364" s="37"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="37"/>
+      <c r="F364" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F363"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="C339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="C285:F285"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F309"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C264:F264"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F337"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="C318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="C316:F316"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B279:F283"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
     <mergeCell ref="C260:F260"/>
-    <mergeCell ref="C261:F261"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="C92:F92"/>
     <mergeCell ref="C93:F93"/>
@@ -11593,123 +11676,77 @@
     <mergeCell ref="C148:F148"/>
     <mergeCell ref="C149:F149"/>
     <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F336"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C318:F318"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="C316:F316"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B278:F282"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F255"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C264:F264"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C260" r:id="rId1"/>
+    <hyperlink ref="C261" r:id="rId1"/>
     <hyperlink ref="C62" r:id="rId2"/>
     <hyperlink ref="C63" r:id="rId3"/>
-    <hyperlink ref="C259" r:id="rId4"/>
-    <hyperlink ref="C314" r:id="rId5"/>
-    <hyperlink ref="C313" r:id="rId6"/>
-    <hyperlink ref="C286" r:id="rId7"/>
-    <hyperlink ref="C285" r:id="rId8"/>
+    <hyperlink ref="C260" r:id="rId4"/>
+    <hyperlink ref="C315" r:id="rId5"/>
+    <hyperlink ref="C314" r:id="rId6"/>
+    <hyperlink ref="C287" r:id="rId7"/>
+    <hyperlink ref="C286" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>
     <hyperlink ref="C32" r:id="rId10"/>
     <hyperlink ref="C6" r:id="rId11"/>
@@ -11722,8 +11759,8 @@
     <hyperlink ref="C149" r:id="rId18"/>
     <hyperlink ref="C173" r:id="rId19"/>
     <hyperlink ref="C174" r:id="rId20"/>
-    <hyperlink ref="C340" r:id="rId21"/>
-    <hyperlink ref="C339" r:id="rId22"/>
+    <hyperlink ref="C341" r:id="rId21"/>
+    <hyperlink ref="C340" r:id="rId22"/>
     <hyperlink ref="C226" r:id="rId23"/>
     <hyperlink ref="C227" r:id="rId24"/>
     <hyperlink ref="C200" r:id="rId25"/>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="216">
   <si>
     <t>服务地址</t>
   </si>
@@ -5855,6 +5855,71 @@
   </si>
   <si>
     <t>0:否 1是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据公司名或者新闻关键字推荐相关主题列表</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/recommend/topics</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/recommend/topics</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST,GET</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg:"工商银行" 或者"雾霾"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐个数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为推荐&lt;=10个</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6429,6 +6494,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6513,29 +6587,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7834,10 +7899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F364"/>
+  <dimension ref="B2:F392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B232" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7850,113 +7915,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -7998,18 +8063,18 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
       <c r="B18" s="24" t="s">
@@ -8101,139 +8166,139 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8339,18 +8404,18 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B51" s="24" t="s">
@@ -8371,41 +8436,41 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -8425,95 +8490,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="54"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="54"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -8587,11 +8652,11 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B76" s="24" t="s">
@@ -8686,38 +8751,38 @@
       <c r="B83" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="38"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="35"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="38"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="36"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -8737,95 +8802,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="48"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="51"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="54"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="54"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="54"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="52"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="54"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -8886,11 +8951,11 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="55"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="57"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B105" s="24" t="s">
@@ -8980,41 +9045,41 @@
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="35"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="35"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="38"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="38"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="35"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="38"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="36"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="41"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9034,95 +9099,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="42"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="42"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="45"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="48"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="46" t="s">
+      <c r="C124" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="48"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="51"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="54"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="52" t="s">
+      <c r="C126" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="54"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="57"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="54"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="57"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="52"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="57"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9149,11 +9214,11 @@
       <c r="F130" s="26"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="57"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B132" s="24" t="s">
@@ -9243,41 +9308,41 @@
       <c r="F138" s="26"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="61" t="s">
+      <c r="B139" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="32"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="35"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="35"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="35"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="38"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="38"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="36"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="41"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9297,95 +9362,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="42"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="45"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="40" t="s">
+      <c r="C149" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="42"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="45"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="48"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="48"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="51"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="49"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="51"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="54"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="54"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="57"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="53"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="54"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="57"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="52"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="54"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="57"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9412,11 +9477,11 @@
       <c r="F157" s="26"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="55"/>
-      <c r="C158" s="56"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="57"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B159" s="24" t="s">
@@ -9506,41 +9571,41 @@
       <c r="F165" s="26"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="61" t="s">
+      <c r="B166" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="32"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="35"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="33"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="35"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="38"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="35"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="33"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="38"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="36"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="38"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="41"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -9550,95 +9615,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="40" t="s">
+      <c r="C173" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="42"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="40" t="s">
+      <c r="C174" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="41"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="42"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="45"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="44"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="45"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="48"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="48"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="51"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="49"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="51"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="54"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="54"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="57"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="54"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="57"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="52"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="54"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="57"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -9680,11 +9745,11 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="55"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="57"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="29"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B185" s="24" t="s">
@@ -9774,41 +9839,41 @@
       <c r="F191" s="26"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="61" t="s">
+      <c r="B192" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="32"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="35"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="33"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="35"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="38"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="33"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="35"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="38"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="33"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="35"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="38"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="36"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="38"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="41"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -9818,95 +9883,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C199" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="41"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="42"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="45"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="40" t="s">
+      <c r="C200" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="41"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="42"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="45"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="43" t="s">
+      <c r="C201" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="44"/>
-      <c r="E201" s="44"/>
-      <c r="F201" s="45"/>
+      <c r="D201" s="47"/>
+      <c r="E201" s="47"/>
+      <c r="F201" s="48"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="46" t="s">
+      <c r="C202" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="48"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="51"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="49"/>
-      <c r="D203" s="50"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="51"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="54"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C204" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="54"/>
+      <c r="D204" s="56"/>
+      <c r="E204" s="56"/>
+      <c r="F204" s="57"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="52" t="s">
+      <c r="C205" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="54"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="57"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="52"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="54"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="57"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -9965,11 +10030,11 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="55"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="57"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="29"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B212" s="24" t="s">
@@ -10059,41 +10124,41 @@
       <c r="F218" s="26"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="61" t="s">
+      <c r="B219" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="31"/>
-      <c r="F219" s="32"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="35"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="33"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="35"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
+      <c r="F220" s="38"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="33"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="35"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="38"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="33"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="35"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="37"/>
+      <c r="F222" s="38"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="36"/>
-      <c r="C223" s="37"/>
-      <c r="D223" s="37"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="38"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="41"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10103,95 +10168,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C225" s="39"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-      <c r="F225" s="39"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="40" t="s">
+      <c r="C226" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D226" s="41"/>
-      <c r="E226" s="41"/>
-      <c r="F226" s="42"/>
+      <c r="D226" s="44"/>
+      <c r="E226" s="44"/>
+      <c r="F226" s="45"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="43" t="s">
+      <c r="C227" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="45"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="48"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="43" t="s">
+      <c r="C228" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D228" s="44"/>
-      <c r="E228" s="44"/>
-      <c r="F228" s="45"/>
+      <c r="D228" s="47"/>
+      <c r="E228" s="47"/>
+      <c r="F228" s="48"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="46" t="s">
+      <c r="C229" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="47"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="48"/>
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="51"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="49"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="50"/>
-      <c r="F230" s="51"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="54"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="52" t="s">
+      <c r="C231" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="D231" s="53"/>
-      <c r="E231" s="53"/>
-      <c r="F231" s="54"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="57"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="52" t="s">
+      <c r="C232" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="53"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="54"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="57"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="52"/>
-      <c r="C233" s="53"/>
-      <c r="D233" s="53"/>
-      <c r="E233" s="53"/>
-      <c r="F233" s="54"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="57"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10337,18 +10402,18 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="55"/>
-      <c r="C243" s="56"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="57"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="29"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="27"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="29"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="31"/>
+      <c r="E244" s="31"/>
+      <c r="F244" s="32"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
       <c r="B245" s="24" t="s">
@@ -10440,41 +10505,41 @@
       <c r="F251" s="26"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="D252" s="31"/>
-      <c r="E252" s="31"/>
-      <c r="F252" s="32"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="34"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="35"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="35"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="38"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="33"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="35"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
+      <c r="F254" s="38"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="33"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="35"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="37"/>
+      <c r="D255" s="37"/>
+      <c r="E255" s="37"/>
+      <c r="F255" s="38"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="36"/>
-      <c r="C256" s="37"/>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
-      <c r="F256" s="38"/>
+      <c r="B256" s="39"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="41"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -10484,104 +10549,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="58" t="s">
+      <c r="B258" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="62"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="62"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="39" t="s">
+      <c r="B259" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="39"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-      <c r="F259" s="39"/>
+      <c r="C259" s="42"/>
+      <c r="D259" s="42"/>
+      <c r="E259" s="42"/>
+      <c r="F259" s="42"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="40" t="s">
+      <c r="C260" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="41"/>
-      <c r="E260" s="41"/>
-      <c r="F260" s="42"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44"/>
+      <c r="F260" s="45"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="40" t="s">
+      <c r="C261" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="41"/>
-      <c r="E261" s="41"/>
-      <c r="F261" s="42"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="44"/>
+      <c r="F261" s="45"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="43" t="s">
+      <c r="C262" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="44"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="45"/>
+      <c r="D262" s="47"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="48"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="46" t="s">
+      <c r="C263" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="47"/>
-      <c r="E263" s="47"/>
-      <c r="F263" s="48"/>
+      <c r="D263" s="50"/>
+      <c r="E263" s="50"/>
+      <c r="F263" s="51"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="49"/>
-      <c r="D264" s="50"/>
-      <c r="E264" s="50"/>
-      <c r="F264" s="51"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="53"/>
+      <c r="E264" s="53"/>
+      <c r="F264" s="54"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="52" t="s">
+      <c r="C265" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="53"/>
-      <c r="E265" s="53"/>
-      <c r="F265" s="54"/>
+      <c r="D265" s="56"/>
+      <c r="E265" s="56"/>
+      <c r="F265" s="57"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="54"/>
+      <c r="D266" s="56"/>
+      <c r="E266" s="56"/>
+      <c r="F266" s="57"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="52"/>
-      <c r="C267" s="53"/>
-      <c r="D267" s="53"/>
-      <c r="E267" s="53"/>
-      <c r="F267" s="54"/>
+      <c r="B267" s="55"/>
+      <c r="C267" s="56"/>
+      <c r="D267" s="56"/>
+      <c r="E267" s="56"/>
+      <c r="F267" s="57"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -10623,11 +10688,11 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="27"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="28"/>
-      <c r="E271" s="28"/>
-      <c r="F271" s="29"/>
+      <c r="B271" s="30"/>
+      <c r="C271" s="31"/>
+      <c r="D271" s="31"/>
+      <c r="E271" s="31"/>
+      <c r="F271" s="32"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
       <c r="B272" s="24" t="s">
@@ -10717,133 +10782,133 @@
       <c r="F278" s="26"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="31"/>
-      <c r="F279" s="32"/>
+      <c r="C279" s="34"/>
+      <c r="D279" s="34"/>
+      <c r="E279" s="34"/>
+      <c r="F279" s="35"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="33"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="35"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="37"/>
+      <c r="E280" s="37"/>
+      <c r="F280" s="38"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="33"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="35"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
+      <c r="F281" s="38"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="34"/>
-      <c r="E282" s="34"/>
-      <c r="F282" s="35"/>
+      <c r="B282" s="36"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="37"/>
+      <c r="F282" s="38"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="36"/>
-      <c r="C283" s="37"/>
-      <c r="D283" s="37"/>
-      <c r="E283" s="37"/>
-      <c r="F283" s="38"/>
-    </row>
-    <row r="284" spans="2:6" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="39"/>
+      <c r="C283" s="40"/>
+      <c r="D283" s="40"/>
+      <c r="E283" s="40"/>
+      <c r="F283" s="41"/>
+    </row>
+    <row r="284" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="39" t="s">
+      <c r="B285" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="39"/>
-      <c r="D285" s="39"/>
-      <c r="E285" s="39"/>
-      <c r="F285" s="39"/>
+      <c r="C285" s="42"/>
+      <c r="D285" s="42"/>
+      <c r="E285" s="42"/>
+      <c r="F285" s="42"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="40" t="s">
+      <c r="C286" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="41"/>
-      <c r="E286" s="41"/>
-      <c r="F286" s="42"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44"/>
+      <c r="F286" s="45"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="40" t="s">
+      <c r="C287" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="41"/>
-      <c r="E287" s="41"/>
-      <c r="F287" s="42"/>
+      <c r="D287" s="44"/>
+      <c r="E287" s="44"/>
+      <c r="F287" s="45"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="43" t="s">
+      <c r="C288" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="44"/>
-      <c r="E288" s="44"/>
-      <c r="F288" s="45"/>
+      <c r="D288" s="47"/>
+      <c r="E288" s="47"/>
+      <c r="F288" s="48"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="46" t="s">
+      <c r="C289" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="47"/>
-      <c r="E289" s="47"/>
-      <c r="F289" s="48"/>
+      <c r="D289" s="50"/>
+      <c r="E289" s="50"/>
+      <c r="F289" s="51"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="49"/>
-      <c r="D290" s="50"/>
-      <c r="E290" s="50"/>
-      <c r="F290" s="51"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="53"/>
+      <c r="E290" s="53"/>
+      <c r="F290" s="54"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="52" t="s">
+      <c r="C291" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="53"/>
-      <c r="E291" s="53"/>
-      <c r="F291" s="54"/>
+      <c r="D291" s="56"/>
+      <c r="E291" s="56"/>
+      <c r="F291" s="57"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="52" t="s">
+      <c r="C292" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="53"/>
-      <c r="E292" s="53"/>
-      <c r="F292" s="54"/>
+      <c r="D292" s="56"/>
+      <c r="E292" s="56"/>
+      <c r="F292" s="57"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="52"/>
-      <c r="C293" s="53"/>
-      <c r="D293" s="53"/>
-      <c r="E293" s="53"/>
-      <c r="F293" s="54"/>
+      <c r="B293" s="55"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="56"/>
+      <c r="E293" s="56"/>
+      <c r="F293" s="57"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -10892,11 +10957,11 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="27"/>
-      <c r="C298" s="28"/>
-      <c r="D298" s="28"/>
-      <c r="E298" s="28"/>
-      <c r="F298" s="29"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="31"/>
+      <c r="E298" s="31"/>
+      <c r="F298" s="32"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
       <c r="B299" s="24" t="s">
@@ -10986,134 +11051,134 @@
       <c r="F305" s="26"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="31"/>
-      <c r="D306" s="31"/>
-      <c r="E306" s="31"/>
-      <c r="F306" s="32"/>
+      <c r="C306" s="34"/>
+      <c r="D306" s="34"/>
+      <c r="E306" s="34"/>
+      <c r="F306" s="35"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="33"/>
-      <c r="C307" s="34"/>
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="35"/>
+      <c r="B307" s="36"/>
+      <c r="C307" s="37"/>
+      <c r="D307" s="37"/>
+      <c r="E307" s="37"/>
+      <c r="F307" s="38"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="34"/>
-      <c r="E308" s="34"/>
-      <c r="F308" s="35"/>
+      <c r="B308" s="36"/>
+      <c r="C308" s="37"/>
+      <c r="D308" s="37"/>
+      <c r="E308" s="37"/>
+      <c r="F308" s="38"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="33"/>
-      <c r="C309" s="34"/>
-      <c r="D309" s="34"/>
-      <c r="E309" s="34"/>
-      <c r="F309" s="35"/>
+      <c r="B309" s="36"/>
+      <c r="C309" s="37"/>
+      <c r="D309" s="37"/>
+      <c r="E309" s="37"/>
+      <c r="F309" s="38"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="36"/>
-      <c r="C310" s="37"/>
-      <c r="D310" s="37"/>
-      <c r="E310" s="37"/>
-      <c r="F310" s="38"/>
+      <c r="B310" s="39"/>
+      <c r="C310" s="40"/>
+      <c r="D310" s="40"/>
+      <c r="E310" s="40"/>
+      <c r="F310" s="41"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="39"/>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
+      <c r="C313" s="42"/>
+      <c r="D313" s="42"/>
+      <c r="E313" s="42"/>
+      <c r="F313" s="42"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="40" t="s">
+      <c r="C314" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="41"/>
-      <c r="E314" s="41"/>
-      <c r="F314" s="42"/>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44"/>
+      <c r="F314" s="45"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="40" t="s">
+      <c r="C315" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="41"/>
-      <c r="E315" s="41"/>
-      <c r="F315" s="42"/>
+      <c r="D315" s="44"/>
+      <c r="E315" s="44"/>
+      <c r="F315" s="45"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="43" t="s">
+      <c r="C316" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="44"/>
-      <c r="E316" s="44"/>
-      <c r="F316" s="45"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="47"/>
+      <c r="F316" s="48"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="46" t="s">
+      <c r="C317" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="47"/>
-      <c r="E317" s="47"/>
-      <c r="F317" s="48"/>
+      <c r="D317" s="50"/>
+      <c r="E317" s="50"/>
+      <c r="F317" s="51"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="49"/>
-      <c r="D318" s="50"/>
-      <c r="E318" s="50"/>
-      <c r="F318" s="51"/>
+      <c r="C318" s="52"/>
+      <c r="D318" s="53"/>
+      <c r="E318" s="53"/>
+      <c r="F318" s="54"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="52" t="s">
+      <c r="C319" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="53"/>
-      <c r="E319" s="53"/>
-      <c r="F319" s="54"/>
+      <c r="D319" s="56"/>
+      <c r="E319" s="56"/>
+      <c r="F319" s="57"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="52" t="s">
+      <c r="C320" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="53"/>
-      <c r="E320" s="53"/>
-      <c r="F320" s="54"/>
+      <c r="D320" s="56"/>
+      <c r="E320" s="56"/>
+      <c r="F320" s="57"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="52"/>
-      <c r="C321" s="53"/>
-      <c r="D321" s="53"/>
-      <c r="E321" s="53"/>
-      <c r="F321" s="54"/>
+      <c r="B321" s="55"/>
+      <c r="C321" s="56"/>
+      <c r="D321" s="56"/>
+      <c r="E321" s="56"/>
+      <c r="F321" s="57"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11155,11 +11220,11 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="27"/>
-      <c r="C325" s="28"/>
-      <c r="D325" s="28"/>
-      <c r="E325" s="28"/>
-      <c r="F325" s="29"/>
+      <c r="B325" s="30"/>
+      <c r="C325" s="31"/>
+      <c r="D325" s="31"/>
+      <c r="E325" s="31"/>
+      <c r="F325" s="32"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
       <c r="B326" s="24" t="s">
@@ -11249,133 +11314,133 @@
       <c r="F332" s="26"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="31"/>
-      <c r="D333" s="31"/>
-      <c r="E333" s="31"/>
-      <c r="F333" s="32"/>
+      <c r="C333" s="34"/>
+      <c r="D333" s="34"/>
+      <c r="E333" s="34"/>
+      <c r="F333" s="35"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="34"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="35"/>
+      <c r="B334" s="36"/>
+      <c r="C334" s="37"/>
+      <c r="D334" s="37"/>
+      <c r="E334" s="37"/>
+      <c r="F334" s="38"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="33"/>
-      <c r="C335" s="34"/>
-      <c r="D335" s="34"/>
-      <c r="E335" s="34"/>
-      <c r="F335" s="35"/>
+      <c r="B335" s="36"/>
+      <c r="C335" s="37"/>
+      <c r="D335" s="37"/>
+      <c r="E335" s="37"/>
+      <c r="F335" s="38"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="33"/>
-      <c r="C336" s="34"/>
-      <c r="D336" s="34"/>
-      <c r="E336" s="34"/>
-      <c r="F336" s="35"/>
+      <c r="B336" s="36"/>
+      <c r="C336" s="37"/>
+      <c r="D336" s="37"/>
+      <c r="E336" s="37"/>
+      <c r="F336" s="38"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="36"/>
-      <c r="C337" s="37"/>
-      <c r="D337" s="37"/>
-      <c r="E337" s="37"/>
-      <c r="F337" s="38"/>
+      <c r="B337" s="39"/>
+      <c r="C337" s="40"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="41"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="39" t="s">
+      <c r="B339" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="39"/>
-      <c r="D339" s="39"/>
-      <c r="E339" s="39"/>
-      <c r="F339" s="39"/>
+      <c r="C339" s="42"/>
+      <c r="D339" s="42"/>
+      <c r="E339" s="42"/>
+      <c r="F339" s="42"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="40" t="s">
+      <c r="C340" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D340" s="41"/>
-      <c r="E340" s="41"/>
-      <c r="F340" s="42"/>
+      <c r="D340" s="44"/>
+      <c r="E340" s="44"/>
+      <c r="F340" s="45"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="40" t="s">
+      <c r="C341" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D341" s="41"/>
-      <c r="E341" s="41"/>
-      <c r="F341" s="42"/>
+      <c r="D341" s="44"/>
+      <c r="E341" s="44"/>
+      <c r="F341" s="45"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="43" t="s">
+      <c r="C342" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="44"/>
-      <c r="E342" s="44"/>
-      <c r="F342" s="45"/>
+      <c r="D342" s="47"/>
+      <c r="E342" s="47"/>
+      <c r="F342" s="48"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="46" t="s">
+      <c r="C343" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="47"/>
-      <c r="E343" s="47"/>
-      <c r="F343" s="48"/>
+      <c r="D343" s="50"/>
+      <c r="E343" s="50"/>
+      <c r="F343" s="51"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="49"/>
-      <c r="D344" s="50"/>
-      <c r="E344" s="50"/>
-      <c r="F344" s="51"/>
+      <c r="C344" s="52"/>
+      <c r="D344" s="53"/>
+      <c r="E344" s="53"/>
+      <c r="F344" s="54"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="52" t="s">
+      <c r="C345" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="53"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="54"/>
+      <c r="D345" s="56"/>
+      <c r="E345" s="56"/>
+      <c r="F345" s="57"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="52" t="s">
+      <c r="C346" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="53"/>
-      <c r="E346" s="53"/>
-      <c r="F346" s="54"/>
+      <c r="D346" s="56"/>
+      <c r="E346" s="56"/>
+      <c r="F346" s="57"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="52"/>
-      <c r="C347" s="53"/>
-      <c r="D347" s="53"/>
-      <c r="E347" s="53"/>
-      <c r="F347" s="54"/>
+      <c r="B347" s="55"/>
+      <c r="C347" s="56"/>
+      <c r="D347" s="56"/>
+      <c r="E347" s="56"/>
+      <c r="F347" s="57"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11402,25 +11467,45 @@
       <c r="F349" s="26"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B350" s="1"/>
-      <c r="C350" s="9"/>
-      <c r="D350" s="9"/>
-      <c r="E350" s="6"/>
-      <c r="F350" s="9"/>
+      <c r="B350" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="351" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B351" s="10"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="14"/>
-      <c r="F351" s="9"/>
+      <c r="B351" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E351" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="27"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="28"/>
-      <c r="E352" s="28"/>
-      <c r="F352" s="29"/>
+      <c r="B352" s="30"/>
+      <c r="C352" s="31"/>
+      <c r="D352" s="31"/>
+      <c r="E352" s="31"/>
+      <c r="F352" s="32"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
       <c r="B353" s="24" t="s">
@@ -11465,7 +11550,7 @@
         <v>47</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E356" s="4"/>
       <c r="F356" s="9"/>
@@ -11508,126 +11593,401 @@
       <c r="F359" s="26"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="30" t="s">
+      <c r="B360" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C360" s="31"/>
-      <c r="D360" s="31"/>
-      <c r="E360" s="31"/>
-      <c r="F360" s="32"/>
+      <c r="C360" s="34"/>
+      <c r="D360" s="34"/>
+      <c r="E360" s="34"/>
+      <c r="F360" s="35"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="33"/>
-      <c r="C361" s="34"/>
-      <c r="D361" s="34"/>
-      <c r="E361" s="34"/>
-      <c r="F361" s="35"/>
+      <c r="B361" s="36"/>
+      <c r="C361" s="37"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="37"/>
+      <c r="F361" s="38"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="33"/>
-      <c r="C362" s="34"/>
-      <c r="D362" s="34"/>
-      <c r="E362" s="34"/>
-      <c r="F362" s="35"/>
+      <c r="B362" s="36"/>
+      <c r="C362" s="37"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="37"/>
+      <c r="F362" s="38"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="34"/>
-      <c r="E363" s="34"/>
-      <c r="F363" s="35"/>
+      <c r="B363" s="36"/>
+      <c r="C363" s="37"/>
+      <c r="D363" s="37"/>
+      <c r="E363" s="37"/>
+      <c r="F363" s="38"/>
     </row>
     <row r="364" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B364" s="36"/>
-      <c r="C364" s="37"/>
-      <c r="D364" s="37"/>
-      <c r="E364" s="37"/>
-      <c r="F364" s="38"/>
+      <c r="B364" s="39"/>
+      <c r="C364" s="40"/>
+      <c r="D364" s="40"/>
+      <c r="E364" s="40"/>
+      <c r="F364" s="41"/>
+    </row>
+    <row r="366" spans="2:6" ht="13.5" thickBot="1"/>
+    <row r="367" spans="2:6" ht="21" thickBot="1">
+      <c r="B367" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C367" s="42"/>
+      <c r="D367" s="42"/>
+      <c r="E367" s="42"/>
+      <c r="F367" s="42"/>
+    </row>
+    <row r="368" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B368" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D368" s="44"/>
+      <c r="E368" s="44"/>
+      <c r="F368" s="45"/>
+    </row>
+    <row r="369" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B369" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C369" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D369" s="44"/>
+      <c r="E369" s="44"/>
+      <c r="F369" s="45"/>
+    </row>
+    <row r="370" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B370" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C370" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D370" s="47"/>
+      <c r="E370" s="47"/>
+      <c r="F370" s="48"/>
+    </row>
+    <row r="371" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B371" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="50"/>
+      <c r="E371" s="50"/>
+      <c r="F371" s="51"/>
+    </row>
+    <row r="372" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B372" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C372" s="52"/>
+      <c r="D372" s="53"/>
+      <c r="E372" s="53"/>
+      <c r="F372" s="54"/>
+    </row>
+    <row r="373" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B373" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C373" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D373" s="56"/>
+      <c r="E373" s="56"/>
+      <c r="F373" s="57"/>
+    </row>
+    <row r="374" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B374" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="56"/>
+      <c r="E374" s="56"/>
+      <c r="F374" s="57"/>
+    </row>
+    <row r="375" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B375" s="55"/>
+      <c r="C375" s="56"/>
+      <c r="D375" s="56"/>
+      <c r="E375" s="56"/>
+      <c r="F375" s="57"/>
+    </row>
+    <row r="376" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B376" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" s="9"/>
+      <c r="E376" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F376" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B377" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C377" s="25"/>
+      <c r="D377" s="25"/>
+      <c r="E377" s="25"/>
+      <c r="F377" s="26"/>
+    </row>
+    <row r="378" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B378" s="1"/>
+      <c r="C378" s="9"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="9"/>
+    </row>
+    <row r="379" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B379" s="10"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="14"/>
+      <c r="F379" s="9"/>
+    </row>
+    <row r="380" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B380" s="30"/>
+      <c r="C380" s="31"/>
+      <c r="D380" s="31"/>
+      <c r="E380" s="31"/>
+      <c r="F380" s="32"/>
+    </row>
+    <row r="381" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B381" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="25"/>
+      <c r="D381" s="25"/>
+      <c r="E381" s="25"/>
+      <c r="F381" s="26"/>
+    </row>
+    <row r="382" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B382" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E382" s="4"/>
+      <c r="F382" s="4"/>
+    </row>
+    <row r="383" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B383" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E383" s="4"/>
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B384" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E384" s="4"/>
+      <c r="F384" s="9"/>
+    </row>
+    <row r="385" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B385" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E385" s="11"/>
+      <c r="F385" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B386" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E386" s="11"/>
+      <c r="F386" s="4"/>
+    </row>
+    <row r="387" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B387" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387" s="25"/>
+      <c r="D387" s="25"/>
+      <c r="E387" s="25"/>
+      <c r="F387" s="26"/>
+    </row>
+    <row r="388" spans="2:6">
+      <c r="B388" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C388" s="34"/>
+      <c r="D388" s="34"/>
+      <c r="E388" s="34"/>
+      <c r="F388" s="35"/>
+    </row>
+    <row r="389" spans="2:6">
+      <c r="B389" s="36"/>
+      <c r="C389" s="37"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="37"/>
+      <c r="F389" s="38"/>
+    </row>
+    <row r="390" spans="2:6">
+      <c r="B390" s="36"/>
+      <c r="C390" s="37"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="37"/>
+      <c r="F390" s="38"/>
+    </row>
+    <row r="391" spans="2:6">
+      <c r="B391" s="36"/>
+      <c r="C391" s="37"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="37"/>
+      <c r="F391" s="38"/>
+    </row>
+    <row r="392" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B392" s="39"/>
+      <c r="C392" s="40"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
+  <mergeCells count="204">
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F392"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C264:F264"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B24:F24"/>
@@ -11652,90 +12012,88 @@
     <mergeCell ref="B272:F272"/>
     <mergeCell ref="B279:F283"/>
     <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C264:F264"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C266:F266"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="C261:F261"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -11765,9 +12123,11 @@
     <hyperlink ref="C227" r:id="rId24"/>
     <hyperlink ref="C200" r:id="rId25"/>
     <hyperlink ref="C199" r:id="rId26"/>
+    <hyperlink ref="C369" r:id="rId27"/>
+    <hyperlink ref="C368" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId27"/>
-  <drawing r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25605" windowHeight="14205" tabRatio="632"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25605" windowHeight="14175" tabRatio="632"/>
   </bookViews>
   <sheets>
     <sheet name="V1搜索及推荐引擎提供接口列表" sheetId="9" r:id="rId1"/>
@@ -2023,10 +2023,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.100.12:8999/es/index/news</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>http://54.222.222.172:8999/es/index/news</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5920,6 +5916,10 @@
   </si>
   <si>
     <t>默认为推荐&lt;=10个</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/index/news</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7901,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="B325" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372:F372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
       <c r="B225" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C225" s="42"/>
       <c r="D225" s="42"/>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D226" s="44"/>
       <c r="E226" s="44"/>
@@ -10192,7 +10192,7 @@
         <v>81</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D227" s="47"/>
       <c r="E227" s="47"/>
@@ -10203,7 +10203,7 @@
         <v>83</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D228" s="47"/>
       <c r="E228" s="47"/>
@@ -10234,7 +10234,7 @@
         <v>86</v>
       </c>
       <c r="C231" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D231" s="56"/>
       <c r="E231" s="56"/>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>88</v>
@@ -10296,109 +10296,109 @@
         <v>113</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237" spans="2:6" ht="14.25" thickBot="1">
       <c r="B237" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C237" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="D237" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="E237" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E237" s="11" t="s">
+      <c r="F237" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="F237" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="238" spans="2:6" ht="14.25" thickBot="1">
       <c r="B238" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C238" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="D238" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="E238" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F238" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="239" spans="2:6" ht="14.25" thickBot="1">
       <c r="B239" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C239" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="D239" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F239" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="240" spans="2:6" ht="14.25" thickBot="1">
       <c r="B240" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C240" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="D240" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D240" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="E240" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241" spans="2:6" ht="14.25" thickBot="1">
       <c r="B241" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C241" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C241" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="D241" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
       <c r="B242" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C242" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="D242" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="E242" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="F242" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
@@ -10506,7 +10506,7 @@
     </row>
     <row r="252" spans="2:6">
       <c r="B252" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C252" s="34"/>
       <c r="D252" s="34"/>
@@ -11365,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="C340" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D340" s="44"/>
       <c r="E340" s="44"/>
@@ -11376,7 +11376,7 @@
         <v>58</v>
       </c>
       <c r="C341" s="43" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D341" s="44"/>
       <c r="E341" s="44"/>
@@ -11468,36 +11468,36 @@
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C350" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="D350" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="351" spans="2:6" ht="14.25" thickBot="1">
       <c r="B351" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C351" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C351" s="8" t="s">
+      <c r="D351" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D351" s="8" t="s">
+      <c r="E351" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E351" s="18" t="s">
+      <c r="F351" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="F351" s="9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
@@ -11594,7 +11594,7 @@
     </row>
     <row r="360" spans="2:6">
       <c r="B360" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C360" s="34"/>
       <c r="D360" s="34"/>
@@ -11632,7 +11632,7 @@
     <row r="366" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="367" spans="2:6" ht="21" thickBot="1">
       <c r="B367" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C367" s="42"/>
       <c r="D367" s="42"/>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D368" s="44"/>
       <c r="E368" s="44"/>
@@ -11655,7 +11655,7 @@
         <v>58</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D369" s="44"/>
       <c r="E369" s="44"/>
@@ -11666,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="C370" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D370" s="47"/>
       <c r="E370" s="47"/>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="388" spans="2:6">
       <c r="B388" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C388" s="34"/>
       <c r="D388" s="34"/>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="230">
   <si>
     <t>服务地址</t>
   </si>
@@ -5854,8 +5854,60 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5.</t>
+    <t>http://54.222.222.172:8999/es/recommend/topics</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/recommend/topics</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST,GET</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg:"工商银行" 或者"雾霾"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐个数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为推荐&lt;=10个</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/index/news</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -5871,15 +5923,32 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>http://54.222.222.172:8999/es/recommend/topics</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8999/es/recommend/topics</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST,GET</t>
+    <t>主题相关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据主题推荐相关的股票</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/recommend/stocks</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/recommend/stocks</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5895,31 +5964,463 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>eg:"工商银行" 或者"雾霾"</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐个数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为推荐&lt;=10个</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.100.12:8999/es/index/news</t>
+    <t>股票名或者新闻关键字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://127.0.0.1:8999/es/recommend/topics?keyword=%E7%8E%AF%E4%BF%9D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+costMillisecond: 4187,
+costSecond: 4.187,
+data: [
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土地流转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京津冀一体化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废气治理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能家居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节能环保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
+],
+msg: "sucsess",
+code: 0
+}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题全名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://localhost:8999/es/recommend/stocks?topic=%E7%85%A4%E7%82%AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+costMillisecond: 2853,
+costSecond: 2.853,
+data: [
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瑞茂通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "600180_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潞安环能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "601699_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西煤业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "601225_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美锦能源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "000723_SZ_EQ"
+},
+{
+comSim: "*ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "000933_SZ_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云煤能源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "600792_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大有能源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "600403_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝泰隆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "601011_SH_EQ"
+},
+{
+comSim: "*ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+company: null,
+comEn: null,
+comCode: "600721_SH_EQ"
+},
+{
+comSim: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>露天煤业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">",
+company: null,
+comEn: null,
+comCode: "002128_SZ_EQ"
+}
+],
+msg: "sucsess",
+code: 0
+}
+</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6412,7 +6913,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6493,15 +6994,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6587,20 +7079,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7899,10 +8403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F392"/>
+  <dimension ref="B2:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B325" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372:F372"/>
+    <sheetView tabSelected="1" topLeftCell="B402" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415:F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7915,113 +8419,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8063,18 +8567,18 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
       <c r="B18" s="24" t="s">
@@ -8166,139 +8670,139 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8404,18 +8908,18 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B51" s="24" t="s">
@@ -8436,41 +8940,41 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="38"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="38"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -8490,95 +8994,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -8652,11 +9156,11 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B76" s="24" t="s">
@@ -8751,38 +9255,38 @@
       <c r="B83" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="35"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="38"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="36"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="38"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="38"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="41"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -8802,95 +9306,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="45"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="45"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C94" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="48"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="51"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="54"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="51"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="57"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="54"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="55" t="s">
+      <c r="C98" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="54"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="57"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="54"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -8951,11 +9455,11 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="27"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="57"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B105" s="24" t="s">
@@ -9045,41 +9549,41 @@
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="35"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="36"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="38"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="36"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="38"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="36"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="38"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="35"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="39"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="41"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9099,95 +9603,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="43" t="s">
+      <c r="C121" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="45"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="42"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="45"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="46" t="s">
+      <c r="C123" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="48"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="51"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="48"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="52"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="54"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="51"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="55" t="s">
+      <c r="C126" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="57"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="54"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="55" t="s">
+      <c r="C127" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="57"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="54"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="57"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="54"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9214,11 +9718,11 @@
       <c r="F130" s="26"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="27"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="57"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B132" s="24" t="s">
@@ -9308,41 +9812,41 @@
       <c r="F138" s="26"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="58" t="s">
+      <c r="B139" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="35"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="32"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="36"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="38"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="35"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="36"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="38"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="35"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="36"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="38"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="35"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="39"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="41"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="38"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9362,95 +9866,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="42" t="s">
+      <c r="B147" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="43" t="s">
+      <c r="C148" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="45"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="45"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="46" t="s">
+      <c r="C150" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="48"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="45"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="50"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="51"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="48"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53"/>
-      <c r="E152" s="53"/>
-      <c r="F152" s="54"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="51"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="55" t="s">
+      <c r="C153" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="56"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="57"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="54"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="55" t="s">
+      <c r="C154" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="56"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="57"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="54"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="55"/>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="57"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="54"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9477,11 +9981,11 @@
       <c r="F157" s="26"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="27"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="29"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="57"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B159" s="24" t="s">
@@ -9571,41 +10075,41 @@
       <c r="F165" s="26"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="58" t="s">
+      <c r="B166" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="35"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="32"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="36"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="38"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="35"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="36"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="38"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="35"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="36"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="38"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="35"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="39"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="41"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="38"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -9615,95 +10119,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="42" t="s">
+      <c r="B172" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="44"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="45"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="42"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="43" t="s">
+      <c r="C174" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="44"/>
-      <c r="E174" s="44"/>
-      <c r="F174" s="45"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="42"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="46" t="s">
+      <c r="C175" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="47"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="48"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="45"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="51"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="48"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="52"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="54"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="51"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="55" t="s">
+      <c r="C178" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="57"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="54"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="55" t="s">
+      <c r="C179" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="56"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="57"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="54"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="55"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="57"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="54"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -9745,11 +10249,11 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="27"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="57"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B185" s="24" t="s">
@@ -9839,41 +10343,41 @@
       <c r="F191" s="26"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="35"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="32"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="36"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="38"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="35"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="36"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="38"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="35"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="36"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="38"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="39"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="41"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="38"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -9883,95 +10387,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="42"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="43" t="s">
+      <c r="C199" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="44"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="45"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="42"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="43" t="s">
+      <c r="C200" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="44"/>
-      <c r="E200" s="44"/>
-      <c r="F200" s="45"/>
+      <c r="D200" s="41"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="42"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="46" t="s">
+      <c r="C201" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="47"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="48"/>
+      <c r="D201" s="44"/>
+      <c r="E201" s="44"/>
+      <c r="F201" s="45"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="50"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="51"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="47"/>
+      <c r="F202" s="48"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="52"/>
-      <c r="D203" s="53"/>
-      <c r="E203" s="53"/>
-      <c r="F203" s="54"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="51"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="55" t="s">
+      <c r="C204" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="56"/>
-      <c r="E204" s="56"/>
-      <c r="F204" s="57"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="53"/>
+      <c r="F204" s="54"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="55" t="s">
+      <c r="C205" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="56"/>
-      <c r="E205" s="56"/>
-      <c r="F205" s="57"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="54"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="55"/>
-      <c r="C206" s="56"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="56"/>
-      <c r="F206" s="57"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="54"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10030,11 +10534,11 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="27"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="29"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="57"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B212" s="24" t="s">
@@ -10124,41 +10628,41 @@
       <c r="F218" s="26"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="58" t="s">
+      <c r="B219" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="35"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="32"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="36"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="38"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="35"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="36"/>
-      <c r="C221" s="37"/>
-      <c r="D221" s="37"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="38"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="35"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="36"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="37"/>
-      <c r="E222" s="37"/>
-      <c r="F222" s="38"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="34"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="35"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="39"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="41"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
+      <c r="F223" s="38"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10168,95 +10672,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="42"/>
-      <c r="D225" s="42"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
+      <c r="C225" s="39"/>
+      <c r="D225" s="39"/>
+      <c r="E225" s="39"/>
+      <c r="F225" s="39"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="43" t="s">
+      <c r="C226" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="44"/>
-      <c r="E226" s="44"/>
-      <c r="F226" s="45"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="42"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="46" t="s">
+      <c r="C227" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="47"/>
-      <c r="E227" s="47"/>
-      <c r="F227" s="48"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="45"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="46" t="s">
+      <c r="C228" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="47"/>
-      <c r="E228" s="47"/>
-      <c r="F228" s="48"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="45"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="49" t="s">
+      <c r="C229" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="51"/>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="48"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="52"/>
-      <c r="D230" s="53"/>
-      <c r="E230" s="53"/>
-      <c r="F230" s="54"/>
+      <c r="C230" s="49"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="51"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="55" t="s">
+      <c r="C231" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="57"/>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="54"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="55" t="s">
+      <c r="C232" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="57"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="55"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="57"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="53"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="54"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10402,18 +10906,18 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="27"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
-      <c r="F243" s="29"/>
+      <c r="B243" s="55"/>
+      <c r="C243" s="56"/>
+      <c r="D243" s="56"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="57"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="30"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="31"/>
-      <c r="F244" s="32"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="29"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
       <c r="B245" s="24" t="s">
@@ -10505,41 +11009,41 @@
       <c r="F251" s="26"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="33" t="s">
+      <c r="B252" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
-      <c r="F252" s="35"/>
+      <c r="C252" s="31"/>
+      <c r="D252" s="31"/>
+      <c r="E252" s="31"/>
+      <c r="F252" s="32"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="36"/>
-      <c r="C253" s="37"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="37"/>
-      <c r="F253" s="38"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="34"/>
+      <c r="F253" s="35"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="36"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
-      <c r="F254" s="38"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34"/>
+      <c r="F254" s="35"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="36"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
-      <c r="F255" s="38"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="35"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="39"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40"/>
-      <c r="E256" s="40"/>
-      <c r="F256" s="41"/>
+      <c r="B256" s="36"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="38"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -10549,104 +11053,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="62" t="s">
+      <c r="B258" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="62"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="62"/>
-      <c r="F258" s="62"/>
+      <c r="C258" s="58"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="58"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="42" t="s">
+      <c r="B259" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="42"/>
-      <c r="D259" s="42"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="42"/>
+      <c r="C259" s="39"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="39"/>
+      <c r="F259" s="39"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="43" t="s">
+      <c r="C260" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="44"/>
-      <c r="E260" s="44"/>
-      <c r="F260" s="45"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="41"/>
+      <c r="F260" s="42"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="43" t="s">
+      <c r="C261" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="44"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="45"/>
+      <c r="D261" s="41"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="42"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="46" t="s">
+      <c r="C262" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="47"/>
-      <c r="E262" s="47"/>
-      <c r="F262" s="48"/>
+      <c r="D262" s="44"/>
+      <c r="E262" s="44"/>
+      <c r="F262" s="45"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="49" t="s">
+      <c r="C263" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="50"/>
-      <c r="E263" s="50"/>
-      <c r="F263" s="51"/>
+      <c r="D263" s="47"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="48"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="52"/>
-      <c r="D264" s="53"/>
-      <c r="E264" s="53"/>
-      <c r="F264" s="54"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="50"/>
+      <c r="E264" s="50"/>
+      <c r="F264" s="51"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="55" t="s">
+      <c r="C265" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="56"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="57"/>
+      <c r="D265" s="53"/>
+      <c r="E265" s="53"/>
+      <c r="F265" s="54"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="55" t="s">
+      <c r="C266" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="57"/>
+      <c r="D266" s="53"/>
+      <c r="E266" s="53"/>
+      <c r="F266" s="54"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="55"/>
-      <c r="C267" s="56"/>
-      <c r="D267" s="56"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="57"/>
+      <c r="B267" s="52"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="53"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="54"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -10688,11 +11192,11 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="30"/>
-      <c r="C271" s="31"/>
-      <c r="D271" s="31"/>
-      <c r="E271" s="31"/>
-      <c r="F271" s="32"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="29"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
       <c r="B272" s="24" t="s">
@@ -10782,133 +11286,133 @@
       <c r="F278" s="26"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="33" t="s">
+      <c r="B279" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="34"/>
-      <c r="D279" s="34"/>
-      <c r="E279" s="34"/>
-      <c r="F279" s="35"/>
+      <c r="C279" s="31"/>
+      <c r="D279" s="31"/>
+      <c r="E279" s="31"/>
+      <c r="F279" s="32"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="36"/>
-      <c r="C280" s="37"/>
-      <c r="D280" s="37"/>
-      <c r="E280" s="37"/>
-      <c r="F280" s="38"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="34"/>
+      <c r="D280" s="34"/>
+      <c r="E280" s="34"/>
+      <c r="F280" s="35"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="36"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-      <c r="F281" s="38"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="34"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
+      <c r="F281" s="35"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="36"/>
-      <c r="C282" s="37"/>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
-      <c r="F282" s="38"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="34"/>
+      <c r="E282" s="34"/>
+      <c r="F282" s="35"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="39"/>
-      <c r="C283" s="40"/>
-      <c r="D283" s="40"/>
-      <c r="E283" s="40"/>
-      <c r="F283" s="41"/>
-    </row>
-    <row r="284" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="37"/>
+      <c r="D283" s="37"/>
+      <c r="E283" s="37"/>
+      <c r="F283" s="38"/>
+    </row>
+    <row r="284" spans="2:6" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="42" t="s">
+      <c r="B285" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="42"/>
-      <c r="D285" s="42"/>
-      <c r="E285" s="42"/>
-      <c r="F285" s="42"/>
+      <c r="C285" s="39"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="39"/>
+      <c r="F285" s="39"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="43" t="s">
+      <c r="C286" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="44"/>
-      <c r="E286" s="44"/>
-      <c r="F286" s="45"/>
+      <c r="D286" s="41"/>
+      <c r="E286" s="41"/>
+      <c r="F286" s="42"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="43" t="s">
+      <c r="C287" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="45"/>
+      <c r="D287" s="41"/>
+      <c r="E287" s="41"/>
+      <c r="F287" s="42"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="46" t="s">
+      <c r="C288" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="47"/>
-      <c r="E288" s="47"/>
-      <c r="F288" s="48"/>
+      <c r="D288" s="44"/>
+      <c r="E288" s="44"/>
+      <c r="F288" s="45"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="49" t="s">
+      <c r="C289" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="51"/>
+      <c r="D289" s="47"/>
+      <c r="E289" s="47"/>
+      <c r="F289" s="48"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="52"/>
-      <c r="D290" s="53"/>
-      <c r="E290" s="53"/>
-      <c r="F290" s="54"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="50"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="51"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="55" t="s">
+      <c r="C291" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="56"/>
-      <c r="E291" s="56"/>
-      <c r="F291" s="57"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="54"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="55" t="s">
+      <c r="C292" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="56"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="57"/>
+      <c r="D292" s="53"/>
+      <c r="E292" s="53"/>
+      <c r="F292" s="54"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="55"/>
-      <c r="C293" s="56"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="57"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="53"/>
+      <c r="E293" s="53"/>
+      <c r="F293" s="54"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -10957,11 +11461,11 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="30"/>
-      <c r="C298" s="31"/>
-      <c r="D298" s="31"/>
-      <c r="E298" s="31"/>
-      <c r="F298" s="32"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="28"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="29"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
       <c r="B299" s="24" t="s">
@@ -11051,134 +11555,134 @@
       <c r="F305" s="26"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="33" t="s">
+      <c r="B306" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="34"/>
-      <c r="D306" s="34"/>
-      <c r="E306" s="34"/>
-      <c r="F306" s="35"/>
+      <c r="C306" s="31"/>
+      <c r="D306" s="31"/>
+      <c r="E306" s="31"/>
+      <c r="F306" s="32"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="36"/>
-      <c r="C307" s="37"/>
-      <c r="D307" s="37"/>
-      <c r="E307" s="37"/>
-      <c r="F307" s="38"/>
+      <c r="B307" s="33"/>
+      <c r="C307" s="34"/>
+      <c r="D307" s="34"/>
+      <c r="E307" s="34"/>
+      <c r="F307" s="35"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="36"/>
-      <c r="C308" s="37"/>
-      <c r="D308" s="37"/>
-      <c r="E308" s="37"/>
-      <c r="F308" s="38"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="34"/>
+      <c r="E308" s="34"/>
+      <c r="F308" s="35"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="36"/>
-      <c r="C309" s="37"/>
-      <c r="D309" s="37"/>
-      <c r="E309" s="37"/>
-      <c r="F309" s="38"/>
+      <c r="B309" s="33"/>
+      <c r="C309" s="34"/>
+      <c r="D309" s="34"/>
+      <c r="E309" s="34"/>
+      <c r="F309" s="35"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="39"/>
-      <c r="C310" s="40"/>
-      <c r="D310" s="40"/>
-      <c r="E310" s="40"/>
-      <c r="F310" s="41"/>
+      <c r="B310" s="36"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="37"/>
+      <c r="E310" s="37"/>
+      <c r="F310" s="38"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="42" t="s">
+      <c r="B313" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="42"/>
-      <c r="D313" s="42"/>
-      <c r="E313" s="42"/>
-      <c r="F313" s="42"/>
+      <c r="C313" s="39"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="39"/>
+      <c r="F313" s="39"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="43" t="s">
+      <c r="C314" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="44"/>
-      <c r="E314" s="44"/>
-      <c r="F314" s="45"/>
+      <c r="D314" s="41"/>
+      <c r="E314" s="41"/>
+      <c r="F314" s="42"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="43" t="s">
+      <c r="C315" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="44"/>
-      <c r="E315" s="44"/>
-      <c r="F315" s="45"/>
+      <c r="D315" s="41"/>
+      <c r="E315" s="41"/>
+      <c r="F315" s="42"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="46" t="s">
+      <c r="C316" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="47"/>
-      <c r="E316" s="47"/>
-      <c r="F316" s="48"/>
+      <c r="D316" s="44"/>
+      <c r="E316" s="44"/>
+      <c r="F316" s="45"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="49" t="s">
+      <c r="C317" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="50"/>
-      <c r="E317" s="50"/>
-      <c r="F317" s="51"/>
+      <c r="D317" s="47"/>
+      <c r="E317" s="47"/>
+      <c r="F317" s="48"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="52"/>
-      <c r="D318" s="53"/>
-      <c r="E318" s="53"/>
-      <c r="F318" s="54"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="50"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="51"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="55" t="s">
+      <c r="C319" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="56"/>
-      <c r="E319" s="56"/>
-      <c r="F319" s="57"/>
+      <c r="D319" s="53"/>
+      <c r="E319" s="53"/>
+      <c r="F319" s="54"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="55" t="s">
+      <c r="C320" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="56"/>
-      <c r="E320" s="56"/>
-      <c r="F320" s="57"/>
+      <c r="D320" s="53"/>
+      <c r="E320" s="53"/>
+      <c r="F320" s="54"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="55"/>
-      <c r="C321" s="56"/>
-      <c r="D321" s="56"/>
-      <c r="E321" s="56"/>
-      <c r="F321" s="57"/>
+      <c r="B321" s="52"/>
+      <c r="C321" s="53"/>
+      <c r="D321" s="53"/>
+      <c r="E321" s="53"/>
+      <c r="F321" s="54"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11220,11 +11724,11 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="30"/>
-      <c r="C325" s="31"/>
-      <c r="D325" s="31"/>
-      <c r="E325" s="31"/>
-      <c r="F325" s="32"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="28"/>
+      <c r="D325" s="28"/>
+      <c r="E325" s="28"/>
+      <c r="F325" s="29"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
       <c r="B326" s="24" t="s">
@@ -11314,133 +11818,133 @@
       <c r="F332" s="26"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="33" t="s">
+      <c r="B333" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="34"/>
-      <c r="D333" s="34"/>
-      <c r="E333" s="34"/>
-      <c r="F333" s="35"/>
+      <c r="C333" s="31"/>
+      <c r="D333" s="31"/>
+      <c r="E333" s="31"/>
+      <c r="F333" s="32"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="36"/>
-      <c r="C334" s="37"/>
-      <c r="D334" s="37"/>
-      <c r="E334" s="37"/>
-      <c r="F334" s="38"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="34"/>
+      <c r="E334" s="34"/>
+      <c r="F334" s="35"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="36"/>
-      <c r="C335" s="37"/>
-      <c r="D335" s="37"/>
-      <c r="E335" s="37"/>
-      <c r="F335" s="38"/>
+      <c r="B335" s="33"/>
+      <c r="C335" s="34"/>
+      <c r="D335" s="34"/>
+      <c r="E335" s="34"/>
+      <c r="F335" s="35"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="36"/>
-      <c r="C336" s="37"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="38"/>
+      <c r="B336" s="33"/>
+      <c r="C336" s="34"/>
+      <c r="D336" s="34"/>
+      <c r="E336" s="34"/>
+      <c r="F336" s="35"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="39"/>
-      <c r="C337" s="40"/>
-      <c r="D337" s="40"/>
-      <c r="E337" s="40"/>
-      <c r="F337" s="41"/>
+      <c r="B337" s="36"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="37"/>
+      <c r="F337" s="38"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="42" t="s">
+      <c r="B339" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="42"/>
-      <c r="D339" s="42"/>
-      <c r="E339" s="42"/>
-      <c r="F339" s="42"/>
+      <c r="C339" s="39"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="39"/>
+      <c r="F339" s="39"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="43" t="s">
+      <c r="C340" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="44"/>
-      <c r="E340" s="44"/>
-      <c r="F340" s="45"/>
+      <c r="D340" s="41"/>
+      <c r="E340" s="41"/>
+      <c r="F340" s="42"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D341" s="44"/>
-      <c r="E341" s="44"/>
-      <c r="F341" s="45"/>
+      <c r="C341" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D341" s="41"/>
+      <c r="E341" s="41"/>
+      <c r="F341" s="42"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="46" t="s">
+      <c r="C342" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="47"/>
-      <c r="E342" s="47"/>
-      <c r="F342" s="48"/>
+      <c r="D342" s="44"/>
+      <c r="E342" s="44"/>
+      <c r="F342" s="45"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="49" t="s">
+      <c r="C343" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="50"/>
-      <c r="E343" s="50"/>
-      <c r="F343" s="51"/>
+      <c r="D343" s="47"/>
+      <c r="E343" s="47"/>
+      <c r="F343" s="48"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="52"/>
-      <c r="D344" s="53"/>
-      <c r="E344" s="53"/>
-      <c r="F344" s="54"/>
+      <c r="C344" s="49"/>
+      <c r="D344" s="50"/>
+      <c r="E344" s="50"/>
+      <c r="F344" s="51"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="55" t="s">
+      <c r="C345" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="56"/>
-      <c r="E345" s="56"/>
-      <c r="F345" s="57"/>
+      <c r="D345" s="53"/>
+      <c r="E345" s="53"/>
+      <c r="F345" s="54"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="55" t="s">
+      <c r="C346" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="56"/>
-      <c r="E346" s="56"/>
-      <c r="F346" s="57"/>
+      <c r="D346" s="53"/>
+      <c r="E346" s="53"/>
+      <c r="F346" s="54"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="55"/>
-      <c r="C347" s="56"/>
-      <c r="D347" s="56"/>
-      <c r="E347" s="56"/>
-      <c r="F347" s="57"/>
+      <c r="B347" s="52"/>
+      <c r="C347" s="53"/>
+      <c r="D347" s="53"/>
+      <c r="E347" s="53"/>
+      <c r="F347" s="54"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11468,44 +11972,44 @@
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C350" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="D350" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="351" spans="2:6" ht="14.25" thickBot="1">
       <c r="B351" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C351" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C351" s="8" t="s">
+      <c r="D351" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D351" s="8" t="s">
+      <c r="E351" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E351" s="18" t="s">
+      <c r="F351" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F351" s="9" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="30"/>
-      <c r="C352" s="31"/>
-      <c r="D352" s="31"/>
-      <c r="E352" s="31"/>
-      <c r="F352" s="32"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="29"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
       <c r="B353" s="24" t="s">
@@ -11593,133 +12097,141 @@
       <c r="F359" s="26"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="33" t="s">
+      <c r="B360" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="34"/>
-      <c r="D360" s="34"/>
-      <c r="E360" s="34"/>
-      <c r="F360" s="35"/>
+      <c r="C360" s="31"/>
+      <c r="D360" s="31"/>
+      <c r="E360" s="31"/>
+      <c r="F360" s="32"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="36"/>
-      <c r="C361" s="37"/>
-      <c r="D361" s="37"/>
-      <c r="E361" s="37"/>
-      <c r="F361" s="38"/>
+      <c r="B361" s="33"/>
+      <c r="C361" s="34"/>
+      <c r="D361" s="34"/>
+      <c r="E361" s="34"/>
+      <c r="F361" s="35"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="36"/>
-      <c r="C362" s="37"/>
-      <c r="D362" s="37"/>
-      <c r="E362" s="37"/>
-      <c r="F362" s="38"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="34"/>
+      <c r="D362" s="34"/>
+      <c r="E362" s="34"/>
+      <c r="F362" s="35"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="36"/>
-      <c r="C363" s="37"/>
-      <c r="D363" s="37"/>
-      <c r="E363" s="37"/>
-      <c r="F363" s="38"/>
-    </row>
-    <row r="364" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B364" s="39"/>
-      <c r="C364" s="40"/>
-      <c r="D364" s="40"/>
-      <c r="E364" s="40"/>
-      <c r="F364" s="41"/>
-    </row>
-    <row r="366" spans="2:6" ht="13.5" thickBot="1"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="34"/>
+      <c r="E363" s="34"/>
+      <c r="F363" s="35"/>
+    </row>
+    <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
+      <c r="B364" s="36"/>
+      <c r="C364" s="37"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="37"/>
+      <c r="F364" s="38"/>
+    </row>
+    <row r="366" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B366" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C366" s="58"/>
+      <c r="D366" s="58"/>
+      <c r="E366" s="58"/>
+      <c r="F366" s="58"/>
+    </row>
     <row r="367" spans="2:6" ht="21" thickBot="1">
-      <c r="B367" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C367" s="42"/>
-      <c r="D367" s="42"/>
-      <c r="E367" s="42"/>
-      <c r="F367" s="42"/>
+      <c r="B367" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C367" s="39"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="39"/>
+      <c r="F367" s="39"/>
     </row>
     <row r="368" spans="2:6" ht="13.5" thickBot="1">
       <c r="B368" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C368" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D368" s="44"/>
-      <c r="E368" s="44"/>
-      <c r="F368" s="45"/>
+      <c r="C368" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D368" s="41"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="42"/>
     </row>
     <row r="369" spans="2:6" ht="13.5" thickBot="1">
       <c r="B369" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C369" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D369" s="44"/>
-      <c r="E369" s="44"/>
-      <c r="F369" s="45"/>
+      <c r="C369" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D369" s="41"/>
+      <c r="E369" s="41"/>
+      <c r="F369" s="42"/>
     </row>
     <row r="370" spans="2:6" ht="13.5" thickBot="1">
       <c r="B370" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C370" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D370" s="47"/>
-      <c r="E370" s="47"/>
-      <c r="F370" s="48"/>
+      <c r="C370" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D370" s="44"/>
+      <c r="E370" s="44"/>
+      <c r="F370" s="45"/>
     </row>
     <row r="371" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B371" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C371" s="49" t="s">
+      <c r="C371" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D371" s="50"/>
-      <c r="E371" s="50"/>
-      <c r="F371" s="51"/>
+      <c r="D371" s="47"/>
+      <c r="E371" s="47"/>
+      <c r="F371" s="48"/>
     </row>
     <row r="372" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C372" s="52"/>
-      <c r="D372" s="53"/>
-      <c r="E372" s="53"/>
-      <c r="F372" s="54"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="50"/>
+      <c r="E372" s="50"/>
+      <c r="F372" s="51"/>
     </row>
     <row r="373" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B373" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="55" t="s">
+      <c r="C373" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D373" s="56"/>
-      <c r="E373" s="56"/>
-      <c r="F373" s="57"/>
+      <c r="D373" s="53"/>
+      <c r="E373" s="53"/>
+      <c r="F373" s="54"/>
     </row>
     <row r="374" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B374" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C374" s="55" t="s">
+      <c r="C374" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D374" s="56"/>
-      <c r="E374" s="56"/>
-      <c r="F374" s="57"/>
+      <c r="D374" s="53"/>
+      <c r="E374" s="53"/>
+      <c r="F374" s="54"/>
     </row>
     <row r="375" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B375" s="55"/>
-      <c r="C375" s="56"/>
-      <c r="D375" s="56"/>
-      <c r="E375" s="56"/>
-      <c r="F375" s="57"/>
+      <c r="B375" s="52"/>
+      <c r="C375" s="53"/>
+      <c r="D375" s="53"/>
+      <c r="E375" s="53"/>
+      <c r="F375" s="54"/>
     </row>
     <row r="376" spans="2:6" ht="13.5" thickBot="1">
       <c r="B376" s="7" t="s">
@@ -11746,11 +12258,21 @@
       <c r="F377" s="26"/>
     </row>
     <row r="378" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B378" s="1"/>
-      <c r="C378" s="9"/>
-      <c r="D378" s="9"/>
-      <c r="E378" s="6"/>
-      <c r="F378" s="9"/>
+      <c r="B378" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E378" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="379" spans="2:6" ht="14.25" thickBot="1">
       <c r="B379" s="10"/>
@@ -11760,11 +12282,11 @@
       <c r="F379" s="9"/>
     </row>
     <row r="380" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B380" s="30"/>
-      <c r="C380" s="31"/>
-      <c r="D380" s="31"/>
-      <c r="E380" s="31"/>
-      <c r="F380" s="32"/>
+      <c r="B380" s="27"/>
+      <c r="C380" s="28"/>
+      <c r="D380" s="28"/>
+      <c r="E380" s="28"/>
+      <c r="F380" s="29"/>
     </row>
     <row r="381" spans="2:6" ht="13.5" thickBot="1">
       <c r="B381" s="24" t="s">
@@ -11852,85 +12374,467 @@
       <c r="F387" s="26"/>
     </row>
     <row r="388" spans="2:6">
-      <c r="B388" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C388" s="34"/>
-      <c r="D388" s="34"/>
-      <c r="E388" s="34"/>
-      <c r="F388" s="35"/>
+      <c r="B388" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C388" s="31"/>
+      <c r="D388" s="31"/>
+      <c r="E388" s="31"/>
+      <c r="F388" s="32"/>
     </row>
     <row r="389" spans="2:6">
-      <c r="B389" s="36"/>
-      <c r="C389" s="37"/>
-      <c r="D389" s="37"/>
-      <c r="E389" s="37"/>
-      <c r="F389" s="38"/>
+      <c r="B389" s="33"/>
+      <c r="C389" s="34"/>
+      <c r="D389" s="34"/>
+      <c r="E389" s="34"/>
+      <c r="F389" s="35"/>
     </row>
     <row r="390" spans="2:6">
-      <c r="B390" s="36"/>
-      <c r="C390" s="37"/>
-      <c r="D390" s="37"/>
-      <c r="E390" s="37"/>
-      <c r="F390" s="38"/>
+      <c r="B390" s="33"/>
+      <c r="C390" s="34"/>
+      <c r="D390" s="34"/>
+      <c r="E390" s="34"/>
+      <c r="F390" s="35"/>
     </row>
     <row r="391" spans="2:6">
-      <c r="B391" s="36"/>
-      <c r="C391" s="37"/>
-      <c r="D391" s="37"/>
-      <c r="E391" s="37"/>
-      <c r="F391" s="38"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="34"/>
+      <c r="E391" s="34"/>
+      <c r="F391" s="35"/>
     </row>
     <row r="392" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B392" s="39"/>
-      <c r="C392" s="40"/>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="41"/>
+      <c r="B392" s="36"/>
+      <c r="C392" s="37"/>
+      <c r="D392" s="37"/>
+      <c r="E392" s="37"/>
+      <c r="F392" s="38"/>
+    </row>
+    <row r="393" spans="2:6" ht="13.5" thickBot="1"/>
+    <row r="394" spans="2:6" ht="21" thickBot="1">
+      <c r="B394" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C394" s="39"/>
+      <c r="D394" s="39"/>
+      <c r="E394" s="39"/>
+      <c r="F394" s="39"/>
+    </row>
+    <row r="395" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B395" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D395" s="41"/>
+      <c r="E395" s="41"/>
+      <c r="F395" s="42"/>
+    </row>
+    <row r="396" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B396" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C396" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D396" s="41"/>
+      <c r="E396" s="41"/>
+      <c r="F396" s="42"/>
+    </row>
+    <row r="397" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B397" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C397" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D397" s="44"/>
+      <c r="E397" s="44"/>
+      <c r="F397" s="45"/>
+    </row>
+    <row r="398" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B398" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398" s="47"/>
+      <c r="E398" s="47"/>
+      <c r="F398" s="48"/>
+    </row>
+    <row r="399" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B399" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C399" s="49"/>
+      <c r="D399" s="50"/>
+      <c r="E399" s="50"/>
+      <c r="F399" s="51"/>
+    </row>
+    <row r="400" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B400" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C400" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400" s="53"/>
+      <c r="E400" s="53"/>
+      <c r="F400" s="54"/>
+    </row>
+    <row r="401" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B401" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C401" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D401" s="53"/>
+      <c r="E401" s="53"/>
+      <c r="F401" s="54"/>
+    </row>
+    <row r="402" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B402" s="52"/>
+      <c r="C402" s="53"/>
+      <c r="D402" s="53"/>
+      <c r="E402" s="53"/>
+      <c r="F402" s="54"/>
+    </row>
+    <row r="403" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B403" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" s="9"/>
+      <c r="E403" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F403" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B404" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C404" s="25"/>
+      <c r="D404" s="25"/>
+      <c r="E404" s="25"/>
+      <c r="F404" s="26"/>
+    </row>
+    <row r="405" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B405" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E405" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F405" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B406" s="10"/>
+      <c r="C406" s="8"/>
+      <c r="D406" s="8"/>
+      <c r="E406" s="14"/>
+      <c r="F406" s="9"/>
+    </row>
+    <row r="407" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B407" s="27"/>
+      <c r="C407" s="28"/>
+      <c r="D407" s="28"/>
+      <c r="E407" s="28"/>
+      <c r="F407" s="29"/>
+    </row>
+    <row r="408" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B408" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="25"/>
+      <c r="D408" s="25"/>
+      <c r="E408" s="25"/>
+      <c r="F408" s="26"/>
+    </row>
+    <row r="409" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B409" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
+    </row>
+    <row r="410" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B410" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
+    </row>
+    <row r="411" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E411" s="4"/>
+      <c r="F411" s="9"/>
+    </row>
+    <row r="412" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B412" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D412" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E412" s="11"/>
+      <c r="F412" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B413" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E413" s="11"/>
+      <c r="F413" s="4"/>
+    </row>
+    <row r="414" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B414" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" s="25"/>
+      <c r="D414" s="25"/>
+      <c r="E414" s="25"/>
+      <c r="F414" s="26"/>
+    </row>
+    <row r="415" spans="2:6">
+      <c r="B415" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C415" s="31"/>
+      <c r="D415" s="31"/>
+      <c r="E415" s="31"/>
+      <c r="F415" s="32"/>
+    </row>
+    <row r="416" spans="2:6">
+      <c r="B416" s="33"/>
+      <c r="C416" s="34"/>
+      <c r="D416" s="34"/>
+      <c r="E416" s="34"/>
+      <c r="F416" s="35"/>
+    </row>
+    <row r="417" spans="2:6">
+      <c r="B417" s="33"/>
+      <c r="C417" s="34"/>
+      <c r="D417" s="34"/>
+      <c r="E417" s="34"/>
+      <c r="F417" s="35"/>
+    </row>
+    <row r="418" spans="2:6">
+      <c r="B418" s="33"/>
+      <c r="C418" s="34"/>
+      <c r="D418" s="34"/>
+      <c r="E418" s="34"/>
+      <c r="F418" s="35"/>
+    </row>
+    <row r="419" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B419" s="36"/>
+      <c r="C419" s="37"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="37"/>
+      <c r="F419" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="204">
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F392"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="C372:F372"/>
-    <mergeCell ref="C373:F373"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
+  <mergeCells count="219">
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F419"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="C395:F395"/>
+    <mergeCell ref="C396:F396"/>
+    <mergeCell ref="C397:F397"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="C400:F400"/>
+    <mergeCell ref="C401:F401"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F337"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="C318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="C316:F316"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B279:F283"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:F14"/>
@@ -11955,145 +12859,47 @@
     <mergeCell ref="C261:F261"/>
     <mergeCell ref="C262:F262"/>
     <mergeCell ref="C263:F263"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F337"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="C318:F318"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="C316:F316"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B279:F283"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F392"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="B375:F375"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -12125,9 +12931,11 @@
     <hyperlink ref="C199" r:id="rId26"/>
     <hyperlink ref="C369" r:id="rId27"/>
     <hyperlink ref="C368" r:id="rId28"/>
+    <hyperlink ref="C396" r:id="rId29"/>
+    <hyperlink ref="C395" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId29"/>
-  <drawing r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -5968,161 +5968,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>http://127.0.0.1:8999/es/recommend/topics?keyword=%E7%8E%AF%E4%BF%9D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-{
-costMillisecond: 4187,
-costSecond: 4.187,
-data: [
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>土地流转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>京津冀一体化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>废气治理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智能家居</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>节能环保</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"
-],
-msg: "sucsess",
-code: 0
-}
-</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>topic</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6420,6 +6265,140 @@
 code: 0
 }
 </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://127.0.0.1:8999/es/recommend/topics?keyword=%E7%8E%AF%E4%BF%9D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+costMillisecond: 288,
+costSecond: 0.288,
+data: [
+{
+topic: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟现实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+pulse: 5164,
+hot: 6955,
+chg: 0.07200000000000006
+},
+{
+topic: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节能环保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+pulse: 6592,
+hot: 2927,
+chg: 0.04100000000000055
+},
+{
+topic: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钢铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+pulse: 4660,
+hot: 1565,
+chg: 0.03299999999999992
+},
+{
+topic: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京津冀一体化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+pulse: 4727,
+hot: 1211,
+chg: 0.14399999999999996
+}
+],
+msg: "sucsess",
+code: 0
+}</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6986,6 +6965,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7052,33 +7061,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7102,9 +7084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8405,8 +8384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B402" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415:F419"/>
+    <sheetView tabSelected="1" topLeftCell="B363" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367:F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8419,113 +8398,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8543,13 +8522,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -8567,27 +8546,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -8661,148 +8640,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8820,13 +8799,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -8908,73 +8887,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -8994,95 +8973,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="55"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="54"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -9100,13 +9079,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -9156,20 +9135,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -9243,50 +9222,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="36"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="32"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="35"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="35"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="36"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="48"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -9306,95 +9285,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="54"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="54"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="33"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="52"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="54"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -9412,13 +9391,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="36"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -9455,20 +9434,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="55"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="57"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="58"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="26"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="36"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -9540,50 +9519,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="26"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="42"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="35"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="45"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="35"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="45"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="36"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="38"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="48"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9603,95 +9582,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="42"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="52"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="42"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="52"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="45"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="55"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="46" t="s">
+      <c r="C124" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="48"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="27"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="30"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="52" t="s">
+      <c r="C126" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="54"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="33"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="54"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="33"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="52"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="54"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="33"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9709,29 +9688,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="26"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="36"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="57"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="58"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="26"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="36"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -9803,50 +9782,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="26"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="61" t="s">
+      <c r="B139" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="32"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="42"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="35"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="45"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="35"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="45"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="35"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="45"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="36"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="48"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9866,95 +9845,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="49"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="42"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="52"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="40" t="s">
+      <c r="C149" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="42"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="52"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="45"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="55"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="48"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="27"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="49"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="51"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="30"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="54"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="33"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="53"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="54"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="33"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="52"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="54"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="33"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9972,29 +9951,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="26"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="36"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="55"/>
-      <c r="C158" s="56"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="57"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="58"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="26"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="36"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -10066,50 +10045,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="26"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="36"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="61" t="s">
+      <c r="B166" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="32"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="42"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="33"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="35"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="45"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="35"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="45"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="33"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="35"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="45"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="36"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="38"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="48"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -10119,95 +10098,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="49"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="40" t="s">
+      <c r="C173" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="42"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
+      <c r="F173" s="52"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="40" t="s">
+      <c r="C174" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="41"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="42"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="52"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="44"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="45"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="55"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="48"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="49"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="51"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="54"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="33"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="54"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="33"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="52"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="54"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="33"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -10225,13 +10204,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="26"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="36"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -10249,20 +10228,20 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="55"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="57"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="58"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="26"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="36"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -10334,50 +10313,50 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="25"/>
-      <c r="F191" s="26"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="36"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="61" t="s">
+      <c r="B192" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="32"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="42"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="33"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="35"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="44"/>
+      <c r="F193" s="45"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="33"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="35"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="45"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="33"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="35"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="45"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="36"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="38"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="48"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -10387,95 +10366,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="49"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C199" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="41"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="42"/>
+      <c r="D199" s="51"/>
+      <c r="E199" s="51"/>
+      <c r="F199" s="52"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="40" t="s">
+      <c r="C200" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="41"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="42"/>
+      <c r="D200" s="51"/>
+      <c r="E200" s="51"/>
+      <c r="F200" s="52"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="43" t="s">
+      <c r="C201" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="44"/>
-      <c r="E201" s="44"/>
-      <c r="F201" s="45"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="55"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="46" t="s">
+      <c r="C202" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="48"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="27"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="49"/>
-      <c r="D203" s="50"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="51"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="30"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C204" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="54"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="33"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="52" t="s">
+      <c r="C205" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="54"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="33"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="52"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="54"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="33"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10493,13 +10472,13 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="24" t="s">
+      <c r="B208" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="26"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="36"/>
     </row>
     <row r="209" spans="2:6" ht="14.25" thickBot="1">
       <c r="B209" s="20" t="s">
@@ -10534,20 +10513,20 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="55"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="57"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="57"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="58"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B212" s="24" t="s">
+      <c r="B212" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="26"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="36"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -10619,50 +10598,50 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B218" s="24" t="s">
+      <c r="B218" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
-      <c r="F218" s="26"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="36"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="61" t="s">
+      <c r="B219" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="31"/>
-      <c r="F219" s="32"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="42"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="33"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="35"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="44"/>
+      <c r="F220" s="45"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="33"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="35"/>
+      <c r="B221" s="43"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="44"/>
+      <c r="F221" s="45"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="33"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="35"/>
+      <c r="B222" s="43"/>
+      <c r="C222" s="44"/>
+      <c r="D222" s="44"/>
+      <c r="E222" s="44"/>
+      <c r="F222" s="45"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="36"/>
-      <c r="C223" s="37"/>
-      <c r="D223" s="37"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="38"/>
+      <c r="B223" s="46"/>
+      <c r="C223" s="47"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="47"/>
+      <c r="F223" s="48"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10672,95 +10651,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="39"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-      <c r="F225" s="39"/>
+      <c r="C225" s="49"/>
+      <c r="D225" s="49"/>
+      <c r="E225" s="49"/>
+      <c r="F225" s="49"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="40" t="s">
+      <c r="C226" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="41"/>
-      <c r="E226" s="41"/>
-      <c r="F226" s="42"/>
+      <c r="D226" s="51"/>
+      <c r="E226" s="51"/>
+      <c r="F226" s="52"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="43" t="s">
+      <c r="C227" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="45"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="55"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="43" t="s">
+      <c r="C228" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="44"/>
-      <c r="E228" s="44"/>
-      <c r="F228" s="45"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="54"/>
+      <c r="F228" s="55"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="46" t="s">
+      <c r="C229" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="47"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="48"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="27"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="49"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="50"/>
-      <c r="F230" s="51"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="30"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="52" t="s">
+      <c r="C231" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="53"/>
-      <c r="E231" s="53"/>
-      <c r="F231" s="54"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="33"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="52" t="s">
+      <c r="C232" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="53"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="54"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="33"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="52"/>
-      <c r="C233" s="53"/>
-      <c r="D233" s="53"/>
-      <c r="E233" s="53"/>
-      <c r="F233" s="54"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="33"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10778,13 +10757,13 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="25"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
-      <c r="F235" s="26"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
+      <c r="E235" s="35"/>
+      <c r="F235" s="36"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
@@ -10906,27 +10885,27 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="55"/>
-      <c r="C243" s="56"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="57"/>
+      <c r="B243" s="56"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="58"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="27"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="29"/>
+      <c r="B244" s="37"/>
+      <c r="C244" s="38"/>
+      <c r="D244" s="38"/>
+      <c r="E244" s="38"/>
+      <c r="F244" s="39"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="24" t="s">
+      <c r="B245" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
-      <c r="F245" s="26"/>
+      <c r="C245" s="35"/>
+      <c r="D245" s="35"/>
+      <c r="E245" s="35"/>
+      <c r="F245" s="36"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
@@ -11000,50 +10979,50 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="25"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="25"/>
-      <c r="F251" s="26"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="35"/>
+      <c r="E251" s="35"/>
+      <c r="F251" s="36"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="31"/>
-      <c r="D252" s="31"/>
-      <c r="E252" s="31"/>
-      <c r="F252" s="32"/>
+      <c r="C252" s="41"/>
+      <c r="D252" s="41"/>
+      <c r="E252" s="41"/>
+      <c r="F252" s="42"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="35"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="44"/>
+      <c r="E253" s="44"/>
+      <c r="F253" s="45"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="33"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="35"/>
+      <c r="B254" s="43"/>
+      <c r="C254" s="44"/>
+      <c r="D254" s="44"/>
+      <c r="E254" s="44"/>
+      <c r="F254" s="45"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="33"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="35"/>
+      <c r="B255" s="43"/>
+      <c r="C255" s="44"/>
+      <c r="D255" s="44"/>
+      <c r="E255" s="44"/>
+      <c r="F255" s="45"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="36"/>
-      <c r="C256" s="37"/>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
-      <c r="F256" s="38"/>
+      <c r="B256" s="46"/>
+      <c r="C256" s="47"/>
+      <c r="D256" s="47"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="48"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -11053,104 +11032,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="58" t="s">
+      <c r="B258" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="39" t="s">
+      <c r="B259" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="39"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-      <c r="F259" s="39"/>
+      <c r="C259" s="49"/>
+      <c r="D259" s="49"/>
+      <c r="E259" s="49"/>
+      <c r="F259" s="49"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="40" t="s">
+      <c r="C260" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="41"/>
-      <c r="E260" s="41"/>
-      <c r="F260" s="42"/>
+      <c r="D260" s="51"/>
+      <c r="E260" s="51"/>
+      <c r="F260" s="52"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="40" t="s">
+      <c r="C261" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="41"/>
-      <c r="E261" s="41"/>
-      <c r="F261" s="42"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="52"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="43" t="s">
+      <c r="C262" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="44"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="45"/>
+      <c r="D262" s="54"/>
+      <c r="E262" s="54"/>
+      <c r="F262" s="55"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="46" t="s">
+      <c r="C263" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="47"/>
-      <c r="E263" s="47"/>
-      <c r="F263" s="48"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+      <c r="F263" s="27"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="49"/>
-      <c r="D264" s="50"/>
-      <c r="E264" s="50"/>
-      <c r="F264" s="51"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="30"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="52" t="s">
+      <c r="C265" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="53"/>
-      <c r="E265" s="53"/>
-      <c r="F265" s="54"/>
+      <c r="D265" s="32"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="33"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="53"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="54"/>
+      <c r="D266" s="32"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="33"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="52"/>
-      <c r="C267" s="53"/>
-      <c r="D267" s="53"/>
-      <c r="E267" s="53"/>
-      <c r="F267" s="54"/>
+      <c r="B267" s="31"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="33"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -11168,13 +11147,13 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B269" s="24" t="s">
+      <c r="B269" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C269" s="25"/>
-      <c r="D269" s="25"/>
-      <c r="E269" s="25"/>
-      <c r="F269" s="26"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="35"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="36"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
       <c r="B270" s="1" t="s">
@@ -11192,20 +11171,20 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="27"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="28"/>
-      <c r="E271" s="28"/>
-      <c r="F271" s="29"/>
+      <c r="B271" s="37"/>
+      <c r="C271" s="38"/>
+      <c r="D271" s="38"/>
+      <c r="E271" s="38"/>
+      <c r="F271" s="39"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="24" t="s">
+      <c r="B272" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="25"/>
-      <c r="D272" s="25"/>
-      <c r="E272" s="25"/>
-      <c r="F272" s="26"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
+      <c r="E272" s="35"/>
+      <c r="F272" s="36"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
@@ -11277,142 +11256,142 @@
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B278" s="24" t="s">
+      <c r="B278" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="25"/>
-      <c r="D278" s="25"/>
-      <c r="E278" s="25"/>
-      <c r="F278" s="26"/>
+      <c r="C278" s="35"/>
+      <c r="D278" s="35"/>
+      <c r="E278" s="35"/>
+      <c r="F278" s="36"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="31"/>
-      <c r="F279" s="32"/>
+      <c r="C279" s="41"/>
+      <c r="D279" s="41"/>
+      <c r="E279" s="41"/>
+      <c r="F279" s="42"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="33"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="35"/>
+      <c r="B280" s="43"/>
+      <c r="C280" s="44"/>
+      <c r="D280" s="44"/>
+      <c r="E280" s="44"/>
+      <c r="F280" s="45"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="33"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="35"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="44"/>
+      <c r="E281" s="44"/>
+      <c r="F281" s="45"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="34"/>
-      <c r="E282" s="34"/>
-      <c r="F282" s="35"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
+      <c r="E282" s="44"/>
+      <c r="F282" s="45"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="36"/>
-      <c r="C283" s="37"/>
-      <c r="D283" s="37"/>
-      <c r="E283" s="37"/>
-      <c r="F283" s="38"/>
-    </row>
-    <row r="284" spans="2:6" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="46"/>
+      <c r="C283" s="47"/>
+      <c r="D283" s="47"/>
+      <c r="E283" s="47"/>
+      <c r="F283" s="48"/>
+    </row>
+    <row r="284" spans="2:6" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="39" t="s">
+      <c r="B285" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="39"/>
-      <c r="D285" s="39"/>
-      <c r="E285" s="39"/>
-      <c r="F285" s="39"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="49"/>
+      <c r="E285" s="49"/>
+      <c r="F285" s="49"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="40" t="s">
+      <c r="C286" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="41"/>
-      <c r="E286" s="41"/>
-      <c r="F286" s="42"/>
+      <c r="D286" s="51"/>
+      <c r="E286" s="51"/>
+      <c r="F286" s="52"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="40" t="s">
+      <c r="C287" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="41"/>
-      <c r="E287" s="41"/>
-      <c r="F287" s="42"/>
+      <c r="D287" s="51"/>
+      <c r="E287" s="51"/>
+      <c r="F287" s="52"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="43" t="s">
+      <c r="C288" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="44"/>
-      <c r="E288" s="44"/>
-      <c r="F288" s="45"/>
+      <c r="D288" s="54"/>
+      <c r="E288" s="54"/>
+      <c r="F288" s="55"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="46" t="s">
+      <c r="C289" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="47"/>
-      <c r="E289" s="47"/>
-      <c r="F289" s="48"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="26"/>
+      <c r="F289" s="27"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="49"/>
-      <c r="D290" s="50"/>
-      <c r="E290" s="50"/>
-      <c r="F290" s="51"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="29"/>
+      <c r="E290" s="29"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="52" t="s">
+      <c r="C291" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="53"/>
-      <c r="E291" s="53"/>
-      <c r="F291" s="54"/>
+      <c r="D291" s="32"/>
+      <c r="E291" s="32"/>
+      <c r="F291" s="33"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="52" t="s">
+      <c r="C292" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="53"/>
-      <c r="E292" s="53"/>
-      <c r="F292" s="54"/>
+      <c r="D292" s="32"/>
+      <c r="E292" s="32"/>
+      <c r="F292" s="33"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="52"/>
-      <c r="C293" s="53"/>
-      <c r="D293" s="53"/>
-      <c r="E293" s="53"/>
-      <c r="F293" s="54"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="32"/>
+      <c r="D293" s="32"/>
+      <c r="E293" s="32"/>
+      <c r="F293" s="33"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -11430,13 +11409,13 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B295" s="24" t="s">
+      <c r="B295" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="25"/>
-      <c r="D295" s="25"/>
-      <c r="E295" s="25"/>
-      <c r="F295" s="26"/>
+      <c r="C295" s="35"/>
+      <c r="D295" s="35"/>
+      <c r="E295" s="35"/>
+      <c r="F295" s="36"/>
     </row>
     <row r="296" spans="2:6" ht="27.75" thickBot="1">
       <c r="B296" s="1" t="s">
@@ -11461,20 +11440,20 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="27"/>
-      <c r="C298" s="28"/>
-      <c r="D298" s="28"/>
-      <c r="E298" s="28"/>
-      <c r="F298" s="29"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="38"/>
+      <c r="D298" s="38"/>
+      <c r="E298" s="38"/>
+      <c r="F298" s="39"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B299" s="24" t="s">
+      <c r="B299" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="25"/>
-      <c r="D299" s="25"/>
-      <c r="E299" s="25"/>
-      <c r="F299" s="26"/>
+      <c r="C299" s="35"/>
+      <c r="D299" s="35"/>
+      <c r="E299" s="35"/>
+      <c r="F299" s="36"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
@@ -11546,143 +11525,143 @@
       <c r="F304" s="4"/>
     </row>
     <row r="305" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C305" s="25"/>
-      <c r="D305" s="25"/>
-      <c r="E305" s="25"/>
-      <c r="F305" s="26"/>
+      <c r="C305" s="35"/>
+      <c r="D305" s="35"/>
+      <c r="E305" s="35"/>
+      <c r="F305" s="36"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="31"/>
-      <c r="D306" s="31"/>
-      <c r="E306" s="31"/>
-      <c r="F306" s="32"/>
+      <c r="C306" s="41"/>
+      <c r="D306" s="41"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="42"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="33"/>
-      <c r="C307" s="34"/>
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="35"/>
+      <c r="B307" s="43"/>
+      <c r="C307" s="44"/>
+      <c r="D307" s="44"/>
+      <c r="E307" s="44"/>
+      <c r="F307" s="45"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="34"/>
-      <c r="E308" s="34"/>
-      <c r="F308" s="35"/>
+      <c r="B308" s="43"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="44"/>
+      <c r="E308" s="44"/>
+      <c r="F308" s="45"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="33"/>
-      <c r="C309" s="34"/>
-      <c r="D309" s="34"/>
-      <c r="E309" s="34"/>
-      <c r="F309" s="35"/>
+      <c r="B309" s="43"/>
+      <c r="C309" s="44"/>
+      <c r="D309" s="44"/>
+      <c r="E309" s="44"/>
+      <c r="F309" s="45"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="36"/>
-      <c r="C310" s="37"/>
-      <c r="D310" s="37"/>
-      <c r="E310" s="37"/>
-      <c r="F310" s="38"/>
+      <c r="B310" s="46"/>
+      <c r="C310" s="47"/>
+      <c r="D310" s="47"/>
+      <c r="E310" s="47"/>
+      <c r="F310" s="48"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="39"/>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
+      <c r="C313" s="49"/>
+      <c r="D313" s="49"/>
+      <c r="E313" s="49"/>
+      <c r="F313" s="49"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="40" t="s">
+      <c r="C314" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="41"/>
-      <c r="E314" s="41"/>
-      <c r="F314" s="42"/>
+      <c r="D314" s="51"/>
+      <c r="E314" s="51"/>
+      <c r="F314" s="52"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="40" t="s">
+      <c r="C315" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="41"/>
-      <c r="E315" s="41"/>
-      <c r="F315" s="42"/>
+      <c r="D315" s="51"/>
+      <c r="E315" s="51"/>
+      <c r="F315" s="52"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="43" t="s">
+      <c r="C316" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="44"/>
-      <c r="E316" s="44"/>
-      <c r="F316" s="45"/>
+      <c r="D316" s="54"/>
+      <c r="E316" s="54"/>
+      <c r="F316" s="55"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="46" t="s">
+      <c r="C317" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="47"/>
-      <c r="E317" s="47"/>
-      <c r="F317" s="48"/>
+      <c r="D317" s="26"/>
+      <c r="E317" s="26"/>
+      <c r="F317" s="27"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="49"/>
-      <c r="D318" s="50"/>
-      <c r="E318" s="50"/>
-      <c r="F318" s="51"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="29"/>
+      <c r="E318" s="29"/>
+      <c r="F318" s="30"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="52" t="s">
+      <c r="C319" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="53"/>
-      <c r="E319" s="53"/>
-      <c r="F319" s="54"/>
+      <c r="D319" s="32"/>
+      <c r="E319" s="32"/>
+      <c r="F319" s="33"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="52" t="s">
+      <c r="C320" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="53"/>
-      <c r="E320" s="53"/>
-      <c r="F320" s="54"/>
+      <c r="D320" s="32"/>
+      <c r="E320" s="32"/>
+      <c r="F320" s="33"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="52"/>
-      <c r="C321" s="53"/>
-      <c r="D321" s="53"/>
-      <c r="E321" s="53"/>
-      <c r="F321" s="54"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="32"/>
+      <c r="D321" s="32"/>
+      <c r="E321" s="32"/>
+      <c r="F321" s="33"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11700,13 +11679,13 @@
       </c>
     </row>
     <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B323" s="24" t="s">
+      <c r="B323" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C323" s="25"/>
-      <c r="D323" s="25"/>
-      <c r="E323" s="25"/>
-      <c r="F323" s="26"/>
+      <c r="C323" s="35"/>
+      <c r="D323" s="35"/>
+      <c r="E323" s="35"/>
+      <c r="F323" s="36"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
       <c r="B324" s="1" t="s">
@@ -11724,20 +11703,20 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="27"/>
-      <c r="C325" s="28"/>
-      <c r="D325" s="28"/>
-      <c r="E325" s="28"/>
-      <c r="F325" s="29"/>
+      <c r="B325" s="37"/>
+      <c r="C325" s="38"/>
+      <c r="D325" s="38"/>
+      <c r="E325" s="38"/>
+      <c r="F325" s="39"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B326" s="24" t="s">
+      <c r="B326" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="25"/>
-      <c r="D326" s="25"/>
-      <c r="E326" s="25"/>
-      <c r="F326" s="26"/>
+      <c r="C326" s="35"/>
+      <c r="D326" s="35"/>
+      <c r="E326" s="35"/>
+      <c r="F326" s="36"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
@@ -11809,142 +11788,142 @@
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B332" s="24" t="s">
+      <c r="B332" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="25"/>
-      <c r="D332" s="25"/>
-      <c r="E332" s="25"/>
-      <c r="F332" s="26"/>
+      <c r="C332" s="35"/>
+      <c r="D332" s="35"/>
+      <c r="E332" s="35"/>
+      <c r="F332" s="36"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="31"/>
-      <c r="D333" s="31"/>
-      <c r="E333" s="31"/>
-      <c r="F333" s="32"/>
+      <c r="C333" s="41"/>
+      <c r="D333" s="41"/>
+      <c r="E333" s="41"/>
+      <c r="F333" s="42"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="34"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="35"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44"/>
+      <c r="F334" s="45"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="33"/>
-      <c r="C335" s="34"/>
-      <c r="D335" s="34"/>
-      <c r="E335" s="34"/>
-      <c r="F335" s="35"/>
+      <c r="B335" s="43"/>
+      <c r="C335" s="44"/>
+      <c r="D335" s="44"/>
+      <c r="E335" s="44"/>
+      <c r="F335" s="45"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="33"/>
-      <c r="C336" s="34"/>
-      <c r="D336" s="34"/>
-      <c r="E336" s="34"/>
-      <c r="F336" s="35"/>
+      <c r="B336" s="43"/>
+      <c r="C336" s="44"/>
+      <c r="D336" s="44"/>
+      <c r="E336" s="44"/>
+      <c r="F336" s="45"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="36"/>
-      <c r="C337" s="37"/>
-      <c r="D337" s="37"/>
-      <c r="E337" s="37"/>
-      <c r="F337" s="38"/>
+      <c r="B337" s="46"/>
+      <c r="C337" s="47"/>
+      <c r="D337" s="47"/>
+      <c r="E337" s="47"/>
+      <c r="F337" s="48"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="39" t="s">
+      <c r="B339" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="39"/>
-      <c r="D339" s="39"/>
-      <c r="E339" s="39"/>
-      <c r="F339" s="39"/>
+      <c r="C339" s="49"/>
+      <c r="D339" s="49"/>
+      <c r="E339" s="49"/>
+      <c r="F339" s="49"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="40" t="s">
+      <c r="C340" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="41"/>
-      <c r="E340" s="41"/>
-      <c r="F340" s="42"/>
+      <c r="D340" s="51"/>
+      <c r="E340" s="51"/>
+      <c r="F340" s="52"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="40" t="s">
+      <c r="C341" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="D341" s="41"/>
-      <c r="E341" s="41"/>
-      <c r="F341" s="42"/>
+      <c r="D341" s="51"/>
+      <c r="E341" s="51"/>
+      <c r="F341" s="52"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="43" t="s">
+      <c r="C342" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="44"/>
-      <c r="E342" s="44"/>
-      <c r="F342" s="45"/>
+      <c r="D342" s="54"/>
+      <c r="E342" s="54"/>
+      <c r="F342" s="55"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="46" t="s">
+      <c r="C343" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="47"/>
-      <c r="E343" s="47"/>
-      <c r="F343" s="48"/>
+      <c r="D343" s="26"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="27"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="49"/>
-      <c r="D344" s="50"/>
-      <c r="E344" s="50"/>
-      <c r="F344" s="51"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="29"/>
+      <c r="E344" s="29"/>
+      <c r="F344" s="30"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="52" t="s">
+      <c r="C345" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="53"/>
-      <c r="E345" s="53"/>
-      <c r="F345" s="54"/>
+      <c r="D345" s="32"/>
+      <c r="E345" s="32"/>
+      <c r="F345" s="33"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="52" t="s">
+      <c r="C346" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="53"/>
-      <c r="E346" s="53"/>
-      <c r="F346" s="54"/>
+      <c r="D346" s="32"/>
+      <c r="E346" s="32"/>
+      <c r="F346" s="33"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="52"/>
-      <c r="C347" s="53"/>
-      <c r="D347" s="53"/>
-      <c r="E347" s="53"/>
-      <c r="F347" s="54"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="32"/>
+      <c r="D347" s="32"/>
+      <c r="E347" s="32"/>
+      <c r="F347" s="33"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11962,13 +11941,13 @@
       </c>
     </row>
     <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B349" s="24" t="s">
+      <c r="B349" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C349" s="25"/>
-      <c r="D349" s="25"/>
-      <c r="E349" s="25"/>
-      <c r="F349" s="26"/>
+      <c r="C349" s="35"/>
+      <c r="D349" s="35"/>
+      <c r="E349" s="35"/>
+      <c r="F349" s="36"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
@@ -12005,20 +11984,20 @@
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="27"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="28"/>
-      <c r="E352" s="28"/>
-      <c r="F352" s="29"/>
+      <c r="B352" s="37"/>
+      <c r="C352" s="38"/>
+      <c r="D352" s="38"/>
+      <c r="E352" s="38"/>
+      <c r="F352" s="39"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B353" s="24" t="s">
+      <c r="B353" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="25"/>
-      <c r="D353" s="25"/>
-      <c r="E353" s="25"/>
-      <c r="F353" s="26"/>
+      <c r="C353" s="35"/>
+      <c r="D353" s="35"/>
+      <c r="E353" s="35"/>
+      <c r="F353" s="36"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
@@ -12088,150 +12067,150 @@
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B359" s="24" t="s">
+      <c r="B359" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="25"/>
-      <c r="D359" s="25"/>
-      <c r="E359" s="25"/>
-      <c r="F359" s="26"/>
+      <c r="C359" s="35"/>
+      <c r="D359" s="35"/>
+      <c r="E359" s="35"/>
+      <c r="F359" s="36"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="30" t="s">
+      <c r="B360" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="31"/>
-      <c r="D360" s="31"/>
-      <c r="E360" s="31"/>
-      <c r="F360" s="32"/>
+      <c r="C360" s="41"/>
+      <c r="D360" s="41"/>
+      <c r="E360" s="41"/>
+      <c r="F360" s="42"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="33"/>
-      <c r="C361" s="34"/>
-      <c r="D361" s="34"/>
-      <c r="E361" s="34"/>
-      <c r="F361" s="35"/>
+      <c r="B361" s="43"/>
+      <c r="C361" s="44"/>
+      <c r="D361" s="44"/>
+      <c r="E361" s="44"/>
+      <c r="F361" s="45"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="33"/>
-      <c r="C362" s="34"/>
-      <c r="D362" s="34"/>
-      <c r="E362" s="34"/>
-      <c r="F362" s="35"/>
+      <c r="B362" s="43"/>
+      <c r="C362" s="44"/>
+      <c r="D362" s="44"/>
+      <c r="E362" s="44"/>
+      <c r="F362" s="45"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="34"/>
-      <c r="E363" s="34"/>
-      <c r="F363" s="35"/>
+      <c r="B363" s="43"/>
+      <c r="C363" s="44"/>
+      <c r="D363" s="44"/>
+      <c r="E363" s="44"/>
+      <c r="F363" s="45"/>
     </row>
     <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B364" s="36"/>
-      <c r="C364" s="37"/>
-      <c r="D364" s="37"/>
-      <c r="E364" s="37"/>
-      <c r="F364" s="38"/>
+      <c r="B364" s="46"/>
+      <c r="C364" s="47"/>
+      <c r="D364" s="47"/>
+      <c r="E364" s="47"/>
+      <c r="F364" s="48"/>
     </row>
     <row r="366" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B366" s="58" t="s">
+      <c r="B366" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C366" s="58"/>
-      <c r="D366" s="58"/>
-      <c r="E366" s="58"/>
-      <c r="F366" s="58"/>
+      <c r="C366" s="59"/>
+      <c r="D366" s="59"/>
+      <c r="E366" s="59"/>
+      <c r="F366" s="59"/>
     </row>
     <row r="367" spans="2:6" ht="21" thickBot="1">
-      <c r="B367" s="39" t="s">
+      <c r="B367" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C367" s="39"/>
-      <c r="D367" s="39"/>
-      <c r="E367" s="39"/>
-      <c r="F367" s="39"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="49"/>
+      <c r="E367" s="49"/>
+      <c r="F367" s="49"/>
     </row>
     <row r="368" spans="2:6" ht="13.5" thickBot="1">
       <c r="B368" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C368" s="40" t="s">
+      <c r="C368" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D368" s="41"/>
-      <c r="E368" s="41"/>
-      <c r="F368" s="42"/>
+      <c r="D368" s="51"/>
+      <c r="E368" s="51"/>
+      <c r="F368" s="52"/>
     </row>
     <row r="369" spans="2:6" ht="13.5" thickBot="1">
       <c r="B369" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C369" s="40" t="s">
+      <c r="C369" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D369" s="41"/>
-      <c r="E369" s="41"/>
-      <c r="F369" s="42"/>
+      <c r="D369" s="51"/>
+      <c r="E369" s="51"/>
+      <c r="F369" s="52"/>
     </row>
     <row r="370" spans="2:6" ht="13.5" thickBot="1">
       <c r="B370" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C370" s="43" t="s">
+      <c r="C370" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D370" s="44"/>
-      <c r="E370" s="44"/>
-      <c r="F370" s="45"/>
+      <c r="D370" s="54"/>
+      <c r="E370" s="54"/>
+      <c r="F370" s="55"/>
     </row>
     <row r="371" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B371" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C371" s="46" t="s">
+      <c r="C371" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D371" s="47"/>
-      <c r="E371" s="47"/>
-      <c r="F371" s="48"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="27"/>
     </row>
     <row r="372" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C372" s="49"/>
-      <c r="D372" s="50"/>
-      <c r="E372" s="50"/>
-      <c r="F372" s="51"/>
+      <c r="C372" s="28"/>
+      <c r="D372" s="29"/>
+      <c r="E372" s="29"/>
+      <c r="F372" s="30"/>
     </row>
     <row r="373" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B373" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="52" t="s">
+      <c r="C373" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D373" s="53"/>
-      <c r="E373" s="53"/>
-      <c r="F373" s="54"/>
+      <c r="D373" s="32"/>
+      <c r="E373" s="32"/>
+      <c r="F373" s="33"/>
     </row>
     <row r="374" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B374" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C374" s="52" t="s">
+      <c r="C374" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D374" s="53"/>
-      <c r="E374" s="53"/>
-      <c r="F374" s="54"/>
+      <c r="D374" s="32"/>
+      <c r="E374" s="32"/>
+      <c r="F374" s="33"/>
     </row>
     <row r="375" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B375" s="52"/>
-      <c r="C375" s="53"/>
-      <c r="D375" s="53"/>
-      <c r="E375" s="53"/>
-      <c r="F375" s="54"/>
+      <c r="B375" s="31"/>
+      <c r="C375" s="32"/>
+      <c r="D375" s="32"/>
+      <c r="E375" s="32"/>
+      <c r="F375" s="33"/>
     </row>
     <row r="376" spans="2:6" ht="13.5" thickBot="1">
       <c r="B376" s="7" t="s">
@@ -12249,13 +12228,13 @@
       </c>
     </row>
     <row r="377" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B377" s="24" t="s">
+      <c r="B377" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C377" s="25"/>
-      <c r="D377" s="25"/>
-      <c r="E377" s="25"/>
-      <c r="F377" s="26"/>
+      <c r="C377" s="35"/>
+      <c r="D377" s="35"/>
+      <c r="E377" s="35"/>
+      <c r="F377" s="36"/>
     </row>
     <row r="378" spans="2:6" ht="14.25" thickBot="1">
       <c r="B378" s="1" t="s">
@@ -12267,8 +12246,8 @@
       <c r="D378" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E378" s="63" t="s">
-        <v>227</v>
+      <c r="E378" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="F378" s="9" t="s">
         <v>223</v>
@@ -12282,20 +12261,20 @@
       <c r="F379" s="9"/>
     </row>
     <row r="380" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B380" s="27"/>
-      <c r="C380" s="28"/>
-      <c r="D380" s="28"/>
-      <c r="E380" s="28"/>
-      <c r="F380" s="29"/>
+      <c r="B380" s="37"/>
+      <c r="C380" s="38"/>
+      <c r="D380" s="38"/>
+      <c r="E380" s="38"/>
+      <c r="F380" s="39"/>
     </row>
     <row r="381" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B381" s="24" t="s">
+      <c r="B381" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C381" s="25"/>
-      <c r="D381" s="25"/>
-      <c r="E381" s="25"/>
-      <c r="F381" s="26"/>
+      <c r="C381" s="35"/>
+      <c r="D381" s="35"/>
+      <c r="E381" s="35"/>
+      <c r="F381" s="36"/>
     </row>
     <row r="382" spans="2:6" ht="14.25" thickBot="1">
       <c r="B382" s="1" t="s">
@@ -12365,142 +12344,142 @@
       <c r="F386" s="4"/>
     </row>
     <row r="387" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B387" s="24" t="s">
+      <c r="B387" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C387" s="25"/>
-      <c r="D387" s="25"/>
-      <c r="E387" s="25"/>
-      <c r="F387" s="26"/>
+      <c r="C387" s="35"/>
+      <c r="D387" s="35"/>
+      <c r="E387" s="35"/>
+      <c r="F387" s="36"/>
     </row>
     <row r="388" spans="2:6">
-      <c r="B388" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C388" s="31"/>
-      <c r="D388" s="31"/>
-      <c r="E388" s="31"/>
-      <c r="F388" s="32"/>
+      <c r="B388" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C388" s="41"/>
+      <c r="D388" s="41"/>
+      <c r="E388" s="41"/>
+      <c r="F388" s="42"/>
     </row>
     <row r="389" spans="2:6">
-      <c r="B389" s="33"/>
-      <c r="C389" s="34"/>
-      <c r="D389" s="34"/>
-      <c r="E389" s="34"/>
-      <c r="F389" s="35"/>
+      <c r="B389" s="43"/>
+      <c r="C389" s="44"/>
+      <c r="D389" s="44"/>
+      <c r="E389" s="44"/>
+      <c r="F389" s="45"/>
     </row>
     <row r="390" spans="2:6">
-      <c r="B390" s="33"/>
-      <c r="C390" s="34"/>
-      <c r="D390" s="34"/>
-      <c r="E390" s="34"/>
-      <c r="F390" s="35"/>
+      <c r="B390" s="43"/>
+      <c r="C390" s="44"/>
+      <c r="D390" s="44"/>
+      <c r="E390" s="44"/>
+      <c r="F390" s="45"/>
     </row>
     <row r="391" spans="2:6">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="34"/>
-      <c r="E391" s="34"/>
-      <c r="F391" s="35"/>
+      <c r="B391" s="43"/>
+      <c r="C391" s="44"/>
+      <c r="D391" s="44"/>
+      <c r="E391" s="44"/>
+      <c r="F391" s="45"/>
     </row>
     <row r="392" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B392" s="36"/>
-      <c r="C392" s="37"/>
-      <c r="D392" s="37"/>
-      <c r="E392" s="37"/>
-      <c r="F392" s="38"/>
+      <c r="B392" s="46"/>
+      <c r="C392" s="47"/>
+      <c r="D392" s="47"/>
+      <c r="E392" s="47"/>
+      <c r="F392" s="48"/>
     </row>
     <row r="393" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="394" spans="2:6" ht="21" thickBot="1">
-      <c r="B394" s="39" t="s">
+      <c r="B394" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C394" s="39"/>
-      <c r="D394" s="39"/>
-      <c r="E394" s="39"/>
-      <c r="F394" s="39"/>
+      <c r="C394" s="49"/>
+      <c r="D394" s="49"/>
+      <c r="E394" s="49"/>
+      <c r="F394" s="49"/>
     </row>
     <row r="395" spans="2:6" ht="13.5" thickBot="1">
       <c r="B395" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C395" s="40" t="s">
+      <c r="C395" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D395" s="41"/>
-      <c r="E395" s="41"/>
-      <c r="F395" s="42"/>
+      <c r="D395" s="51"/>
+      <c r="E395" s="51"/>
+      <c r="F395" s="52"/>
     </row>
     <row r="396" spans="2:6" ht="13.5" thickBot="1">
       <c r="B396" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C396" s="40" t="s">
+      <c r="C396" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D396" s="41"/>
-      <c r="E396" s="41"/>
-      <c r="F396" s="42"/>
+      <c r="D396" s="51"/>
+      <c r="E396" s="51"/>
+      <c r="F396" s="52"/>
     </row>
     <row r="397" spans="2:6" ht="13.5" thickBot="1">
       <c r="B397" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C397" s="43" t="s">
+      <c r="C397" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D397" s="44"/>
-      <c r="E397" s="44"/>
-      <c r="F397" s="45"/>
+      <c r="D397" s="54"/>
+      <c r="E397" s="54"/>
+      <c r="F397" s="55"/>
     </row>
     <row r="398" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B398" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C398" s="46" t="s">
+      <c r="C398" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D398" s="47"/>
-      <c r="E398" s="47"/>
-      <c r="F398" s="48"/>
+      <c r="D398" s="26"/>
+      <c r="E398" s="26"/>
+      <c r="F398" s="27"/>
     </row>
     <row r="399" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B399" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C399" s="49"/>
-      <c r="D399" s="50"/>
-      <c r="E399" s="50"/>
-      <c r="F399" s="51"/>
+      <c r="C399" s="28"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="29"/>
+      <c r="F399" s="30"/>
     </row>
     <row r="400" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B400" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C400" s="52" t="s">
+      <c r="C400" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D400" s="53"/>
-      <c r="E400" s="53"/>
-      <c r="F400" s="54"/>
+      <c r="D400" s="32"/>
+      <c r="E400" s="32"/>
+      <c r="F400" s="33"/>
     </row>
     <row r="401" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B401" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C401" s="52" t="s">
+      <c r="C401" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D401" s="53"/>
-      <c r="E401" s="53"/>
-      <c r="F401" s="54"/>
+      <c r="D401" s="32"/>
+      <c r="E401" s="32"/>
+      <c r="F401" s="33"/>
     </row>
     <row r="402" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B402" s="52"/>
-      <c r="C402" s="53"/>
-      <c r="D402" s="53"/>
-      <c r="E402" s="53"/>
-      <c r="F402" s="54"/>
+      <c r="B402" s="31"/>
+      <c r="C402" s="32"/>
+      <c r="D402" s="32"/>
+      <c r="E402" s="32"/>
+      <c r="F402" s="33"/>
     </row>
     <row r="403" spans="2:6" ht="13.5" thickBot="1">
       <c r="B403" s="7" t="s">
@@ -12518,29 +12497,29 @@
       </c>
     </row>
     <row r="404" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B404" s="24" t="s">
+      <c r="B404" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C404" s="25"/>
-      <c r="D404" s="25"/>
-      <c r="E404" s="25"/>
-      <c r="F404" s="26"/>
+      <c r="C404" s="35"/>
+      <c r="D404" s="35"/>
+      <c r="E404" s="35"/>
+      <c r="F404" s="36"/>
     </row>
     <row r="405" spans="2:6" ht="14.25" thickBot="1">
       <c r="B405" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C405" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="C405" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E405" s="63" t="s">
+      <c r="E405" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F405" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="F405" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="406" spans="2:6" ht="14.25" thickBot="1">
@@ -12551,20 +12530,20 @@
       <c r="F406" s="9"/>
     </row>
     <row r="407" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B407" s="27"/>
-      <c r="C407" s="28"/>
-      <c r="D407" s="28"/>
-      <c r="E407" s="28"/>
-      <c r="F407" s="29"/>
+      <c r="B407" s="37"/>
+      <c r="C407" s="38"/>
+      <c r="D407" s="38"/>
+      <c r="E407" s="38"/>
+      <c r="F407" s="39"/>
     </row>
     <row r="408" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B408" s="24" t="s">
+      <c r="B408" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C408" s="25"/>
-      <c r="D408" s="25"/>
-      <c r="E408" s="25"/>
-      <c r="F408" s="26"/>
+      <c r="C408" s="35"/>
+      <c r="D408" s="35"/>
+      <c r="E408" s="35"/>
+      <c r="F408" s="36"/>
     </row>
     <row r="409" spans="2:6" ht="14.25" thickBot="1">
       <c r="B409" s="1" t="s">
@@ -12634,50 +12613,50 @@
       <c r="F413" s="4"/>
     </row>
     <row r="414" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B414" s="24" t="s">
+      <c r="B414" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C414" s="25"/>
-      <c r="D414" s="25"/>
-      <c r="E414" s="25"/>
-      <c r="F414" s="26"/>
+      <c r="C414" s="35"/>
+      <c r="D414" s="35"/>
+      <c r="E414" s="35"/>
+      <c r="F414" s="36"/>
     </row>
     <row r="415" spans="2:6">
-      <c r="B415" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C415" s="31"/>
-      <c r="D415" s="31"/>
-      <c r="E415" s="31"/>
-      <c r="F415" s="32"/>
+      <c r="B415" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C415" s="41"/>
+      <c r="D415" s="41"/>
+      <c r="E415" s="41"/>
+      <c r="F415" s="42"/>
     </row>
     <row r="416" spans="2:6">
-      <c r="B416" s="33"/>
-      <c r="C416" s="34"/>
-      <c r="D416" s="34"/>
-      <c r="E416" s="34"/>
-      <c r="F416" s="35"/>
+      <c r="B416" s="43"/>
+      <c r="C416" s="44"/>
+      <c r="D416" s="44"/>
+      <c r="E416" s="44"/>
+      <c r="F416" s="45"/>
     </row>
     <row r="417" spans="2:6">
-      <c r="B417" s="33"/>
-      <c r="C417" s="34"/>
-      <c r="D417" s="34"/>
-      <c r="E417" s="34"/>
-      <c r="F417" s="35"/>
+      <c r="B417" s="43"/>
+      <c r="C417" s="44"/>
+      <c r="D417" s="44"/>
+      <c r="E417" s="44"/>
+      <c r="F417" s="45"/>
     </row>
     <row r="418" spans="2:6">
-      <c r="B418" s="33"/>
-      <c r="C418" s="34"/>
-      <c r="D418" s="34"/>
-      <c r="E418" s="34"/>
-      <c r="F418" s="35"/>
+      <c r="B418" s="43"/>
+      <c r="C418" s="44"/>
+      <c r="D418" s="44"/>
+      <c r="E418" s="44"/>
+      <c r="F418" s="45"/>
     </row>
     <row r="419" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B419" s="36"/>
-      <c r="C419" s="37"/>
-      <c r="D419" s="37"/>
-      <c r="E419" s="37"/>
-      <c r="F419" s="38"/>
+      <c r="B419" s="46"/>
+      <c r="C419" s="47"/>
+      <c r="D419" s="47"/>
+      <c r="E419" s="47"/>
+      <c r="F419" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="219">
@@ -12696,6 +12675,15 @@
     <mergeCell ref="C399:F399"/>
     <mergeCell ref="C400:F400"/>
     <mergeCell ref="C401:F401"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F392"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
     <mergeCell ref="B235:F235"/>
     <mergeCell ref="B243:F243"/>
     <mergeCell ref="B244:F244"/>
@@ -12872,11 +12860,6 @@
     <mergeCell ref="B293:F293"/>
     <mergeCell ref="B295:F295"/>
     <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
     <mergeCell ref="B339:F339"/>
     <mergeCell ref="C340:F340"/>
     <mergeCell ref="C341:F341"/>
@@ -12886,20 +12869,16 @@
     <mergeCell ref="C345:F345"/>
     <mergeCell ref="C346:F346"/>
     <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F392"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
     <mergeCell ref="C371:F371"/>
     <mergeCell ref="C372:F372"/>
     <mergeCell ref="C373:F373"/>
     <mergeCell ref="C374:F374"/>
     <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="235">
   <si>
     <t>服务地址</t>
   </si>
@@ -6400,6 +6400,48 @@
 code: 0
 }</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研报索引删除</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/del/reports/ids?ids=AP201609060017504111,AP201609060017504111</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.250.207:8999/es/del/reports/ids?ids=AP201609060017504111,AP201609060017504111</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ids</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://localhost:8999/es/del/reports/ids?ids=AP201609060017504111,AP201609060017504111
+{
+costMillisecond: 1086,
+costSecond: 1.086,
+data: true,
+msg: "sucsess",
+code: 0
+}
+</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6968,24 +7010,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7040,6 +7064,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7061,6 +7088,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7070,20 +7115,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8382,10 +8424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F419"/>
+  <dimension ref="B2:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B363" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367:F367"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385:F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8398,113 +8440,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8522,13 +8564,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -8546,27 +8588,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -8640,148 +8682,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8799,13 +8841,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -8887,73 +8929,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="45"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -8973,95 +9015,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="55"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="56"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -9079,13 +9121,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -9135,20 +9177,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="56"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="58"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="36"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -9222,50 +9264,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="36"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="36"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="43"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="45"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="43"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="45"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="45"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="48"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -9285,95 +9327,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="47"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="27"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="53"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="56"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="33"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="33"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="33"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -9391,13 +9433,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="36"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -9434,20 +9476,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="56"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="58"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="59"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="36"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -9519,50 +9561,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="36"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="42"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="43"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="45"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="39"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="43"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="45"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="43"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="45"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="46"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="48"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9582,95 +9624,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="50" t="s">
+      <c r="C121" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="52"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="47"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="50" t="s">
+      <c r="C122" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="52"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="47"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="55"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="50"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="27"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="53"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="28"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="30"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="56"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="33"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="33"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="31"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="33"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9688,29 +9730,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="36"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="30"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="56"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="58"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="59"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="36"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="30"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -9782,50 +9824,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="36"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="30"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="41"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="42"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="36"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="43"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="45"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="39"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="43"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="45"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="39"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="43"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="45"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="39"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="46"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="48"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9845,95 +9887,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="49"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="50" t="s">
+      <c r="C148" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="52"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="47"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="50" t="s">
+      <c r="C149" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="52"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="47"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="53" t="s">
+      <c r="C150" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="55"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="50"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="27"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="53"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="56"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="33"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="27"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="33"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="27"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="31"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="33"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9951,29 +9993,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="36"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="30"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="56"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="58"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="59"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="36"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -10045,50 +10087,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="36"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="30"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="62" t="s">
+      <c r="B166" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="41"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="42"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="36"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="43"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="45"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="39"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="43"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="45"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="39"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="43"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="44"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="45"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="39"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="46"/>
-      <c r="C170" s="47"/>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="48"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="42"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -10098,95 +10140,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="49" t="s">
+      <c r="B172" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="44"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="51"/>
-      <c r="E173" s="51"/>
-      <c r="F173" s="52"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="47"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="50" t="s">
+      <c r="C174" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="51"/>
-      <c r="E174" s="51"/>
-      <c r="F174" s="52"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="47"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="53" t="s">
+      <c r="C175" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="55"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="49"/>
+      <c r="F175" s="50"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="27"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="53"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="28"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="56"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="31" t="s">
+      <c r="C178" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="33"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="27"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="31" t="s">
+      <c r="C179" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="33"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="31"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="33"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -10204,13 +10246,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="36"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -10228,20 +10270,20 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="56"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="58"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="59"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="36"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="30"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -10313,50 +10355,50 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="36"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="30"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="41"/>
-      <c r="D192" s="41"/>
-      <c r="E192" s="41"/>
-      <c r="F192" s="42"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="36"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="43"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="44"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="45"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="39"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="43"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="44"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="45"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="39"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="43"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="45"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="39"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="46"/>
-      <c r="C196" s="47"/>
-      <c r="D196" s="47"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="48"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="41"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="41"/>
+      <c r="F196" s="42"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -10366,95 +10408,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="49" t="s">
+      <c r="B198" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="49"/>
-      <c r="D198" s="49"/>
-      <c r="E198" s="49"/>
-      <c r="F198" s="49"/>
+      <c r="C198" s="44"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44"/>
+      <c r="F198" s="44"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="50" t="s">
+      <c r="C199" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="51"/>
-      <c r="E199" s="51"/>
-      <c r="F199" s="52"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="47"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="50" t="s">
+      <c r="C200" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="51"/>
-      <c r="E200" s="51"/>
-      <c r="F200" s="52"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="47"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="53" t="s">
+      <c r="C201" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="55"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="50"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="27"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="53"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="28"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="30"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="56"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="31" t="s">
+      <c r="C204" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="33"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="27"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="31" t="s">
+      <c r="C205" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="33"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="27"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="31"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="33"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="27"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10472,13 +10514,13 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="34" t="s">
+      <c r="B208" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="36"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="30"/>
     </row>
     <row r="209" spans="2:6" ht="14.25" thickBot="1">
       <c r="B209" s="20" t="s">
@@ -10513,20 +10555,20 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="56"/>
-      <c r="C211" s="57"/>
-      <c r="D211" s="57"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="58"/>
+      <c r="B211" s="57"/>
+      <c r="C211" s="58"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="59"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B212" s="34" t="s">
+      <c r="B212" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="35"/>
-      <c r="F212" s="36"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="30"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -10598,50 +10640,50 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="36"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
+      <c r="F218" s="30"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="62" t="s">
+      <c r="B219" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="41"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="41"/>
-      <c r="F219" s="42"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="35"/>
+      <c r="F219" s="36"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="43"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="44"/>
-      <c r="E220" s="44"/>
-      <c r="F220" s="45"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="39"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="43"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="44"/>
-      <c r="E221" s="44"/>
-      <c r="F221" s="45"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="39"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="43"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="44"/>
-      <c r="E222" s="44"/>
-      <c r="F222" s="45"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="39"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="46"/>
-      <c r="C223" s="47"/>
-      <c r="D223" s="47"/>
-      <c r="E223" s="47"/>
-      <c r="F223" s="48"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="42"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10651,95 +10693,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="49" t="s">
+      <c r="B225" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
+      <c r="C225" s="44"/>
+      <c r="D225" s="44"/>
+      <c r="E225" s="44"/>
+      <c r="F225" s="44"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="50" t="s">
+      <c r="C226" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="51"/>
-      <c r="E226" s="51"/>
-      <c r="F226" s="52"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="47"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="53" t="s">
+      <c r="C227" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="55"/>
+      <c r="D227" s="49"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="50"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="53" t="s">
+      <c r="C228" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="54"/>
-      <c r="E228" s="54"/>
-      <c r="F228" s="55"/>
+      <c r="D228" s="49"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="50"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="27"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="53"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="30"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="55"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="56"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="31" t="s">
+      <c r="C231" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="33"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="27"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="31" t="s">
+      <c r="C232" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="33"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="27"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="31"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="33"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" s="27"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10757,13 +10799,13 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="35"/>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="36"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="30"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
@@ -10885,27 +10927,27 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="56"/>
-      <c r="C243" s="57"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="57"/>
-      <c r="F243" s="58"/>
+      <c r="B243" s="57"/>
+      <c r="C243" s="58"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="59"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="37"/>
-      <c r="C244" s="38"/>
-      <c r="D244" s="38"/>
-      <c r="E244" s="38"/>
-      <c r="F244" s="39"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="33"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="34" t="s">
+      <c r="B245" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="35"/>
-      <c r="D245" s="35"/>
-      <c r="E245" s="35"/>
-      <c r="F245" s="36"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="30"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
@@ -10979,50 +11021,50 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B251" s="34" t="s">
+      <c r="B251" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="35"/>
-      <c r="D251" s="35"/>
-      <c r="E251" s="35"/>
-      <c r="F251" s="36"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="30"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="40" t="s">
+      <c r="B252" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="41"/>
-      <c r="D252" s="41"/>
-      <c r="E252" s="41"/>
-      <c r="F252" s="42"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="35"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="36"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="43"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="44"/>
-      <c r="E253" s="44"/>
-      <c r="F253" s="45"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="38"/>
+      <c r="D253" s="38"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="39"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="43"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="44"/>
-      <c r="E254" s="44"/>
-      <c r="F254" s="45"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="38"/>
+      <c r="D254" s="38"/>
+      <c r="E254" s="38"/>
+      <c r="F254" s="39"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="43"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="44"/>
-      <c r="E255" s="44"/>
-      <c r="F255" s="45"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38"/>
+      <c r="E255" s="38"/>
+      <c r="F255" s="39"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="46"/>
-      <c r="C256" s="47"/>
-      <c r="D256" s="47"/>
-      <c r="E256" s="47"/>
-      <c r="F256" s="48"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="42"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -11032,104 +11074,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="59"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
+      <c r="C258" s="43"/>
+      <c r="D258" s="43"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="49" t="s">
+      <c r="B259" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="49"/>
-      <c r="D259" s="49"/>
-      <c r="E259" s="49"/>
-      <c r="F259" s="49"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44"/>
+      <c r="F259" s="44"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="50" t="s">
+      <c r="C260" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="51"/>
-      <c r="E260" s="51"/>
-      <c r="F260" s="52"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="46"/>
+      <c r="F260" s="47"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="50" t="s">
+      <c r="C261" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="51"/>
-      <c r="E261" s="51"/>
-      <c r="F261" s="52"/>
+      <c r="D261" s="46"/>
+      <c r="E261" s="46"/>
+      <c r="F261" s="47"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="53" t="s">
+      <c r="C262" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="54"/>
-      <c r="E262" s="54"/>
-      <c r="F262" s="55"/>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="50"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="25" t="s">
+      <c r="C263" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-      <c r="F263" s="27"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="53"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="28"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="30"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="56"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="32"/>
-      <c r="E265" s="32"/>
-      <c r="F265" s="33"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="27"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="31" t="s">
+      <c r="C266" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="32"/>
-      <c r="E266" s="32"/>
-      <c r="F266" s="33"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="27"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="31"/>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="33"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="27"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -11147,13 +11189,13 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B269" s="34" t="s">
+      <c r="B269" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C269" s="35"/>
-      <c r="D269" s="35"/>
-      <c r="E269" s="35"/>
-      <c r="F269" s="36"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="30"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
       <c r="B270" s="1" t="s">
@@ -11171,20 +11213,20 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="37"/>
-      <c r="C271" s="38"/>
-      <c r="D271" s="38"/>
-      <c r="E271" s="38"/>
-      <c r="F271" s="39"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="33"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="34" t="s">
+      <c r="B272" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="35"/>
-      <c r="D272" s="35"/>
-      <c r="E272" s="35"/>
-      <c r="F272" s="36"/>
+      <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
+      <c r="E272" s="29"/>
+      <c r="F272" s="30"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
@@ -11256,142 +11298,142 @@
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B278" s="34" t="s">
+      <c r="B278" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="35"/>
-      <c r="D278" s="35"/>
-      <c r="E278" s="35"/>
-      <c r="F278" s="36"/>
+      <c r="C278" s="29"/>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29"/>
+      <c r="F278" s="30"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="40" t="s">
+      <c r="B279" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="41"/>
-      <c r="D279" s="41"/>
-      <c r="E279" s="41"/>
-      <c r="F279" s="42"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="35"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="36"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="43"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="44"/>
-      <c r="E280" s="44"/>
-      <c r="F280" s="45"/>
+      <c r="B280" s="37"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38"/>
+      <c r="E280" s="38"/>
+      <c r="F280" s="39"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="43"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44"/>
-      <c r="F281" s="45"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38"/>
+      <c r="E281" s="38"/>
+      <c r="F281" s="39"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="43"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="44"/>
-      <c r="F282" s="45"/>
+      <c r="B282" s="37"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
+      <c r="F282" s="39"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="46"/>
-      <c r="C283" s="47"/>
-      <c r="D283" s="47"/>
-      <c r="E283" s="47"/>
-      <c r="F283" s="48"/>
-    </row>
-    <row r="284" spans="2:6" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="41"/>
+      <c r="D283" s="41"/>
+      <c r="E283" s="41"/>
+      <c r="F283" s="42"/>
+    </row>
+    <row r="284" spans="2:6" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="49" t="s">
+      <c r="B285" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="49"/>
-      <c r="D285" s="49"/>
-      <c r="E285" s="49"/>
-      <c r="F285" s="49"/>
+      <c r="C285" s="44"/>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44"/>
+      <c r="F285" s="44"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="50" t="s">
+      <c r="C286" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="51"/>
-      <c r="E286" s="51"/>
-      <c r="F286" s="52"/>
+      <c r="D286" s="46"/>
+      <c r="E286" s="46"/>
+      <c r="F286" s="47"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="50" t="s">
+      <c r="C287" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="51"/>
-      <c r="E287" s="51"/>
-      <c r="F287" s="52"/>
+      <c r="D287" s="46"/>
+      <c r="E287" s="46"/>
+      <c r="F287" s="47"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="53" t="s">
+      <c r="C288" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="54"/>
-      <c r="E288" s="54"/>
-      <c r="F288" s="55"/>
+      <c r="D288" s="49"/>
+      <c r="E288" s="49"/>
+      <c r="F288" s="50"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="C289" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="26"/>
-      <c r="E289" s="26"/>
-      <c r="F289" s="27"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="53"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="28"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="29"/>
-      <c r="F290" s="30"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="56"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="31" t="s">
+      <c r="C291" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="32"/>
-      <c r="E291" s="32"/>
-      <c r="F291" s="33"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="27"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="31" t="s">
+      <c r="C292" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="32"/>
-      <c r="E292" s="32"/>
-      <c r="F292" s="33"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="27"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="31"/>
-      <c r="C293" s="32"/>
-      <c r="D293" s="32"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="33"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" s="27"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -11409,13 +11451,13 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B295" s="34" t="s">
+      <c r="B295" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="35"/>
-      <c r="D295" s="35"/>
-      <c r="E295" s="35"/>
-      <c r="F295" s="36"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="29"/>
+      <c r="F295" s="30"/>
     </row>
     <row r="296" spans="2:6" ht="27.75" thickBot="1">
       <c r="B296" s="1" t="s">
@@ -11440,20 +11482,20 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="37"/>
-      <c r="C298" s="38"/>
-      <c r="D298" s="38"/>
-      <c r="E298" s="38"/>
-      <c r="F298" s="39"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="32"/>
+      <c r="D298" s="32"/>
+      <c r="E298" s="32"/>
+      <c r="F298" s="33"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B299" s="34" t="s">
+      <c r="B299" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="35"/>
-      <c r="D299" s="35"/>
-      <c r="E299" s="35"/>
-      <c r="F299" s="36"/>
+      <c r="C299" s="29"/>
+      <c r="D299" s="29"/>
+      <c r="E299" s="29"/>
+      <c r="F299" s="30"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
@@ -11525,143 +11567,143 @@
       <c r="F304" s="4"/>
     </row>
     <row r="305" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B305" s="34" t="s">
+      <c r="B305" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C305" s="35"/>
-      <c r="D305" s="35"/>
-      <c r="E305" s="35"/>
-      <c r="F305" s="36"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="29"/>
+      <c r="F305" s="30"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="40" t="s">
+      <c r="B306" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="41"/>
-      <c r="D306" s="41"/>
-      <c r="E306" s="41"/>
-      <c r="F306" s="42"/>
+      <c r="C306" s="35"/>
+      <c r="D306" s="35"/>
+      <c r="E306" s="35"/>
+      <c r="F306" s="36"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="43"/>
-      <c r="C307" s="44"/>
-      <c r="D307" s="44"/>
-      <c r="E307" s="44"/>
-      <c r="F307" s="45"/>
+      <c r="B307" s="37"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="38"/>
+      <c r="E307" s="38"/>
+      <c r="F307" s="39"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="43"/>
-      <c r="C308" s="44"/>
-      <c r="D308" s="44"/>
-      <c r="E308" s="44"/>
-      <c r="F308" s="45"/>
+      <c r="B308" s="37"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="38"/>
+      <c r="E308" s="38"/>
+      <c r="F308" s="39"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="43"/>
-      <c r="C309" s="44"/>
-      <c r="D309" s="44"/>
-      <c r="E309" s="44"/>
-      <c r="F309" s="45"/>
+      <c r="B309" s="37"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="38"/>
+      <c r="E309" s="38"/>
+      <c r="F309" s="39"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="46"/>
-      <c r="C310" s="47"/>
-      <c r="D310" s="47"/>
-      <c r="E310" s="47"/>
-      <c r="F310" s="48"/>
+      <c r="B310" s="40"/>
+      <c r="C310" s="41"/>
+      <c r="D310" s="41"/>
+      <c r="E310" s="41"/>
+      <c r="F310" s="42"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="49" t="s">
+      <c r="B313" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="49"/>
-      <c r="D313" s="49"/>
-      <c r="E313" s="49"/>
-      <c r="F313" s="49"/>
+      <c r="C313" s="44"/>
+      <c r="D313" s="44"/>
+      <c r="E313" s="44"/>
+      <c r="F313" s="44"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="50" t="s">
+      <c r="C314" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="51"/>
-      <c r="E314" s="51"/>
-      <c r="F314" s="52"/>
+      <c r="D314" s="46"/>
+      <c r="E314" s="46"/>
+      <c r="F314" s="47"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="50" t="s">
+      <c r="C315" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="51"/>
-      <c r="E315" s="51"/>
-      <c r="F315" s="52"/>
+      <c r="D315" s="46"/>
+      <c r="E315" s="46"/>
+      <c r="F315" s="47"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="53" t="s">
+      <c r="C316" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="54"/>
-      <c r="E316" s="54"/>
-      <c r="F316" s="55"/>
+      <c r="D316" s="49"/>
+      <c r="E316" s="49"/>
+      <c r="F316" s="50"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="25" t="s">
+      <c r="C317" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="26"/>
-      <c r="E317" s="26"/>
-      <c r="F317" s="27"/>
+      <c r="D317" s="52"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="28"/>
-      <c r="D318" s="29"/>
-      <c r="E318" s="29"/>
-      <c r="F318" s="30"/>
+      <c r="C318" s="54"/>
+      <c r="D318" s="55"/>
+      <c r="E318" s="55"/>
+      <c r="F318" s="56"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="31" t="s">
+      <c r="C319" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="32"/>
-      <c r="E319" s="32"/>
-      <c r="F319" s="33"/>
+      <c r="D319" s="26"/>
+      <c r="E319" s="26"/>
+      <c r="F319" s="27"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="31" t="s">
+      <c r="C320" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="32"/>
-      <c r="E320" s="32"/>
-      <c r="F320" s="33"/>
+      <c r="D320" s="26"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="27"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="31"/>
-      <c r="C321" s="32"/>
-      <c r="D321" s="32"/>
-      <c r="E321" s="32"/>
-      <c r="F321" s="33"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
+      <c r="F321" s="27"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11679,13 +11721,13 @@
       </c>
     </row>
     <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B323" s="34" t="s">
+      <c r="B323" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C323" s="35"/>
-      <c r="D323" s="35"/>
-      <c r="E323" s="35"/>
-      <c r="F323" s="36"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
+      <c r="E323" s="29"/>
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
       <c r="B324" s="1" t="s">
@@ -11703,20 +11745,20 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="37"/>
-      <c r="C325" s="38"/>
-      <c r="D325" s="38"/>
-      <c r="E325" s="38"/>
-      <c r="F325" s="39"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="32"/>
+      <c r="E325" s="32"/>
+      <c r="F325" s="33"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B326" s="34" t="s">
+      <c r="B326" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="35"/>
-      <c r="D326" s="35"/>
-      <c r="E326" s="35"/>
-      <c r="F326" s="36"/>
+      <c r="C326" s="29"/>
+      <c r="D326" s="29"/>
+      <c r="E326" s="29"/>
+      <c r="F326" s="30"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
@@ -11788,142 +11830,142 @@
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B332" s="34" t="s">
+      <c r="B332" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="35"/>
-      <c r="D332" s="35"/>
-      <c r="E332" s="35"/>
-      <c r="F332" s="36"/>
+      <c r="C332" s="29"/>
+      <c r="D332" s="29"/>
+      <c r="E332" s="29"/>
+      <c r="F332" s="30"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="40" t="s">
+      <c r="B333" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="41"/>
-      <c r="D333" s="41"/>
-      <c r="E333" s="41"/>
-      <c r="F333" s="42"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="35"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="36"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="43"/>
-      <c r="C334" s="44"/>
-      <c r="D334" s="44"/>
-      <c r="E334" s="44"/>
-      <c r="F334" s="45"/>
+      <c r="B334" s="37"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="39"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="43"/>
-      <c r="C335" s="44"/>
-      <c r="D335" s="44"/>
-      <c r="E335" s="44"/>
-      <c r="F335" s="45"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="38"/>
+      <c r="E335" s="38"/>
+      <c r="F335" s="39"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="43"/>
-      <c r="C336" s="44"/>
-      <c r="D336" s="44"/>
-      <c r="E336" s="44"/>
-      <c r="F336" s="45"/>
+      <c r="B336" s="37"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="38"/>
+      <c r="E336" s="38"/>
+      <c r="F336" s="39"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="46"/>
-      <c r="C337" s="47"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="47"/>
-      <c r="F337" s="48"/>
+      <c r="B337" s="40"/>
+      <c r="C337" s="41"/>
+      <c r="D337" s="41"/>
+      <c r="E337" s="41"/>
+      <c r="F337" s="42"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="49" t="s">
+      <c r="B339" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="49"/>
-      <c r="D339" s="49"/>
-      <c r="E339" s="49"/>
-      <c r="F339" s="49"/>
+      <c r="C339" s="44"/>
+      <c r="D339" s="44"/>
+      <c r="E339" s="44"/>
+      <c r="F339" s="44"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="50" t="s">
+      <c r="C340" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="51"/>
-      <c r="E340" s="51"/>
-      <c r="F340" s="52"/>
+      <c r="D340" s="46"/>
+      <c r="E340" s="46"/>
+      <c r="F340" s="47"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="50" t="s">
+      <c r="C341" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D341" s="51"/>
-      <c r="E341" s="51"/>
-      <c r="F341" s="52"/>
+      <c r="D341" s="46"/>
+      <c r="E341" s="46"/>
+      <c r="F341" s="47"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="53" t="s">
+      <c r="C342" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="54"/>
-      <c r="E342" s="54"/>
-      <c r="F342" s="55"/>
+      <c r="D342" s="49"/>
+      <c r="E342" s="49"/>
+      <c r="F342" s="50"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="25" t="s">
+      <c r="C343" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="26"/>
-      <c r="E343" s="26"/>
-      <c r="F343" s="27"/>
+      <c r="D343" s="52"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="53"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="28"/>
-      <c r="D344" s="29"/>
-      <c r="E344" s="29"/>
-      <c r="F344" s="30"/>
+      <c r="C344" s="54"/>
+      <c r="D344" s="55"/>
+      <c r="E344" s="55"/>
+      <c r="F344" s="56"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="31" t="s">
+      <c r="C345" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="32"/>
-      <c r="E345" s="32"/>
-      <c r="F345" s="33"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="27"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="31" t="s">
+      <c r="C346" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="32"/>
-      <c r="E346" s="32"/>
-      <c r="F346" s="33"/>
+      <c r="D346" s="26"/>
+      <c r="E346" s="26"/>
+      <c r="F346" s="27"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="31"/>
-      <c r="C347" s="32"/>
-      <c r="D347" s="32"/>
-      <c r="E347" s="32"/>
-      <c r="F347" s="33"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="27"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11941,13 +11983,13 @@
       </c>
     </row>
     <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B349" s="34" t="s">
+      <c r="B349" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C349" s="35"/>
-      <c r="D349" s="35"/>
-      <c r="E349" s="35"/>
-      <c r="F349" s="36"/>
+      <c r="C349" s="29"/>
+      <c r="D349" s="29"/>
+      <c r="E349" s="29"/>
+      <c r="F349" s="30"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
@@ -11984,20 +12026,20 @@
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="37"/>
-      <c r="C352" s="38"/>
-      <c r="D352" s="38"/>
-      <c r="E352" s="38"/>
-      <c r="F352" s="39"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="32"/>
+      <c r="D352" s="32"/>
+      <c r="E352" s="32"/>
+      <c r="F352" s="33"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B353" s="34" t="s">
+      <c r="B353" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="35"/>
-      <c r="D353" s="35"/>
-      <c r="E353" s="35"/>
-      <c r="F353" s="36"/>
+      <c r="C353" s="29"/>
+      <c r="D353" s="29"/>
+      <c r="E353" s="29"/>
+      <c r="F353" s="30"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
@@ -12067,705 +12109,963 @@
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B359" s="34" t="s">
+      <c r="B359" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="35"/>
-      <c r="D359" s="35"/>
-      <c r="E359" s="35"/>
-      <c r="F359" s="36"/>
+      <c r="C359" s="29"/>
+      <c r="D359" s="29"/>
+      <c r="E359" s="29"/>
+      <c r="F359" s="30"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="40" t="s">
+      <c r="B360" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="41"/>
-      <c r="D360" s="41"/>
-      <c r="E360" s="41"/>
-      <c r="F360" s="42"/>
+      <c r="C360" s="35"/>
+      <c r="D360" s="35"/>
+      <c r="E360" s="35"/>
+      <c r="F360" s="36"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="43"/>
-      <c r="C361" s="44"/>
-      <c r="D361" s="44"/>
-      <c r="E361" s="44"/>
-      <c r="F361" s="45"/>
+      <c r="B361" s="37"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="38"/>
+      <c r="E361" s="38"/>
+      <c r="F361" s="39"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="43"/>
-      <c r="C362" s="44"/>
-      <c r="D362" s="44"/>
-      <c r="E362" s="44"/>
-      <c r="F362" s="45"/>
+      <c r="B362" s="37"/>
+      <c r="C362" s="38"/>
+      <c r="D362" s="38"/>
+      <c r="E362" s="38"/>
+      <c r="F362" s="39"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="43"/>
-      <c r="C363" s="44"/>
-      <c r="D363" s="44"/>
-      <c r="E363" s="44"/>
-      <c r="F363" s="45"/>
+      <c r="B363" s="37"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="38"/>
+      <c r="E363" s="38"/>
+      <c r="F363" s="39"/>
     </row>
     <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B364" s="46"/>
-      <c r="C364" s="47"/>
-      <c r="D364" s="47"/>
-      <c r="E364" s="47"/>
-      <c r="F364" s="48"/>
-    </row>
-    <row r="366" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B366" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C366" s="59"/>
-      <c r="D366" s="59"/>
-      <c r="E366" s="59"/>
-      <c r="F366" s="59"/>
-    </row>
-    <row r="367" spans="2:6" ht="21" thickBot="1">
-      <c r="B367" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C367" s="49"/>
-      <c r="D367" s="49"/>
-      <c r="E367" s="49"/>
-      <c r="F367" s="49"/>
+      <c r="B364" s="40"/>
+      <c r="C364" s="41"/>
+      <c r="D364" s="41"/>
+      <c r="E364" s="41"/>
+      <c r="F364" s="42"/>
+    </row>
+    <row r="365" spans="2:6" ht="21" thickBot="1">
+      <c r="B365" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C365" s="44"/>
+      <c r="D365" s="44"/>
+      <c r="E365" s="44"/>
+      <c r="F365" s="44"/>
+    </row>
+    <row r="366" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B366" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D366" s="46"/>
+      <c r="E366" s="46"/>
+      <c r="F366" s="47"/>
+    </row>
+    <row r="367" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B367" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C367" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D367" s="46"/>
+      <c r="E367" s="46"/>
+      <c r="F367" s="47"/>
     </row>
     <row r="368" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B368" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C368" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="D368" s="51"/>
-      <c r="E368" s="51"/>
-      <c r="F368" s="52"/>
-    </row>
-    <row r="369" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B369" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C369" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="D369" s="51"/>
-      <c r="E369" s="51"/>
-      <c r="F369" s="52"/>
-    </row>
-    <row r="370" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B368" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D368" s="49"/>
+      <c r="E368" s="49"/>
+      <c r="F368" s="50"/>
+    </row>
+    <row r="369" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D369" s="52"/>
+      <c r="E369" s="52"/>
+      <c r="F369" s="53"/>
+    </row>
+    <row r="370" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B370" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C370" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="D370" s="54"/>
-      <c r="E370" s="54"/>
-      <c r="F370" s="55"/>
-    </row>
-    <row r="371" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C370" s="54"/>
+      <c r="D370" s="55"/>
+      <c r="E370" s="55"/>
+      <c r="F370" s="56"/>
+    </row>
+    <row r="371" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B371" s="7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C371" s="25" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D371" s="26"/>
       <c r="E371" s="26"/>
       <c r="F371" s="27"/>
     </row>
-    <row r="372" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+    <row r="372" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" s="26"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="27"/>
+    </row>
+    <row r="373" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B373" s="25"/>
+      <c r="C373" s="26"/>
+      <c r="D373" s="26"/>
+      <c r="E373" s="26"/>
+      <c r="F373" s="27"/>
+    </row>
+    <row r="374" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B374" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="9"/>
+      <c r="E374" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F374" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B375" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" s="29"/>
+      <c r="D375" s="29"/>
+      <c r="E375" s="29"/>
+      <c r="F375" s="30"/>
+    </row>
+    <row r="376" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B376" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E376" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F376" s="9"/>
+    </row>
+    <row r="377" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B377" s="31"/>
+      <c r="C377" s="32"/>
+      <c r="D377" s="32"/>
+      <c r="E377" s="32"/>
+      <c r="F377" s="33"/>
+    </row>
+    <row r="378" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B378" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" s="29"/>
+      <c r="D378" s="29"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="30"/>
+    </row>
+    <row r="379" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B379" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
+    </row>
+    <row r="380" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B380" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
+    </row>
+    <row r="381" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B381" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E381" s="4"/>
+      <c r="F381" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B382" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E382" s="11"/>
+      <c r="F382" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B383" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E383" s="11"/>
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B384" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
+      <c r="F384" s="30"/>
+    </row>
+    <row r="385" spans="2:6">
+      <c r="B385" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C385" s="35"/>
+      <c r="D385" s="35"/>
+      <c r="E385" s="35"/>
+      <c r="F385" s="36"/>
+    </row>
+    <row r="386" spans="2:6">
+      <c r="B386" s="37"/>
+      <c r="C386" s="38"/>
+      <c r="D386" s="38"/>
+      <c r="E386" s="38"/>
+      <c r="F386" s="39"/>
+    </row>
+    <row r="387" spans="2:6">
+      <c r="B387" s="37"/>
+      <c r="C387" s="38"/>
+      <c r="D387" s="38"/>
+      <c r="E387" s="38"/>
+      <c r="F387" s="39"/>
+    </row>
+    <row r="388" spans="2:6">
+      <c r="B388" s="37"/>
+      <c r="C388" s="38"/>
+      <c r="D388" s="38"/>
+      <c r="E388" s="38"/>
+      <c r="F388" s="39"/>
+    </row>
+    <row r="389" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B389" s="40"/>
+      <c r="C389" s="41"/>
+      <c r="D389" s="41"/>
+      <c r="E389" s="41"/>
+      <c r="F389" s="42"/>
+    </row>
+    <row r="391" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B391" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C391" s="43"/>
+      <c r="D391" s="43"/>
+      <c r="E391" s="43"/>
+      <c r="F391" s="43"/>
+    </row>
+    <row r="392" spans="2:6" ht="21" thickBot="1">
+      <c r="B392" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C392" s="44"/>
+      <c r="D392" s="44"/>
+      <c r="E392" s="44"/>
+      <c r="F392" s="44"/>
+    </row>
+    <row r="393" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B393" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D393" s="46"/>
+      <c r="E393" s="46"/>
+      <c r="F393" s="47"/>
+    </row>
+    <row r="394" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B394" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C394" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D394" s="46"/>
+      <c r="E394" s="46"/>
+      <c r="F394" s="47"/>
+    </row>
+    <row r="395" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B395" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C395" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D395" s="49"/>
+      <c r="E395" s="49"/>
+      <c r="F395" s="50"/>
+    </row>
+    <row r="396" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B396" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="52"/>
+      <c r="E396" s="52"/>
+      <c r="F396" s="53"/>
+    </row>
+    <row r="397" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B397" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C372" s="28"/>
-      <c r="D372" s="29"/>
-      <c r="E372" s="29"/>
-      <c r="F372" s="30"/>
-    </row>
-    <row r="373" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B373" s="7" t="s">
+      <c r="C397" s="54"/>
+      <c r="D397" s="55"/>
+      <c r="E397" s="55"/>
+      <c r="F397" s="56"/>
+    </row>
+    <row r="398" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B398" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="31" t="s">
+      <c r="C398" s="25" t="s">
         <v>4</v>
-      </c>
-      <c r="D373" s="32"/>
-      <c r="E373" s="32"/>
-      <c r="F373" s="33"/>
-    </row>
-    <row r="374" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B374" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C374" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D374" s="32"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="33"/>
-    </row>
-    <row r="375" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B375" s="31"/>
-      <c r="C375" s="32"/>
-      <c r="D375" s="32"/>
-      <c r="E375" s="32"/>
-      <c r="F375" s="33"/>
-    </row>
-    <row r="376" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B376" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C376" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D376" s="9"/>
-      <c r="E376" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F376" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="377" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B377" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C377" s="35"/>
-      <c r="D377" s="35"/>
-      <c r="E377" s="35"/>
-      <c r="F377" s="36"/>
-    </row>
-    <row r="378" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B378" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C378" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E378" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F378" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="379" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B379" s="10"/>
-      <c r="C379" s="8"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="14"/>
-      <c r="F379" s="9"/>
-    </row>
-    <row r="380" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B380" s="37"/>
-      <c r="C380" s="38"/>
-      <c r="D380" s="38"/>
-      <c r="E380" s="38"/>
-      <c r="F380" s="39"/>
-    </row>
-    <row r="381" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B381" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C381" s="35"/>
-      <c r="D381" s="35"/>
-      <c r="E381" s="35"/>
-      <c r="F381" s="36"/>
-    </row>
-    <row r="382" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B382" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C382" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D382" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E382" s="4"/>
-      <c r="F382" s="4"/>
-    </row>
-    <row r="383" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B383" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C383" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D383" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E383" s="4"/>
-      <c r="F383" s="4"/>
-    </row>
-    <row r="384" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B384" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C384" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E384" s="4"/>
-      <c r="F384" s="9"/>
-    </row>
-    <row r="385" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B385" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E385" s="11"/>
-      <c r="F385" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="386" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B386" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E386" s="11"/>
-      <c r="F386" s="4"/>
-    </row>
-    <row r="387" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B387" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C387" s="35"/>
-      <c r="D387" s="35"/>
-      <c r="E387" s="35"/>
-      <c r="F387" s="36"/>
-    </row>
-    <row r="388" spans="2:6">
-      <c r="B388" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C388" s="41"/>
-      <c r="D388" s="41"/>
-      <c r="E388" s="41"/>
-      <c r="F388" s="42"/>
-    </row>
-    <row r="389" spans="2:6">
-      <c r="B389" s="43"/>
-      <c r="C389" s="44"/>
-      <c r="D389" s="44"/>
-      <c r="E389" s="44"/>
-      <c r="F389" s="45"/>
-    </row>
-    <row r="390" spans="2:6">
-      <c r="B390" s="43"/>
-      <c r="C390" s="44"/>
-      <c r="D390" s="44"/>
-      <c r="E390" s="44"/>
-      <c r="F390" s="45"/>
-    </row>
-    <row r="391" spans="2:6">
-      <c r="B391" s="43"/>
-      <c r="C391" s="44"/>
-      <c r="D391" s="44"/>
-      <c r="E391" s="44"/>
-      <c r="F391" s="45"/>
-    </row>
-    <row r="392" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B392" s="46"/>
-      <c r="C392" s="47"/>
-      <c r="D392" s="47"/>
-      <c r="E392" s="47"/>
-      <c r="F392" s="48"/>
-    </row>
-    <row r="393" spans="2:6" ht="13.5" thickBot="1"/>
-    <row r="394" spans="2:6" ht="21" thickBot="1">
-      <c r="B394" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C394" s="49"/>
-      <c r="D394" s="49"/>
-      <c r="E394" s="49"/>
-      <c r="F394" s="49"/>
-    </row>
-    <row r="395" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B395" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C395" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D395" s="51"/>
-      <c r="E395" s="51"/>
-      <c r="F395" s="52"/>
-    </row>
-    <row r="396" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B396" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C396" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D396" s="51"/>
-      <c r="E396" s="51"/>
-      <c r="F396" s="52"/>
-    </row>
-    <row r="397" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B397" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C397" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="D397" s="54"/>
-      <c r="E397" s="54"/>
-      <c r="F397" s="55"/>
-    </row>
-    <row r="398" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B398" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C398" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="D398" s="26"/>
       <c r="E398" s="26"/>
       <c r="F398" s="27"/>
     </row>
-    <row r="399" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+    <row r="399" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B399" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C399" s="28"/>
-      <c r="D399" s="29"/>
-      <c r="E399" s="29"/>
-      <c r="F399" s="30"/>
-    </row>
-    <row r="400" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B400" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C400" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C399" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D400" s="32"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="33"/>
-    </row>
-    <row r="401" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="D399" s="26"/>
+      <c r="E399" s="26"/>
+      <c r="F399" s="27"/>
+    </row>
+    <row r="400" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B400" s="25"/>
+      <c r="C400" s="26"/>
+      <c r="D400" s="26"/>
+      <c r="E400" s="26"/>
+      <c r="F400" s="27"/>
+    </row>
+    <row r="401" spans="2:6" ht="13.5" thickBot="1">
       <c r="B401" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C401" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D401" s="32"/>
-      <c r="E401" s="32"/>
-      <c r="F401" s="33"/>
-    </row>
-    <row r="402" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B402" s="31"/>
-      <c r="C402" s="32"/>
-      <c r="D402" s="32"/>
-      <c r="E402" s="32"/>
-      <c r="F402" s="33"/>
-    </row>
-    <row r="403" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B403" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C401" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" s="9"/>
+      <c r="E401" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B402" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="30"/>
+    </row>
+    <row r="403" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B403" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C403" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D403" s="9"/>
-      <c r="E403" s="9" t="s">
-        <v>7</v>
+        <v>221</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E403" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="F403" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="404" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B404" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C404" s="35"/>
-      <c r="D404" s="35"/>
-      <c r="E404" s="35"/>
-      <c r="F404" s="36"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B404" s="10"/>
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="14"/>
+      <c r="F404" s="9"/>
     </row>
     <row r="405" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B405" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C405" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D405" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E405" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F405" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="406" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B406" s="10"/>
-      <c r="C406" s="8"/>
-      <c r="D406" s="8"/>
-      <c r="E406" s="14"/>
-      <c r="F406" s="9"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="32"/>
+      <c r="D405" s="32"/>
+      <c r="E405" s="32"/>
+      <c r="F405" s="33"/>
+    </row>
+    <row r="406" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B406" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29"/>
+      <c r="F406" s="30"/>
     </row>
     <row r="407" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B407" s="37"/>
-      <c r="C407" s="38"/>
-      <c r="D407" s="38"/>
-      <c r="E407" s="38"/>
-      <c r="F407" s="39"/>
-    </row>
-    <row r="408" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B408" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C408" s="35"/>
-      <c r="D408" s="35"/>
-      <c r="E408" s="35"/>
-      <c r="F408" s="36"/>
+      <c r="B407" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
+    </row>
+    <row r="408" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B408" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
     </row>
     <row r="409" spans="2:6" ht="14.25" thickBot="1">
       <c r="B409" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E409" s="4"/>
+      <c r="F409" s="9"/>
+    </row>
+    <row r="410" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B410" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E410" s="11"/>
+      <c r="F410" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B411" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E411" s="11"/>
+      <c r="F411" s="4"/>
+    </row>
+    <row r="412" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B412" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+      <c r="E412" s="29"/>
+      <c r="F412" s="30"/>
+    </row>
+    <row r="413" spans="2:6">
+      <c r="B413" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C413" s="35"/>
+      <c r="D413" s="35"/>
+      <c r="E413" s="35"/>
+      <c r="F413" s="36"/>
+    </row>
+    <row r="414" spans="2:6">
+      <c r="B414" s="37"/>
+      <c r="C414" s="38"/>
+      <c r="D414" s="38"/>
+      <c r="E414" s="38"/>
+      <c r="F414" s="39"/>
+    </row>
+    <row r="415" spans="2:6">
+      <c r="B415" s="37"/>
+      <c r="C415" s="38"/>
+      <c r="D415" s="38"/>
+      <c r="E415" s="38"/>
+      <c r="F415" s="39"/>
+    </row>
+    <row r="416" spans="2:6">
+      <c r="B416" s="37"/>
+      <c r="C416" s="38"/>
+      <c r="D416" s="38"/>
+      <c r="E416" s="38"/>
+      <c r="F416" s="39"/>
+    </row>
+    <row r="417" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B417" s="40"/>
+      <c r="C417" s="41"/>
+      <c r="D417" s="41"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="42"/>
+    </row>
+    <row r="418" spans="2:6" ht="13.5" thickBot="1"/>
+    <row r="419" spans="2:6" ht="21" thickBot="1">
+      <c r="B419" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C419" s="44"/>
+      <c r="D419" s="44"/>
+      <c r="E419" s="44"/>
+      <c r="F419" s="44"/>
+    </row>
+    <row r="420" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B420" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D420" s="46"/>
+      <c r="E420" s="46"/>
+      <c r="F420" s="47"/>
+    </row>
+    <row r="421" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B421" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C421" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D421" s="46"/>
+      <c r="E421" s="46"/>
+      <c r="F421" s="47"/>
+    </row>
+    <row r="422" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B422" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C422" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D422" s="49"/>
+      <c r="E422" s="49"/>
+      <c r="F422" s="50"/>
+    </row>
+    <row r="423" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B423" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="52"/>
+      <c r="E423" s="52"/>
+      <c r="F423" s="53"/>
+    </row>
+    <row r="424" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B424" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C424" s="54"/>
+      <c r="D424" s="55"/>
+      <c r="E424" s="55"/>
+      <c r="F424" s="56"/>
+    </row>
+    <row r="425" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B425" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C425" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425" s="26"/>
+      <c r="E425" s="26"/>
+      <c r="F425" s="27"/>
+    </row>
+    <row r="426" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B426" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="26"/>
+      <c r="E426" s="26"/>
+      <c r="F426" s="27"/>
+    </row>
+    <row r="427" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B427" s="25"/>
+      <c r="C427" s="26"/>
+      <c r="D427" s="26"/>
+      <c r="E427" s="26"/>
+      <c r="F427" s="27"/>
+    </row>
+    <row r="428" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B428" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="9"/>
+      <c r="E428" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F428" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B429" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C429" s="29"/>
+      <c r="D429" s="29"/>
+      <c r="E429" s="29"/>
+      <c r="F429" s="30"/>
+    </row>
+    <row r="430" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B430" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E430" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F430" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B431" s="10"/>
+      <c r="C431" s="8"/>
+      <c r="D431" s="8"/>
+      <c r="E431" s="14"/>
+      <c r="F431" s="9"/>
+    </row>
+    <row r="432" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B432" s="31"/>
+      <c r="C432" s="32"/>
+      <c r="D432" s="32"/>
+      <c r="E432" s="32"/>
+      <c r="F432" s="33"/>
+    </row>
+    <row r="433" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B433" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" s="29"/>
+      <c r="D433" s="29"/>
+      <c r="E433" s="29"/>
+      <c r="F433" s="30"/>
+    </row>
+    <row r="434" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B434" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C409" s="9" t="s">
+      <c r="C434" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D409" s="9" t="s">
+      <c r="D434" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E409" s="4"/>
-      <c r="F409" s="4"/>
-    </row>
-    <row r="410" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B410" s="1" t="s">
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
+    </row>
+    <row r="435" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B435" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C435" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D410" s="9" t="s">
+      <c r="D435" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
-    </row>
-    <row r="411" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B411" s="1" t="s">
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+    </row>
+    <row r="436" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B436" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C411" s="9" t="s">
+      <c r="C436" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D411" s="9" t="s">
+      <c r="D436" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E411" s="4"/>
-      <c r="F411" s="9"/>
-    </row>
-    <row r="412" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B412" s="10" t="s">
+      <c r="E436" s="4"/>
+      <c r="F436" s="9"/>
+    </row>
+    <row r="437" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B437" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C412" s="8" t="s">
+      <c r="C437" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D412" s="8" t="s">
+      <c r="D437" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E412" s="11"/>
-      <c r="F412" s="9" t="s">
+      <c r="E437" s="11"/>
+      <c r="F437" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B413" s="10" t="s">
+    <row r="438" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B438" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C413" s="8" t="s">
+      <c r="C438" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D413" s="8" t="s">
+      <c r="D438" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E413" s="11"/>
-      <c r="F413" s="4"/>
-    </row>
-    <row r="414" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B414" s="34" t="s">
+      <c r="E438" s="11"/>
+      <c r="F438" s="4"/>
+    </row>
+    <row r="439" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B439" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C414" s="35"/>
-      <c r="D414" s="35"/>
-      <c r="E414" s="35"/>
-      <c r="F414" s="36"/>
-    </row>
-    <row r="415" spans="2:6">
-      <c r="B415" s="40" t="s">
+      <c r="C439" s="29"/>
+      <c r="D439" s="29"/>
+      <c r="E439" s="29"/>
+      <c r="F439" s="30"/>
+    </row>
+    <row r="440" spans="2:6">
+      <c r="B440" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C415" s="41"/>
-      <c r="D415" s="41"/>
-      <c r="E415" s="41"/>
-      <c r="F415" s="42"/>
-    </row>
-    <row r="416" spans="2:6">
-      <c r="B416" s="43"/>
-      <c r="C416" s="44"/>
-      <c r="D416" s="44"/>
-      <c r="E416" s="44"/>
-      <c r="F416" s="45"/>
-    </row>
-    <row r="417" spans="2:6">
-      <c r="B417" s="43"/>
-      <c r="C417" s="44"/>
-      <c r="D417" s="44"/>
-      <c r="E417" s="44"/>
-      <c r="F417" s="45"/>
-    </row>
-    <row r="418" spans="2:6">
-      <c r="B418" s="43"/>
-      <c r="C418" s="44"/>
-      <c r="D418" s="44"/>
-      <c r="E418" s="44"/>
-      <c r="F418" s="45"/>
-    </row>
-    <row r="419" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B419" s="46"/>
-      <c r="C419" s="47"/>
-      <c r="D419" s="47"/>
-      <c r="E419" s="47"/>
-      <c r="F419" s="48"/>
+      <c r="C440" s="35"/>
+      <c r="D440" s="35"/>
+      <c r="E440" s="35"/>
+      <c r="F440" s="36"/>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="B441" s="37"/>
+      <c r="C441" s="38"/>
+      <c r="D441" s="38"/>
+      <c r="E441" s="38"/>
+      <c r="F441" s="39"/>
+    </row>
+    <row r="442" spans="2:6">
+      <c r="B442" s="37"/>
+      <c r="C442" s="38"/>
+      <c r="D442" s="38"/>
+      <c r="E442" s="38"/>
+      <c r="F442" s="39"/>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" s="37"/>
+      <c r="C443" s="38"/>
+      <c r="D443" s="38"/>
+      <c r="E443" s="38"/>
+      <c r="F443" s="39"/>
+    </row>
+    <row r="444" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B444" s="40"/>
+      <c r="C444" s="41"/>
+      <c r="D444" s="41"/>
+      <c r="E444" s="41"/>
+      <c r="F444" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="219">
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F419"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="C395:F395"/>
+  <mergeCells count="233">
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F389"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="B373:F373"/>
     <mergeCell ref="C396:F396"/>
     <mergeCell ref="C397:F397"/>
     <mergeCell ref="C398:F398"/>
     <mergeCell ref="C399:F399"/>
-    <mergeCell ref="C400:F400"/>
-    <mergeCell ref="C401:F401"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F392"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C264:F264"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B24:F24"/>
@@ -12790,95 +13090,112 @@
     <mergeCell ref="B272:F272"/>
     <mergeCell ref="B279:F283"/>
     <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C264:F264"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C266:F266"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="C261:F261"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="C372:F372"/>
-    <mergeCell ref="C373:F373"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F444"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="C420:F420"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C424:F424"/>
+    <mergeCell ref="C425:F425"/>
+    <mergeCell ref="C426:F426"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F417"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C394:F394"/>
+    <mergeCell ref="C395:F395"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -12908,13 +13225,15 @@
     <hyperlink ref="C227" r:id="rId24"/>
     <hyperlink ref="C200" r:id="rId25"/>
     <hyperlink ref="C199" r:id="rId26"/>
-    <hyperlink ref="C369" r:id="rId27"/>
-    <hyperlink ref="C368" r:id="rId28"/>
-    <hyperlink ref="C396" r:id="rId29"/>
-    <hyperlink ref="C395" r:id="rId30"/>
+    <hyperlink ref="C394" r:id="rId27"/>
+    <hyperlink ref="C393" r:id="rId28"/>
+    <hyperlink ref="C421" r:id="rId29"/>
+    <hyperlink ref="C420" r:id="rId30"/>
+    <hyperlink ref="C367" r:id="rId31"/>
+    <hyperlink ref="C366" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId31"/>
-  <drawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="236">
   <si>
     <t>服务地址</t>
   </si>
@@ -6442,6 +6442,10 @@
 code: 0
 }
 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrat[hot-&gt;热度值,pulse-&gt;异动值]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7010,15 +7014,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7064,9 +7059,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7106,6 +7098,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7115,17 +7116,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8426,8 +8430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385:F389"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="D409" sqref="D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8440,113 +8444,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8564,13 +8568,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -8588,27 +8592,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -8682,148 +8686,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8841,13 +8845,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -8929,73 +8933,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -9015,95 +9019,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -9121,13 +9125,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -9177,20 +9181,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="59"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -9264,50 +9268,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="37"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="37"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -9327,95 +9331,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C92" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="50"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="46"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="53"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="49"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="52"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="27"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="55"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="27"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="55"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="27"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="55"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -9433,13 +9437,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -9476,20 +9480,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="57"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="59"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="58"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -9561,50 +9565,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="30"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="36"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="33"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="37"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="39"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="36"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="37"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="39"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="36"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="37"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="36"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="40"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="42"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="39"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9624,95 +9628,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="47"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="43"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="45" t="s">
+      <c r="C122" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="47"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="50"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="46"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="53"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="49"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="54"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="56"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="52"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="55"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="27"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="55"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="25"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="27"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="55"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9730,29 +9734,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="27"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="57"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="59"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="58"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="30"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="27"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -9824,50 +9828,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="28" t="s">
+      <c r="B138" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="30"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="27"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="60" t="s">
+      <c r="B139" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="36"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="33"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="37"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="39"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="36"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="37"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="39"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="36"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="37"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="39"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="36"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="40"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="42"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="39"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9887,95 +9891,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="44" t="s">
+      <c r="B147" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="40"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="45" t="s">
+      <c r="C148" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="47"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="43"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="45" t="s">
+      <c r="C149" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="47"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="43"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="50"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="46"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="53"/>
+      <c r="D151" s="48"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="49"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="54"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="56"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="52"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="27"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="55"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="27"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="55"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="25"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="27"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="55"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9993,29 +9997,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="30"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="27"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="57"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="59"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="58"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="28" t="s">
+      <c r="B159" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="30"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="27"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -10087,50 +10091,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="28" t="s">
+      <c r="B165" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="30"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="27"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="60" t="s">
+      <c r="B166" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="36"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="33"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="37"/>
-      <c r="C167" s="38"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="39"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="36"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="37"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="39"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="36"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="37"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="39"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="36"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="40"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="42"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="39"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -10140,95 +10144,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="44" t="s">
+      <c r="B172" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="44"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="44"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="40"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="45" t="s">
+      <c r="C173" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="47"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="43"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="45" t="s">
+      <c r="C174" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="47"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="43"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="48" t="s">
+      <c r="C175" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="50"/>
+      <c r="D175" s="45"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="46"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="52"/>
-      <c r="E176" s="52"/>
-      <c r="F176" s="53"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="49"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="56"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="52"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="27"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="54"/>
+      <c r="F178" s="55"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="27"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="55"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="25"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="27"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="55"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -10246,13 +10250,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="28" t="s">
+      <c r="B182" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="30"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="27"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -10270,20 +10274,20 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="57"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="59"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="58"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="28" t="s">
+      <c r="B185" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="27"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -10355,50 +10359,50 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="28" t="s">
+      <c r="B191" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="30"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="27"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="60" t="s">
+      <c r="B192" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="36"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="33"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="37"/>
-      <c r="C193" s="38"/>
-      <c r="D193" s="38"/>
-      <c r="E193" s="38"/>
-      <c r="F193" s="39"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="36"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="37"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="39"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="36"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="37"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="38"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="39"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="36"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="40"/>
-      <c r="C196" s="41"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="41"/>
-      <c r="F196" s="42"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38"/>
+      <c r="E196" s="38"/>
+      <c r="F196" s="39"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -10408,95 +10412,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="44" t="s">
+      <c r="B198" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="44"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="44"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="40"/>
+      <c r="F198" s="40"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="45" t="s">
+      <c r="C199" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="47"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="43"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="45" t="s">
+      <c r="C200" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="46"/>
-      <c r="E200" s="46"/>
-      <c r="F200" s="47"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="43"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="48" t="s">
+      <c r="C201" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="50"/>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="46"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="52"/>
-      <c r="E202" s="52"/>
-      <c r="F202" s="53"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="49"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="54"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="56"/>
+      <c r="C203" s="50"/>
+      <c r="D203" s="51"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="52"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="27"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="55"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="27"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="55"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="25"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="27"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="55"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10514,13 +10518,13 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="28" t="s">
+      <c r="B208" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="30"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+      <c r="F208" s="27"/>
     </row>
     <row r="209" spans="2:6" ht="14.25" thickBot="1">
       <c r="B209" s="20" t="s">
@@ -10555,20 +10559,20 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="57"/>
-      <c r="C211" s="58"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="58"/>
-      <c r="F211" s="59"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="57"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="58"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B212" s="28" t="s">
+      <c r="B212" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="30"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="27"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -10640,50 +10644,50 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B218" s="28" t="s">
+      <c r="B218" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="30"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="27"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="60" t="s">
+      <c r="B219" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="36"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="33"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="37"/>
-      <c r="C220" s="38"/>
-      <c r="D220" s="38"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="39"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="35"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="36"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="37"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="38"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="39"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="35"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="36"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="37"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="39"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="35"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="36"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="40"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="41"/>
-      <c r="F223" s="42"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="39"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10693,95 +10697,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="44"/>
-      <c r="D225" s="44"/>
-      <c r="E225" s="44"/>
-      <c r="F225" s="44"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="40"/>
+      <c r="F225" s="40"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="45" t="s">
+      <c r="C226" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="46"/>
-      <c r="E226" s="46"/>
-      <c r="F226" s="47"/>
+      <c r="D226" s="42"/>
+      <c r="E226" s="42"/>
+      <c r="F226" s="43"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="48" t="s">
+      <c r="C227" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="50"/>
+      <c r="D227" s="45"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="46"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="48" t="s">
+      <c r="C228" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
-      <c r="F228" s="50"/>
+      <c r="D228" s="45"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="46"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="52"/>
-      <c r="E229" s="52"/>
-      <c r="F229" s="53"/>
+      <c r="D229" s="48"/>
+      <c r="E229" s="48"/>
+      <c r="F229" s="49"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="54"/>
-      <c r="D230" s="55"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="56"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="51"/>
+      <c r="E230" s="51"/>
+      <c r="F230" s="52"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="27"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="55"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="27"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="55"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="25"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-      <c r="F233" s="27"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="54"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="55"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10799,13 +10803,13 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="28" t="s">
+      <c r="B235" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="30"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+      <c r="F235" s="27"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
@@ -10927,27 +10931,27 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="57"/>
-      <c r="C243" s="58"/>
-      <c r="D243" s="58"/>
-      <c r="E243" s="58"/>
-      <c r="F243" s="59"/>
+      <c r="B243" s="56"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="58"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="31"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="33"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="29"/>
+      <c r="F244" s="30"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="28" t="s">
+      <c r="B245" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="30"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="27"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
@@ -11021,50 +11025,50 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B251" s="28" t="s">
+      <c r="B251" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="29"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="29"/>
-      <c r="F251" s="30"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+      <c r="F251" s="27"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="34" t="s">
+      <c r="B252" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
-      <c r="E252" s="35"/>
-      <c r="F252" s="36"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="33"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="37"/>
-      <c r="C253" s="38"/>
-      <c r="D253" s="38"/>
-      <c r="E253" s="38"/>
-      <c r="F253" s="39"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
+      <c r="E253" s="35"/>
+      <c r="F253" s="36"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="37"/>
-      <c r="C254" s="38"/>
-      <c r="D254" s="38"/>
-      <c r="E254" s="38"/>
-      <c r="F254" s="39"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+      <c r="E254" s="35"/>
+      <c r="F254" s="36"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="37"/>
-      <c r="C255" s="38"/>
-      <c r="D255" s="38"/>
-      <c r="E255" s="38"/>
-      <c r="F255" s="39"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+      <c r="E255" s="35"/>
+      <c r="F255" s="36"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="40"/>
-      <c r="C256" s="41"/>
-      <c r="D256" s="41"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="42"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="38"/>
+      <c r="D256" s="38"/>
+      <c r="E256" s="38"/>
+      <c r="F256" s="39"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -11074,104 +11078,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="43" t="s">
+      <c r="B258" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="43"/>
-      <c r="D258" s="43"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
+      <c r="C258" s="59"/>
+      <c r="D258" s="59"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="44" t="s">
+      <c r="B259" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="44"/>
-      <c r="D259" s="44"/>
-      <c r="E259" s="44"/>
-      <c r="F259" s="44"/>
+      <c r="C259" s="40"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="40"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="45" t="s">
+      <c r="C260" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="46"/>
-      <c r="E260" s="46"/>
-      <c r="F260" s="47"/>
+      <c r="D260" s="42"/>
+      <c r="E260" s="42"/>
+      <c r="F260" s="43"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="45" t="s">
+      <c r="C261" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="46"/>
-      <c r="E261" s="46"/>
-      <c r="F261" s="47"/>
+      <c r="D261" s="42"/>
+      <c r="E261" s="42"/>
+      <c r="F261" s="43"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="48" t="s">
+      <c r="C262" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="49"/>
-      <c r="E262" s="49"/>
-      <c r="F262" s="50"/>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="46"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="52"/>
-      <c r="E263" s="52"/>
-      <c r="F263" s="53"/>
+      <c r="D263" s="48"/>
+      <c r="E263" s="48"/>
+      <c r="F263" s="49"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="54"/>
-      <c r="D264" s="55"/>
-      <c r="E264" s="55"/>
-      <c r="F264" s="56"/>
+      <c r="C264" s="50"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="51"/>
+      <c r="F264" s="52"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="25" t="s">
+      <c r="C265" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="27"/>
+      <c r="D265" s="54"/>
+      <c r="E265" s="54"/>
+      <c r="F265" s="55"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="25" t="s">
+      <c r="C266" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="27"/>
+      <c r="D266" s="54"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="55"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="25"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="27"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="54"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="55"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -11189,13 +11193,13 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B269" s="28" t="s">
+      <c r="B269" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="30"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="27"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
       <c r="B270" s="1" t="s">
@@ -11213,20 +11217,20 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="31"/>
-      <c r="C271" s="32"/>
-      <c r="D271" s="32"/>
-      <c r="E271" s="32"/>
-      <c r="F271" s="33"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="29"/>
+      <c r="D271" s="29"/>
+      <c r="E271" s="29"/>
+      <c r="F271" s="30"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="28" t="s">
+      <c r="B272" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="29"/>
-      <c r="D272" s="29"/>
-      <c r="E272" s="29"/>
-      <c r="F272" s="30"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26"/>
+      <c r="E272" s="26"/>
+      <c r="F272" s="27"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
@@ -11298,142 +11302,142 @@
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B278" s="28" t="s">
+      <c r="B278" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="30"/>
+      <c r="C278" s="26"/>
+      <c r="D278" s="26"/>
+      <c r="E278" s="26"/>
+      <c r="F278" s="27"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="34" t="s">
+      <c r="B279" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="35"/>
-      <c r="D279" s="35"/>
-      <c r="E279" s="35"/>
-      <c r="F279" s="36"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="33"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="37"/>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-      <c r="F280" s="39"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="35"/>
+      <c r="E280" s="35"/>
+      <c r="F280" s="36"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="37"/>
-      <c r="C281" s="38"/>
-      <c r="D281" s="38"/>
-      <c r="E281" s="38"/>
-      <c r="F281" s="39"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="35"/>
+      <c r="E281" s="35"/>
+      <c r="F281" s="36"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="37"/>
-      <c r="C282" s="38"/>
-      <c r="D282" s="38"/>
-      <c r="E282" s="38"/>
-      <c r="F282" s="39"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="35"/>
+      <c r="D282" s="35"/>
+      <c r="E282" s="35"/>
+      <c r="F282" s="36"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="40"/>
-      <c r="C283" s="41"/>
-      <c r="D283" s="41"/>
-      <c r="E283" s="41"/>
-      <c r="F283" s="42"/>
-    </row>
-    <row r="284" spans="2:6" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="37"/>
+      <c r="C283" s="38"/>
+      <c r="D283" s="38"/>
+      <c r="E283" s="38"/>
+      <c r="F283" s="39"/>
+    </row>
+    <row r="284" spans="2:6" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="44" t="s">
+      <c r="B285" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="44"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="44"/>
-      <c r="F285" s="44"/>
+      <c r="C285" s="40"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="40"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="45" t="s">
+      <c r="C286" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="46"/>
-      <c r="E286" s="46"/>
-      <c r="F286" s="47"/>
+      <c r="D286" s="42"/>
+      <c r="E286" s="42"/>
+      <c r="F286" s="43"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="45" t="s">
+      <c r="C287" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="46"/>
-      <c r="E287" s="46"/>
-      <c r="F287" s="47"/>
+      <c r="D287" s="42"/>
+      <c r="E287" s="42"/>
+      <c r="F287" s="43"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="48" t="s">
+      <c r="C288" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="49"/>
-      <c r="E288" s="49"/>
-      <c r="F288" s="50"/>
+      <c r="D288" s="45"/>
+      <c r="E288" s="45"/>
+      <c r="F288" s="46"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="51" t="s">
+      <c r="C289" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="52"/>
-      <c r="E289" s="52"/>
-      <c r="F289" s="53"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="48"/>
+      <c r="F289" s="49"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="54"/>
-      <c r="D290" s="55"/>
-      <c r="E290" s="55"/>
-      <c r="F290" s="56"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="51"/>
+      <c r="E290" s="51"/>
+      <c r="F290" s="52"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="25" t="s">
+      <c r="C291" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="26"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="27"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="55"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C292" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="26"/>
-      <c r="E292" s="26"/>
-      <c r="F292" s="27"/>
+      <c r="D292" s="54"/>
+      <c r="E292" s="54"/>
+      <c r="F292" s="55"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="25"/>
-      <c r="C293" s="26"/>
-      <c r="D293" s="26"/>
-      <c r="E293" s="26"/>
-      <c r="F293" s="27"/>
+      <c r="B293" s="53"/>
+      <c r="C293" s="54"/>
+      <c r="D293" s="54"/>
+      <c r="E293" s="54"/>
+      <c r="F293" s="55"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -11451,13 +11455,13 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B295" s="28" t="s">
+      <c r="B295" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="29"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="29"/>
-      <c r="F295" s="30"/>
+      <c r="C295" s="26"/>
+      <c r="D295" s="26"/>
+      <c r="E295" s="26"/>
+      <c r="F295" s="27"/>
     </row>
     <row r="296" spans="2:6" ht="27.75" thickBot="1">
       <c r="B296" s="1" t="s">
@@ -11482,20 +11486,20 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="31"/>
-      <c r="C298" s="32"/>
-      <c r="D298" s="32"/>
-      <c r="E298" s="32"/>
-      <c r="F298" s="33"/>
+      <c r="B298" s="28"/>
+      <c r="C298" s="29"/>
+      <c r="D298" s="29"/>
+      <c r="E298" s="29"/>
+      <c r="F298" s="30"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B299" s="28" t="s">
+      <c r="B299" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="29"/>
-      <c r="D299" s="29"/>
-      <c r="E299" s="29"/>
-      <c r="F299" s="30"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26"/>
+      <c r="F299" s="27"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
@@ -11567,143 +11571,143 @@
       <c r="F304" s="4"/>
     </row>
     <row r="305" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B305" s="28" t="s">
+      <c r="B305" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C305" s="29"/>
-      <c r="D305" s="29"/>
-      <c r="E305" s="29"/>
-      <c r="F305" s="30"/>
+      <c r="C305" s="26"/>
+      <c r="D305" s="26"/>
+      <c r="E305" s="26"/>
+      <c r="F305" s="27"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="35"/>
-      <c r="D306" s="35"/>
-      <c r="E306" s="35"/>
-      <c r="F306" s="36"/>
+      <c r="C306" s="32"/>
+      <c r="D306" s="32"/>
+      <c r="E306" s="32"/>
+      <c r="F306" s="33"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="37"/>
-      <c r="C307" s="38"/>
-      <c r="D307" s="38"/>
-      <c r="E307" s="38"/>
-      <c r="F307" s="39"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="35"/>
+      <c r="D307" s="35"/>
+      <c r="E307" s="35"/>
+      <c r="F307" s="36"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="37"/>
-      <c r="C308" s="38"/>
-      <c r="D308" s="38"/>
-      <c r="E308" s="38"/>
-      <c r="F308" s="39"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="35"/>
+      <c r="D308" s="35"/>
+      <c r="E308" s="35"/>
+      <c r="F308" s="36"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="37"/>
-      <c r="C309" s="38"/>
-      <c r="D309" s="38"/>
-      <c r="E309" s="38"/>
-      <c r="F309" s="39"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="35"/>
+      <c r="D309" s="35"/>
+      <c r="E309" s="35"/>
+      <c r="F309" s="36"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="40"/>
-      <c r="C310" s="41"/>
-      <c r="D310" s="41"/>
-      <c r="E310" s="41"/>
-      <c r="F310" s="42"/>
+      <c r="B310" s="37"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="38"/>
+      <c r="E310" s="38"/>
+      <c r="F310" s="39"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="44" t="s">
+      <c r="B313" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="44"/>
-      <c r="D313" s="44"/>
-      <c r="E313" s="44"/>
-      <c r="F313" s="44"/>
+      <c r="C313" s="40"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="40"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="45" t="s">
+      <c r="C314" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="46"/>
-      <c r="E314" s="46"/>
-      <c r="F314" s="47"/>
+      <c r="D314" s="42"/>
+      <c r="E314" s="42"/>
+      <c r="F314" s="43"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="45" t="s">
+      <c r="C315" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="46"/>
-      <c r="E315" s="46"/>
-      <c r="F315" s="47"/>
+      <c r="D315" s="42"/>
+      <c r="E315" s="42"/>
+      <c r="F315" s="43"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="48" t="s">
+      <c r="C316" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="49"/>
-      <c r="E316" s="49"/>
-      <c r="F316" s="50"/>
+      <c r="D316" s="45"/>
+      <c r="E316" s="45"/>
+      <c r="F316" s="46"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="51" t="s">
+      <c r="C317" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="52"/>
-      <c r="E317" s="52"/>
-      <c r="F317" s="53"/>
+      <c r="D317" s="48"/>
+      <c r="E317" s="48"/>
+      <c r="F317" s="49"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="54"/>
-      <c r="D318" s="55"/>
-      <c r="E318" s="55"/>
-      <c r="F318" s="56"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="51"/>
+      <c r="E318" s="51"/>
+      <c r="F318" s="52"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="25" t="s">
+      <c r="C319" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="26"/>
-      <c r="E319" s="26"/>
-      <c r="F319" s="27"/>
+      <c r="D319" s="54"/>
+      <c r="E319" s="54"/>
+      <c r="F319" s="55"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="26"/>
-      <c r="E320" s="26"/>
-      <c r="F320" s="27"/>
+      <c r="D320" s="54"/>
+      <c r="E320" s="54"/>
+      <c r="F320" s="55"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="25"/>
-      <c r="C321" s="26"/>
-      <c r="D321" s="26"/>
-      <c r="E321" s="26"/>
-      <c r="F321" s="27"/>
+      <c r="B321" s="53"/>
+      <c r="C321" s="54"/>
+      <c r="D321" s="54"/>
+      <c r="E321" s="54"/>
+      <c r="F321" s="55"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11721,13 +11725,13 @@
       </c>
     </row>
     <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B323" s="28" t="s">
+      <c r="B323" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C323" s="29"/>
-      <c r="D323" s="29"/>
-      <c r="E323" s="29"/>
-      <c r="F323" s="30"/>
+      <c r="C323" s="26"/>
+      <c r="D323" s="26"/>
+      <c r="E323" s="26"/>
+      <c r="F323" s="27"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
       <c r="B324" s="1" t="s">
@@ -11745,20 +11749,20 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="31"/>
-      <c r="C325" s="32"/>
-      <c r="D325" s="32"/>
-      <c r="E325" s="32"/>
-      <c r="F325" s="33"/>
+      <c r="B325" s="28"/>
+      <c r="C325" s="29"/>
+      <c r="D325" s="29"/>
+      <c r="E325" s="29"/>
+      <c r="F325" s="30"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B326" s="28" t="s">
+      <c r="B326" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="29"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="29"/>
-      <c r="F326" s="30"/>
+      <c r="C326" s="26"/>
+      <c r="D326" s="26"/>
+      <c r="E326" s="26"/>
+      <c r="F326" s="27"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
@@ -11830,142 +11834,142 @@
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B332" s="28" t="s">
+      <c r="B332" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="29"/>
-      <c r="D332" s="29"/>
-      <c r="E332" s="29"/>
-      <c r="F332" s="30"/>
+      <c r="C332" s="26"/>
+      <c r="D332" s="26"/>
+      <c r="E332" s="26"/>
+      <c r="F332" s="27"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="34" t="s">
+      <c r="B333" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="35"/>
-      <c r="D333" s="35"/>
-      <c r="E333" s="35"/>
-      <c r="F333" s="36"/>
+      <c r="C333" s="32"/>
+      <c r="D333" s="32"/>
+      <c r="E333" s="32"/>
+      <c r="F333" s="33"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="37"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="39"/>
+      <c r="B334" s="34"/>
+      <c r="C334" s="35"/>
+      <c r="D334" s="35"/>
+      <c r="E334" s="35"/>
+      <c r="F334" s="36"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="37"/>
-      <c r="C335" s="38"/>
-      <c r="D335" s="38"/>
-      <c r="E335" s="38"/>
-      <c r="F335" s="39"/>
+      <c r="B335" s="34"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="35"/>
+      <c r="E335" s="35"/>
+      <c r="F335" s="36"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="37"/>
-      <c r="C336" s="38"/>
-      <c r="D336" s="38"/>
-      <c r="E336" s="38"/>
-      <c r="F336" s="39"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="35"/>
+      <c r="D336" s="35"/>
+      <c r="E336" s="35"/>
+      <c r="F336" s="36"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="40"/>
-      <c r="C337" s="41"/>
-      <c r="D337" s="41"/>
-      <c r="E337" s="41"/>
-      <c r="F337" s="42"/>
+      <c r="B337" s="37"/>
+      <c r="C337" s="38"/>
+      <c r="D337" s="38"/>
+      <c r="E337" s="38"/>
+      <c r="F337" s="39"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="44" t="s">
+      <c r="B339" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="44"/>
-      <c r="D339" s="44"/>
-      <c r="E339" s="44"/>
-      <c r="F339" s="44"/>
+      <c r="C339" s="40"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="40"/>
+      <c r="F339" s="40"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="45" t="s">
+      <c r="C340" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="46"/>
-      <c r="E340" s="46"/>
-      <c r="F340" s="47"/>
+      <c r="D340" s="42"/>
+      <c r="E340" s="42"/>
+      <c r="F340" s="43"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="45" t="s">
+      <c r="C341" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D341" s="46"/>
-      <c r="E341" s="46"/>
-      <c r="F341" s="47"/>
+      <c r="D341" s="42"/>
+      <c r="E341" s="42"/>
+      <c r="F341" s="43"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="48" t="s">
+      <c r="C342" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="49"/>
-      <c r="E342" s="49"/>
-      <c r="F342" s="50"/>
+      <c r="D342" s="45"/>
+      <c r="E342" s="45"/>
+      <c r="F342" s="46"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="51" t="s">
+      <c r="C343" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="52"/>
-      <c r="E343" s="52"/>
-      <c r="F343" s="53"/>
+      <c r="D343" s="48"/>
+      <c r="E343" s="48"/>
+      <c r="F343" s="49"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="54"/>
-      <c r="D344" s="55"/>
-      <c r="E344" s="55"/>
-      <c r="F344" s="56"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="51"/>
+      <c r="E344" s="51"/>
+      <c r="F344" s="52"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="25" t="s">
+      <c r="C345" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="26"/>
-      <c r="E345" s="26"/>
-      <c r="F345" s="27"/>
+      <c r="D345" s="54"/>
+      <c r="E345" s="54"/>
+      <c r="F345" s="55"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="25" t="s">
+      <c r="C346" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="26"/>
-      <c r="E346" s="26"/>
-      <c r="F346" s="27"/>
+      <c r="D346" s="54"/>
+      <c r="E346" s="54"/>
+      <c r="F346" s="55"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="25"/>
-      <c r="C347" s="26"/>
-      <c r="D347" s="26"/>
-      <c r="E347" s="26"/>
-      <c r="F347" s="27"/>
+      <c r="B347" s="53"/>
+      <c r="C347" s="54"/>
+      <c r="D347" s="54"/>
+      <c r="E347" s="54"/>
+      <c r="F347" s="55"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11983,13 +11987,13 @@
       </c>
     </row>
     <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B349" s="28" t="s">
+      <c r="B349" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C349" s="29"/>
-      <c r="D349" s="29"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="30"/>
+      <c r="C349" s="26"/>
+      <c r="D349" s="26"/>
+      <c r="E349" s="26"/>
+      <c r="F349" s="27"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
@@ -12026,20 +12030,20 @@
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="31"/>
-      <c r="C352" s="32"/>
-      <c r="D352" s="32"/>
-      <c r="E352" s="32"/>
-      <c r="F352" s="33"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="29"/>
+      <c r="D352" s="29"/>
+      <c r="E352" s="29"/>
+      <c r="F352" s="30"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B353" s="28" t="s">
+      <c r="B353" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="29"/>
-      <c r="D353" s="29"/>
-      <c r="E353" s="29"/>
-      <c r="F353" s="30"/>
+      <c r="C353" s="26"/>
+      <c r="D353" s="26"/>
+      <c r="E353" s="26"/>
+      <c r="F353" s="27"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
@@ -12109,141 +12113,141 @@
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B359" s="28" t="s">
+      <c r="B359" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="29"/>
-      <c r="D359" s="29"/>
-      <c r="E359" s="29"/>
-      <c r="F359" s="30"/>
+      <c r="C359" s="26"/>
+      <c r="D359" s="26"/>
+      <c r="E359" s="26"/>
+      <c r="F359" s="27"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="34" t="s">
+      <c r="B360" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="35"/>
-      <c r="D360" s="35"/>
-      <c r="E360" s="35"/>
-      <c r="F360" s="36"/>
+      <c r="C360" s="32"/>
+      <c r="D360" s="32"/>
+      <c r="E360" s="32"/>
+      <c r="F360" s="33"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="37"/>
-      <c r="C361" s="38"/>
-      <c r="D361" s="38"/>
-      <c r="E361" s="38"/>
-      <c r="F361" s="39"/>
+      <c r="B361" s="34"/>
+      <c r="C361" s="35"/>
+      <c r="D361" s="35"/>
+      <c r="E361" s="35"/>
+      <c r="F361" s="36"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="37"/>
-      <c r="C362" s="38"/>
-      <c r="D362" s="38"/>
-      <c r="E362" s="38"/>
-      <c r="F362" s="39"/>
+      <c r="B362" s="34"/>
+      <c r="C362" s="35"/>
+      <c r="D362" s="35"/>
+      <c r="E362" s="35"/>
+      <c r="F362" s="36"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="37"/>
-      <c r="C363" s="38"/>
-      <c r="D363" s="38"/>
-      <c r="E363" s="38"/>
-      <c r="F363" s="39"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="35"/>
+      <c r="D363" s="35"/>
+      <c r="E363" s="35"/>
+      <c r="F363" s="36"/>
     </row>
     <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B364" s="40"/>
-      <c r="C364" s="41"/>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="42"/>
+      <c r="B364" s="37"/>
+      <c r="C364" s="38"/>
+      <c r="D364" s="38"/>
+      <c r="E364" s="38"/>
+      <c r="F364" s="39"/>
     </row>
     <row r="365" spans="2:6" ht="21" thickBot="1">
-      <c r="B365" s="44" t="s">
+      <c r="B365" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="C365" s="44"/>
-      <c r="D365" s="44"/>
-      <c r="E365" s="44"/>
-      <c r="F365" s="44"/>
+      <c r="C365" s="40"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="40"/>
     </row>
     <row r="366" spans="2:6" ht="13.5" thickBot="1">
       <c r="B366" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C366" s="45" t="s">
+      <c r="C366" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D366" s="46"/>
-      <c r="E366" s="46"/>
-      <c r="F366" s="47"/>
+      <c r="D366" s="42"/>
+      <c r="E366" s="42"/>
+      <c r="F366" s="43"/>
     </row>
     <row r="367" spans="2:6" ht="13.5" thickBot="1">
       <c r="B367" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C367" s="45" t="s">
+      <c r="C367" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="D367" s="46"/>
-      <c r="E367" s="46"/>
-      <c r="F367" s="47"/>
+      <c r="D367" s="42"/>
+      <c r="E367" s="42"/>
+      <c r="F367" s="43"/>
     </row>
     <row r="368" spans="2:6" ht="13.5" thickBot="1">
       <c r="B368" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C368" s="48" t="s">
+      <c r="C368" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D368" s="49"/>
-      <c r="E368" s="49"/>
-      <c r="F368" s="50"/>
+      <c r="D368" s="45"/>
+      <c r="E368" s="45"/>
+      <c r="F368" s="46"/>
     </row>
     <row r="369" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B369" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C369" s="51" t="s">
+      <c r="C369" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D369" s="52"/>
-      <c r="E369" s="52"/>
-      <c r="F369" s="53"/>
+      <c r="D369" s="48"/>
+      <c r="E369" s="48"/>
+      <c r="F369" s="49"/>
     </row>
     <row r="370" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B370" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C370" s="54"/>
-      <c r="D370" s="55"/>
-      <c r="E370" s="55"/>
-      <c r="F370" s="56"/>
+      <c r="C370" s="50"/>
+      <c r="D370" s="51"/>
+      <c r="E370" s="51"/>
+      <c r="F370" s="52"/>
     </row>
     <row r="371" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B371" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C371" s="25" t="s">
+      <c r="C371" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="26"/>
-      <c r="E371" s="26"/>
-      <c r="F371" s="27"/>
+      <c r="D371" s="54"/>
+      <c r="E371" s="54"/>
+      <c r="F371" s="55"/>
     </row>
     <row r="372" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C372" s="25" t="s">
+      <c r="C372" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D372" s="26"/>
-      <c r="E372" s="26"/>
-      <c r="F372" s="27"/>
+      <c r="D372" s="54"/>
+      <c r="E372" s="54"/>
+      <c r="F372" s="55"/>
     </row>
     <row r="373" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B373" s="25"/>
-      <c r="C373" s="26"/>
-      <c r="D373" s="26"/>
-      <c r="E373" s="26"/>
-      <c r="F373" s="27"/>
+      <c r="B373" s="53"/>
+      <c r="C373" s="54"/>
+      <c r="D373" s="54"/>
+      <c r="E373" s="54"/>
+      <c r="F373" s="55"/>
     </row>
     <row r="374" spans="2:6" ht="13.5" thickBot="1">
       <c r="B374" s="7" t="s">
@@ -12261,13 +12265,13 @@
       </c>
     </row>
     <row r="375" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B375" s="28" t="s">
+      <c r="B375" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C375" s="29"/>
-      <c r="D375" s="29"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="30"/>
+      <c r="C375" s="26"/>
+      <c r="D375" s="26"/>
+      <c r="E375" s="26"/>
+      <c r="F375" s="27"/>
     </row>
     <row r="376" spans="2:6" ht="14.25" thickBot="1">
       <c r="B376" s="1" t="s">
@@ -12285,20 +12289,20 @@
       <c r="F376" s="9"/>
     </row>
     <row r="377" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B377" s="31"/>
-      <c r="C377" s="32"/>
-      <c r="D377" s="32"/>
-      <c r="E377" s="32"/>
-      <c r="F377" s="33"/>
+      <c r="B377" s="28"/>
+      <c r="C377" s="29"/>
+      <c r="D377" s="29"/>
+      <c r="E377" s="29"/>
+      <c r="F377" s="30"/>
     </row>
     <row r="378" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B378" s="28" t="s">
+      <c r="B378" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C378" s="29"/>
-      <c r="D378" s="29"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="30"/>
+      <c r="C378" s="26"/>
+      <c r="D378" s="26"/>
+      <c r="E378" s="26"/>
+      <c r="F378" s="27"/>
     </row>
     <row r="379" spans="2:6" ht="14.25" thickBot="1">
       <c r="B379" s="1" t="s">
@@ -12370,150 +12374,150 @@
       <c r="F383" s="4"/>
     </row>
     <row r="384" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B384" s="28" t="s">
+      <c r="B384" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="30"/>
+      <c r="C384" s="26"/>
+      <c r="D384" s="26"/>
+      <c r="E384" s="26"/>
+      <c r="F384" s="27"/>
     </row>
     <row r="385" spans="2:6">
-      <c r="B385" s="34" t="s">
+      <c r="B385" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C385" s="35"/>
-      <c r="D385" s="35"/>
-      <c r="E385" s="35"/>
-      <c r="F385" s="36"/>
+      <c r="C385" s="32"/>
+      <c r="D385" s="32"/>
+      <c r="E385" s="32"/>
+      <c r="F385" s="33"/>
     </row>
     <row r="386" spans="2:6">
-      <c r="B386" s="37"/>
-      <c r="C386" s="38"/>
-      <c r="D386" s="38"/>
-      <c r="E386" s="38"/>
-      <c r="F386" s="39"/>
+      <c r="B386" s="34"/>
+      <c r="C386" s="35"/>
+      <c r="D386" s="35"/>
+      <c r="E386" s="35"/>
+      <c r="F386" s="36"/>
     </row>
     <row r="387" spans="2:6">
-      <c r="B387" s="37"/>
-      <c r="C387" s="38"/>
-      <c r="D387" s="38"/>
-      <c r="E387" s="38"/>
-      <c r="F387" s="39"/>
+      <c r="B387" s="34"/>
+      <c r="C387" s="35"/>
+      <c r="D387" s="35"/>
+      <c r="E387" s="35"/>
+      <c r="F387" s="36"/>
     </row>
     <row r="388" spans="2:6">
-      <c r="B388" s="37"/>
-      <c r="C388" s="38"/>
-      <c r="D388" s="38"/>
-      <c r="E388" s="38"/>
-      <c r="F388" s="39"/>
+      <c r="B388" s="34"/>
+      <c r="C388" s="35"/>
+      <c r="D388" s="35"/>
+      <c r="E388" s="35"/>
+      <c r="F388" s="36"/>
     </row>
     <row r="389" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B389" s="40"/>
-      <c r="C389" s="41"/>
-      <c r="D389" s="41"/>
-      <c r="E389" s="41"/>
-      <c r="F389" s="42"/>
+      <c r="B389" s="37"/>
+      <c r="C389" s="38"/>
+      <c r="D389" s="38"/>
+      <c r="E389" s="38"/>
+      <c r="F389" s="39"/>
     </row>
     <row r="391" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B391" s="43" t="s">
+      <c r="B391" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C391" s="43"/>
-      <c r="D391" s="43"/>
-      <c r="E391" s="43"/>
-      <c r="F391" s="43"/>
+      <c r="C391" s="59"/>
+      <c r="D391" s="59"/>
+      <c r="E391" s="59"/>
+      <c r="F391" s="59"/>
     </row>
     <row r="392" spans="2:6" ht="21" thickBot="1">
-      <c r="B392" s="44" t="s">
+      <c r="B392" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C392" s="44"/>
-      <c r="D392" s="44"/>
-      <c r="E392" s="44"/>
-      <c r="F392" s="44"/>
+      <c r="C392" s="40"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="40"/>
     </row>
     <row r="393" spans="2:6" ht="13.5" thickBot="1">
       <c r="B393" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C393" s="45" t="s">
+      <c r="C393" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D393" s="46"/>
-      <c r="E393" s="46"/>
-      <c r="F393" s="47"/>
+      <c r="D393" s="42"/>
+      <c r="E393" s="42"/>
+      <c r="F393" s="43"/>
     </row>
     <row r="394" spans="2:6" ht="13.5" thickBot="1">
       <c r="B394" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C394" s="45" t="s">
+      <c r="C394" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="D394" s="46"/>
-      <c r="E394" s="46"/>
-      <c r="F394" s="47"/>
+      <c r="D394" s="42"/>
+      <c r="E394" s="42"/>
+      <c r="F394" s="43"/>
     </row>
     <row r="395" spans="2:6" ht="13.5" thickBot="1">
       <c r="B395" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C395" s="48" t="s">
+      <c r="C395" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D395" s="49"/>
-      <c r="E395" s="49"/>
-      <c r="F395" s="50"/>
+      <c r="D395" s="45"/>
+      <c r="E395" s="45"/>
+      <c r="F395" s="46"/>
     </row>
     <row r="396" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B396" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C396" s="51" t="s">
+      <c r="C396" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="52"/>
-      <c r="E396" s="52"/>
-      <c r="F396" s="53"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="48"/>
+      <c r="F396" s="49"/>
     </row>
     <row r="397" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B397" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C397" s="54"/>
-      <c r="D397" s="55"/>
-      <c r="E397" s="55"/>
-      <c r="F397" s="56"/>
+      <c r="C397" s="50"/>
+      <c r="D397" s="51"/>
+      <c r="E397" s="51"/>
+      <c r="F397" s="52"/>
     </row>
     <row r="398" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B398" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C398" s="25" t="s">
+      <c r="C398" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D398" s="26"/>
-      <c r="E398" s="26"/>
-      <c r="F398" s="27"/>
+      <c r="D398" s="54"/>
+      <c r="E398" s="54"/>
+      <c r="F398" s="55"/>
     </row>
     <row r="399" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B399" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C399" s="25" t="s">
+      <c r="C399" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D399" s="26"/>
-      <c r="E399" s="26"/>
-      <c r="F399" s="27"/>
+      <c r="D399" s="54"/>
+      <c r="E399" s="54"/>
+      <c r="F399" s="55"/>
     </row>
     <row r="400" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B400" s="25"/>
-      <c r="C400" s="26"/>
-      <c r="D400" s="26"/>
-      <c r="E400" s="26"/>
-      <c r="F400" s="27"/>
+      <c r="B400" s="53"/>
+      <c r="C400" s="54"/>
+      <c r="D400" s="54"/>
+      <c r="E400" s="54"/>
+      <c r="F400" s="55"/>
     </row>
     <row r="401" spans="2:6" ht="13.5" thickBot="1">
       <c r="B401" s="7" t="s">
@@ -12531,13 +12535,13 @@
       </c>
     </row>
     <row r="402" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B402" s="28" t="s">
+      <c r="B402" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C402" s="29"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="29"/>
-      <c r="F402" s="30"/>
+      <c r="C402" s="26"/>
+      <c r="D402" s="26"/>
+      <c r="E402" s="26"/>
+      <c r="F402" s="27"/>
     </row>
     <row r="403" spans="2:6" ht="14.25" thickBot="1">
       <c r="B403" s="1" t="s">
@@ -12564,20 +12568,20 @@
       <c r="F404" s="9"/>
     </row>
     <row r="405" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B405" s="31"/>
-      <c r="C405" s="32"/>
-      <c r="D405" s="32"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="33"/>
+      <c r="B405" s="28"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29"/>
+      <c r="F405" s="30"/>
     </row>
     <row r="406" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B406" s="28" t="s">
+      <c r="B406" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C406" s="29"/>
-      <c r="D406" s="29"/>
-      <c r="E406" s="29"/>
-      <c r="F406" s="30"/>
+      <c r="C406" s="26"/>
+      <c r="D406" s="26"/>
+      <c r="E406" s="26"/>
+      <c r="F406" s="27"/>
     </row>
     <row r="407" spans="2:6" ht="14.25" thickBot="1">
       <c r="B407" s="1" t="s">
@@ -12613,7 +12617,7 @@
         <v>47</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="E409" s="4"/>
       <c r="F409" s="9"/>
@@ -12647,142 +12651,142 @@
       <c r="F411" s="4"/>
     </row>
     <row r="412" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B412" s="28" t="s">
+      <c r="B412" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C412" s="29"/>
-      <c r="D412" s="29"/>
-      <c r="E412" s="29"/>
-      <c r="F412" s="30"/>
+      <c r="C412" s="26"/>
+      <c r="D412" s="26"/>
+      <c r="E412" s="26"/>
+      <c r="F412" s="27"/>
     </row>
     <row r="413" spans="2:6">
-      <c r="B413" s="34" t="s">
+      <c r="B413" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C413" s="35"/>
-      <c r="D413" s="35"/>
-      <c r="E413" s="35"/>
-      <c r="F413" s="36"/>
+      <c r="C413" s="32"/>
+      <c r="D413" s="32"/>
+      <c r="E413" s="32"/>
+      <c r="F413" s="33"/>
     </row>
     <row r="414" spans="2:6">
-      <c r="B414" s="37"/>
-      <c r="C414" s="38"/>
-      <c r="D414" s="38"/>
-      <c r="E414" s="38"/>
-      <c r="F414" s="39"/>
+      <c r="B414" s="34"/>
+      <c r="C414" s="35"/>
+      <c r="D414" s="35"/>
+      <c r="E414" s="35"/>
+      <c r="F414" s="36"/>
     </row>
     <row r="415" spans="2:6">
-      <c r="B415" s="37"/>
-      <c r="C415" s="38"/>
-      <c r="D415" s="38"/>
-      <c r="E415" s="38"/>
-      <c r="F415" s="39"/>
+      <c r="B415" s="34"/>
+      <c r="C415" s="35"/>
+      <c r="D415" s="35"/>
+      <c r="E415" s="35"/>
+      <c r="F415" s="36"/>
     </row>
     <row r="416" spans="2:6">
-      <c r="B416" s="37"/>
-      <c r="C416" s="38"/>
-      <c r="D416" s="38"/>
-      <c r="E416" s="38"/>
-      <c r="F416" s="39"/>
-    </row>
-    <row r="417" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B417" s="40"/>
-      <c r="C417" s="41"/>
-      <c r="D417" s="41"/>
-      <c r="E417" s="41"/>
-      <c r="F417" s="42"/>
+      <c r="B416" s="34"/>
+      <c r="C416" s="35"/>
+      <c r="D416" s="35"/>
+      <c r="E416" s="35"/>
+      <c r="F416" s="36"/>
+    </row>
+    <row r="417" spans="2:6" ht="193.5" customHeight="1" thickBot="1">
+      <c r="B417" s="37"/>
+      <c r="C417" s="38"/>
+      <c r="D417" s="38"/>
+      <c r="E417" s="38"/>
+      <c r="F417" s="39"/>
     </row>
     <row r="418" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="419" spans="2:6" ht="21" thickBot="1">
-      <c r="B419" s="44" t="s">
+      <c r="B419" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C419" s="44"/>
-      <c r="D419" s="44"/>
-      <c r="E419" s="44"/>
-      <c r="F419" s="44"/>
+      <c r="C419" s="40"/>
+      <c r="D419" s="40"/>
+      <c r="E419" s="40"/>
+      <c r="F419" s="40"/>
     </row>
     <row r="420" spans="2:6" ht="13.5" thickBot="1">
       <c r="B420" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C420" s="45" t="s">
+      <c r="C420" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D420" s="46"/>
-      <c r="E420" s="46"/>
-      <c r="F420" s="47"/>
+      <c r="D420" s="42"/>
+      <c r="E420" s="42"/>
+      <c r="F420" s="43"/>
     </row>
     <row r="421" spans="2:6" ht="13.5" thickBot="1">
       <c r="B421" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C421" s="45" t="s">
+      <c r="C421" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D421" s="46"/>
-      <c r="E421" s="46"/>
-      <c r="F421" s="47"/>
+      <c r="D421" s="42"/>
+      <c r="E421" s="42"/>
+      <c r="F421" s="43"/>
     </row>
     <row r="422" spans="2:6" ht="13.5" thickBot="1">
       <c r="B422" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C422" s="48" t="s">
+      <c r="C422" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D422" s="49"/>
-      <c r="E422" s="49"/>
-      <c r="F422" s="50"/>
+      <c r="D422" s="45"/>
+      <c r="E422" s="45"/>
+      <c r="F422" s="46"/>
     </row>
     <row r="423" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B423" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C423" s="51" t="s">
+      <c r="C423" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D423" s="52"/>
-      <c r="E423" s="52"/>
-      <c r="F423" s="53"/>
+      <c r="D423" s="48"/>
+      <c r="E423" s="48"/>
+      <c r="F423" s="49"/>
     </row>
     <row r="424" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B424" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C424" s="54"/>
-      <c r="D424" s="55"/>
-      <c r="E424" s="55"/>
-      <c r="F424" s="56"/>
+      <c r="C424" s="50"/>
+      <c r="D424" s="51"/>
+      <c r="E424" s="51"/>
+      <c r="F424" s="52"/>
     </row>
     <row r="425" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B425" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C425" s="25" t="s">
+      <c r="C425" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D425" s="26"/>
-      <c r="E425" s="26"/>
-      <c r="F425" s="27"/>
+      <c r="D425" s="54"/>
+      <c r="E425" s="54"/>
+      <c r="F425" s="55"/>
     </row>
     <row r="426" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B426" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C426" s="25" t="s">
+      <c r="C426" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D426" s="26"/>
-      <c r="E426" s="26"/>
-      <c r="F426" s="27"/>
+      <c r="D426" s="54"/>
+      <c r="E426" s="54"/>
+      <c r="F426" s="55"/>
     </row>
     <row r="427" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B427" s="25"/>
-      <c r="C427" s="26"/>
-      <c r="D427" s="26"/>
-      <c r="E427" s="26"/>
-      <c r="F427" s="27"/>
+      <c r="B427" s="53"/>
+      <c r="C427" s="54"/>
+      <c r="D427" s="54"/>
+      <c r="E427" s="54"/>
+      <c r="F427" s="55"/>
     </row>
     <row r="428" spans="2:6" ht="13.5" thickBot="1">
       <c r="B428" s="7" t="s">
@@ -12800,13 +12804,13 @@
       </c>
     </row>
     <row r="429" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B429" s="28" t="s">
+      <c r="B429" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C429" s="29"/>
-      <c r="D429" s="29"/>
-      <c r="E429" s="29"/>
-      <c r="F429" s="30"/>
+      <c r="C429" s="26"/>
+      <c r="D429" s="26"/>
+      <c r="E429" s="26"/>
+      <c r="F429" s="27"/>
     </row>
     <row r="430" spans="2:6" ht="14.25" thickBot="1">
       <c r="B430" s="1" t="s">
@@ -12833,20 +12837,20 @@
       <c r="F431" s="9"/>
     </row>
     <row r="432" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B432" s="31"/>
-      <c r="C432" s="32"/>
-      <c r="D432" s="32"/>
-      <c r="E432" s="32"/>
-      <c r="F432" s="33"/>
+      <c r="B432" s="28"/>
+      <c r="C432" s="29"/>
+      <c r="D432" s="29"/>
+      <c r="E432" s="29"/>
+      <c r="F432" s="30"/>
     </row>
     <row r="433" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B433" s="28" t="s">
+      <c r="B433" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C433" s="29"/>
-      <c r="D433" s="29"/>
-      <c r="E433" s="29"/>
-      <c r="F433" s="30"/>
+      <c r="C433" s="26"/>
+      <c r="D433" s="26"/>
+      <c r="E433" s="26"/>
+      <c r="F433" s="27"/>
     </row>
     <row r="434" spans="2:6" ht="14.25" thickBot="1">
       <c r="B434" s="1" t="s">
@@ -12916,99 +12920,216 @@
       <c r="F438" s="4"/>
     </row>
     <row r="439" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B439" s="28" t="s">
+      <c r="B439" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C439" s="29"/>
-      <c r="D439" s="29"/>
-      <c r="E439" s="29"/>
-      <c r="F439" s="30"/>
+      <c r="C439" s="26"/>
+      <c r="D439" s="26"/>
+      <c r="E439" s="26"/>
+      <c r="F439" s="27"/>
     </row>
     <row r="440" spans="2:6">
-      <c r="B440" s="34" t="s">
+      <c r="B440" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C440" s="35"/>
-      <c r="D440" s="35"/>
-      <c r="E440" s="35"/>
-      <c r="F440" s="36"/>
+      <c r="C440" s="32"/>
+      <c r="D440" s="32"/>
+      <c r="E440" s="32"/>
+      <c r="F440" s="33"/>
     </row>
     <row r="441" spans="2:6">
-      <c r="B441" s="37"/>
-      <c r="C441" s="38"/>
-      <c r="D441" s="38"/>
-      <c r="E441" s="38"/>
-      <c r="F441" s="39"/>
+      <c r="B441" s="34"/>
+      <c r="C441" s="35"/>
+      <c r="D441" s="35"/>
+      <c r="E441" s="35"/>
+      <c r="F441" s="36"/>
     </row>
     <row r="442" spans="2:6">
-      <c r="B442" s="37"/>
-      <c r="C442" s="38"/>
-      <c r="D442" s="38"/>
-      <c r="E442" s="38"/>
-      <c r="F442" s="39"/>
+      <c r="B442" s="34"/>
+      <c r="C442" s="35"/>
+      <c r="D442" s="35"/>
+      <c r="E442" s="35"/>
+      <c r="F442" s="36"/>
     </row>
     <row r="443" spans="2:6">
-      <c r="B443" s="37"/>
-      <c r="C443" s="38"/>
-      <c r="D443" s="38"/>
-      <c r="E443" s="38"/>
-      <c r="F443" s="39"/>
+      <c r="B443" s="34"/>
+      <c r="C443" s="35"/>
+      <c r="D443" s="35"/>
+      <c r="E443" s="35"/>
+      <c r="F443" s="36"/>
     </row>
     <row r="444" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B444" s="40"/>
-      <c r="C444" s="41"/>
-      <c r="D444" s="41"/>
-      <c r="E444" s="41"/>
-      <c r="F444" s="42"/>
+      <c r="B444" s="37"/>
+      <c r="C444" s="38"/>
+      <c r="D444" s="38"/>
+      <c r="E444" s="38"/>
+      <c r="F444" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F389"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="C372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="C396:F396"/>
-    <mergeCell ref="C397:F397"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="C399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F444"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="C420:F420"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C424:F424"/>
+    <mergeCell ref="C425:F425"/>
+    <mergeCell ref="C426:F426"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F417"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C394:F394"/>
+    <mergeCell ref="C395:F395"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F337"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="C318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="C316:F316"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B279:F283"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:F14"/>
@@ -13033,169 +13154,52 @@
     <mergeCell ref="C261:F261"/>
     <mergeCell ref="C262:F262"/>
     <mergeCell ref="C263:F263"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F337"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="C318:F318"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="C316:F316"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B279:F283"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F444"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="C420:F420"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C424:F424"/>
-    <mergeCell ref="C425:F425"/>
-    <mergeCell ref="C426:F426"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F417"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C394:F394"/>
-    <mergeCell ref="C395:F395"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C396:F396"/>
+    <mergeCell ref="C397:F397"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F389"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="B373:F373"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -7014,6 +7014,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7059,6 +7068,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7098,15 +7110,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7116,20 +7119,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8430,8 +8430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="D409" sqref="D409"/>
+    <sheetView tabSelected="1" topLeftCell="B395" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371:F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8444,113 +8444,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8568,13 +8568,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -8592,27 +8592,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -8686,148 +8686,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8845,13 +8845,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -8933,73 +8933,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -9019,95 +9019,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="56"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="55"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="55"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="55"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -9125,13 +9125,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -9181,20 +9181,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="56"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="58"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -9268,50 +9268,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="36"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="34"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="36"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="34"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="34"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="37"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -9331,95 +9331,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="47"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="46"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="49"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="53"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="52"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="56"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="55"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="55"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="53"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="55"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -9437,13 +9437,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="27"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -9480,20 +9480,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="56"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="58"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="59"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="27"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -9565,50 +9565,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="27"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="33"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="34"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="39"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="34"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="36"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="39"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="34"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="36"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="37"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="39"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9628,95 +9628,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="40" t="s">
+      <c r="B120" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="43"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="47"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="43"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="47"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="46"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="50"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="47" t="s">
+      <c r="C124" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="49"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="53"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="50"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="52"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="56"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="53" t="s">
+      <c r="C126" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="55"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C127" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="55"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="53"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="55"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9734,29 +9734,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="25" t="s">
+      <c r="B130" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="27"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="30"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="56"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="58"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="59"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="27"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="30"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -9828,50 +9828,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="27"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="30"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="33"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="36"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="34"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="36"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="39"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="34"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="36"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="39"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="34"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="36"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="39"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="37"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="39"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9891,95 +9891,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="40"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="41" t="s">
+      <c r="C148" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="43"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="47"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="43"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="47"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="44" t="s">
+      <c r="C150" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="46"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="50"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C151" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="48"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="49"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="53"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="50"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="52"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="56"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="53" t="s">
+      <c r="C153" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="55"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="27"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="53" t="s">
+      <c r="C154" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="55"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="27"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="53"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="55"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9997,29 +9997,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="25" t="s">
+      <c r="B157" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="27"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="30"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="56"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="58"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="59"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="25" t="s">
+      <c r="B159" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="27"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -10091,50 +10091,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="27"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="30"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="62" t="s">
+      <c r="B166" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="33"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="36"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="34"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="36"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="39"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="34"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="36"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="39"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="34"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="36"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="39"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="37"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="38"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="39"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="42"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -10144,95 +10144,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="40" t="s">
+      <c r="B172" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="44"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="41" t="s">
+      <c r="C173" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="43"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="47"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="41" t="s">
+      <c r="C174" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="42"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="43"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="47"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="45"/>
-      <c r="E175" s="45"/>
-      <c r="F175" s="46"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="49"/>
+      <c r="F175" s="50"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="47" t="s">
+      <c r="C176" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="49"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="53"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="50"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
-      <c r="F177" s="52"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="56"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="53" t="s">
+      <c r="C178" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="55"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="27"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="53" t="s">
+      <c r="C179" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="55"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="53"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="55"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -10250,13 +10250,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="27"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -10274,20 +10274,20 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="56"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="58"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="59"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="27"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="30"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -10359,50 +10359,50 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="25" t="s">
+      <c r="B191" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="27"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="30"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="33"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="36"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="34"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="36"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="39"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="34"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="36"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="39"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="34"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="36"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="39"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="37"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="38"/>
-      <c r="E196" s="38"/>
-      <c r="F196" s="39"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="41"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="41"/>
+      <c r="F196" s="42"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -10412,95 +10412,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="40" t="s">
+      <c r="B198" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="40"/>
-      <c r="D198" s="40"/>
-      <c r="E198" s="40"/>
-      <c r="F198" s="40"/>
+      <c r="C198" s="44"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44"/>
+      <c r="F198" s="44"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="41" t="s">
+      <c r="C199" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="42"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="43"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="47"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="41" t="s">
+      <c r="C200" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="42"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="43"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="47"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="44" t="s">
+      <c r="C201" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="45"/>
-      <c r="E201" s="45"/>
-      <c r="F201" s="46"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="50"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="48"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="49"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="53"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="50"/>
-      <c r="D203" s="51"/>
-      <c r="E203" s="51"/>
-      <c r="F203" s="52"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="56"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="53" t="s">
+      <c r="C204" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="55"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="27"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="53" t="s">
+      <c r="C205" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="55"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="27"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="53"/>
-      <c r="C206" s="54"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="55"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="27"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10518,13 +10518,13 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="25" t="s">
+      <c r="B208" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="27"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="30"/>
     </row>
     <row r="209" spans="2:6" ht="14.25" thickBot="1">
       <c r="B209" s="20" t="s">
@@ -10559,20 +10559,20 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="56"/>
-      <c r="C211" s="57"/>
-      <c r="D211" s="57"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="58"/>
+      <c r="B211" s="57"/>
+      <c r="C211" s="58"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="59"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B212" s="25" t="s">
+      <c r="B212" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="27"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="30"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -10644,50 +10644,50 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B218" s="25" t="s">
+      <c r="B218" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="27"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
+      <c r="F218" s="30"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="62" t="s">
+      <c r="B219" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="33"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="35"/>
+      <c r="F219" s="36"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="34"/>
-      <c r="C220" s="35"/>
-      <c r="D220" s="35"/>
-      <c r="E220" s="35"/>
-      <c r="F220" s="36"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="39"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="34"/>
-      <c r="C221" s="35"/>
-      <c r="D221" s="35"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="36"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="39"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="34"/>
-      <c r="C222" s="35"/>
-      <c r="D222" s="35"/>
-      <c r="E222" s="35"/>
-      <c r="F222" s="36"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="39"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="37"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="39"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="42"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10697,95 +10697,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="40" t="s">
+      <c r="B225" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="40"/>
+      <c r="C225" s="44"/>
+      <c r="D225" s="44"/>
+      <c r="E225" s="44"/>
+      <c r="F225" s="44"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="41" t="s">
+      <c r="C226" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="42"/>
-      <c r="E226" s="42"/>
-      <c r="F226" s="43"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="47"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="44" t="s">
+      <c r="C227" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="45"/>
-      <c r="E227" s="45"/>
-      <c r="F227" s="46"/>
+      <c r="D227" s="49"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="50"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="44" t="s">
+      <c r="C228" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="45"/>
-      <c r="E228" s="45"/>
-      <c r="F228" s="46"/>
+      <c r="D228" s="49"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="50"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="47" t="s">
+      <c r="C229" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="48"/>
-      <c r="E229" s="48"/>
-      <c r="F229" s="49"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="53"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="50"/>
-      <c r="D230" s="51"/>
-      <c r="E230" s="51"/>
-      <c r="F230" s="52"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="55"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="56"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="53" t="s">
+      <c r="C231" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="54"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="55"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="27"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="53" t="s">
+      <c r="C232" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="54"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="55"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="27"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="53"/>
-      <c r="C233" s="54"/>
-      <c r="D233" s="54"/>
-      <c r="E233" s="54"/>
-      <c r="F233" s="55"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" s="27"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10803,13 +10803,13 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="25" t="s">
+      <c r="B235" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
-      <c r="F235" s="27"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="30"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
@@ -10931,27 +10931,27 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="56"/>
-      <c r="C243" s="57"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="57"/>
-      <c r="F243" s="58"/>
+      <c r="B243" s="57"/>
+      <c r="C243" s="58"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="59"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="28"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="30"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="33"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="25" t="s">
+      <c r="B245" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="27"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="30"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
@@ -11025,50 +11025,50 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B251" s="25" t="s">
+      <c r="B251" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-      <c r="F251" s="27"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="30"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="31" t="s">
+      <c r="B252" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="33"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="35"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="36"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="34"/>
-      <c r="C253" s="35"/>
-      <c r="D253" s="35"/>
-      <c r="E253" s="35"/>
-      <c r="F253" s="36"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="38"/>
+      <c r="D253" s="38"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="39"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="34"/>
-      <c r="C254" s="35"/>
-      <c r="D254" s="35"/>
-      <c r="E254" s="35"/>
-      <c r="F254" s="36"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="38"/>
+      <c r="D254" s="38"/>
+      <c r="E254" s="38"/>
+      <c r="F254" s="39"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="34"/>
-      <c r="C255" s="35"/>
-      <c r="D255" s="35"/>
-      <c r="E255" s="35"/>
-      <c r="F255" s="36"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38"/>
+      <c r="E255" s="38"/>
+      <c r="F255" s="39"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="37"/>
-      <c r="C256" s="38"/>
-      <c r="D256" s="38"/>
-      <c r="E256" s="38"/>
-      <c r="F256" s="39"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="42"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -11078,104 +11078,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="59"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
+      <c r="C258" s="43"/>
+      <c r="D258" s="43"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="40" t="s">
+      <c r="B259" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40"/>
-      <c r="E259" s="40"/>
-      <c r="F259" s="40"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44"/>
+      <c r="F259" s="44"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="41" t="s">
+      <c r="C260" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="42"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="43"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="46"/>
+      <c r="F260" s="47"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="41" t="s">
+      <c r="C261" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="42"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="43"/>
+      <c r="D261" s="46"/>
+      <c r="E261" s="46"/>
+      <c r="F261" s="47"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="44" t="s">
+      <c r="C262" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="45"/>
-      <c r="E262" s="45"/>
-      <c r="F262" s="46"/>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="50"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="47" t="s">
+      <c r="C263" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="48"/>
-      <c r="E263" s="48"/>
-      <c r="F263" s="49"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="53"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="50"/>
-      <c r="D264" s="51"/>
-      <c r="E264" s="51"/>
-      <c r="F264" s="52"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="56"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="53" t="s">
+      <c r="C265" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="54"/>
-      <c r="E265" s="54"/>
-      <c r="F265" s="55"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="27"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="53" t="s">
+      <c r="C266" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
-      <c r="F266" s="55"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="27"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="53"/>
-      <c r="C267" s="54"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="55"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="27"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -11193,13 +11193,13 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B269" s="25" t="s">
+      <c r="B269" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="27"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="30"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
       <c r="B270" s="1" t="s">
@@ -11217,20 +11217,20 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="28"/>
-      <c r="C271" s="29"/>
-      <c r="D271" s="29"/>
-      <c r="E271" s="29"/>
-      <c r="F271" s="30"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="33"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="25" t="s">
+      <c r="B272" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="27"/>
+      <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
+      <c r="E272" s="29"/>
+      <c r="F272" s="30"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
@@ -11302,142 +11302,142 @@
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B278" s="25" t="s">
+      <c r="B278" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="26"/>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" s="27"/>
+      <c r="C278" s="29"/>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29"/>
+      <c r="F278" s="30"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="31" t="s">
+      <c r="B279" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="32"/>
-      <c r="D279" s="32"/>
-      <c r="E279" s="32"/>
-      <c r="F279" s="33"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="35"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="36"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="34"/>
-      <c r="C280" s="35"/>
-      <c r="D280" s="35"/>
-      <c r="E280" s="35"/>
-      <c r="F280" s="36"/>
+      <c r="B280" s="37"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38"/>
+      <c r="E280" s="38"/>
+      <c r="F280" s="39"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="34"/>
-      <c r="C281" s="35"/>
-      <c r="D281" s="35"/>
-      <c r="E281" s="35"/>
-      <c r="F281" s="36"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38"/>
+      <c r="E281" s="38"/>
+      <c r="F281" s="39"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="34"/>
-      <c r="C282" s="35"/>
-      <c r="D282" s="35"/>
-      <c r="E282" s="35"/>
-      <c r="F282" s="36"/>
+      <c r="B282" s="37"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
+      <c r="F282" s="39"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="37"/>
-      <c r="C283" s="38"/>
-      <c r="D283" s="38"/>
-      <c r="E283" s="38"/>
-      <c r="F283" s="39"/>
-    </row>
-    <row r="284" spans="2:6" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="41"/>
+      <c r="D283" s="41"/>
+      <c r="E283" s="41"/>
+      <c r="F283" s="42"/>
+    </row>
+    <row r="284" spans="2:6" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="40" t="s">
+      <c r="B285" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="40"/>
-      <c r="D285" s="40"/>
-      <c r="E285" s="40"/>
-      <c r="F285" s="40"/>
+      <c r="C285" s="44"/>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44"/>
+      <c r="F285" s="44"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="41" t="s">
+      <c r="C286" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="42"/>
-      <c r="E286" s="42"/>
-      <c r="F286" s="43"/>
+      <c r="D286" s="46"/>
+      <c r="E286" s="46"/>
+      <c r="F286" s="47"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="41" t="s">
+      <c r="C287" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="42"/>
-      <c r="E287" s="42"/>
-      <c r="F287" s="43"/>
+      <c r="D287" s="46"/>
+      <c r="E287" s="46"/>
+      <c r="F287" s="47"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="44" t="s">
+      <c r="C288" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="45"/>
-      <c r="E288" s="45"/>
-      <c r="F288" s="46"/>
+      <c r="D288" s="49"/>
+      <c r="E288" s="49"/>
+      <c r="F288" s="50"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="47" t="s">
+      <c r="C289" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="48"/>
-      <c r="E289" s="48"/>
-      <c r="F289" s="49"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="53"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="50"/>
-      <c r="D290" s="51"/>
-      <c r="E290" s="51"/>
-      <c r="F290" s="52"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="56"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="53" t="s">
+      <c r="C291" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="55"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="27"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="53" t="s">
+      <c r="C292" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="54"/>
-      <c r="E292" s="54"/>
-      <c r="F292" s="55"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="27"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="53"/>
-      <c r="C293" s="54"/>
-      <c r="D293" s="54"/>
-      <c r="E293" s="54"/>
-      <c r="F293" s="55"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" s="27"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -11455,13 +11455,13 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B295" s="25" t="s">
+      <c r="B295" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="26"/>
-      <c r="D295" s="26"/>
-      <c r="E295" s="26"/>
-      <c r="F295" s="27"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="29"/>
+      <c r="F295" s="30"/>
     </row>
     <row r="296" spans="2:6" ht="27.75" thickBot="1">
       <c r="B296" s="1" t="s">
@@ -11486,20 +11486,20 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="28"/>
-      <c r="C298" s="29"/>
-      <c r="D298" s="29"/>
-      <c r="E298" s="29"/>
-      <c r="F298" s="30"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="32"/>
+      <c r="D298" s="32"/>
+      <c r="E298" s="32"/>
+      <c r="F298" s="33"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B299" s="25" t="s">
+      <c r="B299" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="26"/>
-      <c r="D299" s="26"/>
-      <c r="E299" s="26"/>
-      <c r="F299" s="27"/>
+      <c r="C299" s="29"/>
+      <c r="D299" s="29"/>
+      <c r="E299" s="29"/>
+      <c r="F299" s="30"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
@@ -11571,143 +11571,143 @@
       <c r="F304" s="4"/>
     </row>
     <row r="305" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B305" s="25" t="s">
+      <c r="B305" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C305" s="26"/>
-      <c r="D305" s="26"/>
-      <c r="E305" s="26"/>
-      <c r="F305" s="27"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="29"/>
+      <c r="F305" s="30"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="31" t="s">
+      <c r="B306" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="32"/>
-      <c r="D306" s="32"/>
-      <c r="E306" s="32"/>
-      <c r="F306" s="33"/>
+      <c r="C306" s="35"/>
+      <c r="D306" s="35"/>
+      <c r="E306" s="35"/>
+      <c r="F306" s="36"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="34"/>
-      <c r="C307" s="35"/>
-      <c r="D307" s="35"/>
-      <c r="E307" s="35"/>
-      <c r="F307" s="36"/>
+      <c r="B307" s="37"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="38"/>
+      <c r="E307" s="38"/>
+      <c r="F307" s="39"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="34"/>
-      <c r="C308" s="35"/>
-      <c r="D308" s="35"/>
-      <c r="E308" s="35"/>
-      <c r="F308" s="36"/>
+      <c r="B308" s="37"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="38"/>
+      <c r="E308" s="38"/>
+      <c r="F308" s="39"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="34"/>
-      <c r="C309" s="35"/>
-      <c r="D309" s="35"/>
-      <c r="E309" s="35"/>
-      <c r="F309" s="36"/>
+      <c r="B309" s="37"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="38"/>
+      <c r="E309" s="38"/>
+      <c r="F309" s="39"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="37"/>
-      <c r="C310" s="38"/>
-      <c r="D310" s="38"/>
-      <c r="E310" s="38"/>
-      <c r="F310" s="39"/>
+      <c r="B310" s="40"/>
+      <c r="C310" s="41"/>
+      <c r="D310" s="41"/>
+      <c r="E310" s="41"/>
+      <c r="F310" s="42"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="40" t="s">
+      <c r="B313" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="40"/>
-      <c r="D313" s="40"/>
-      <c r="E313" s="40"/>
-      <c r="F313" s="40"/>
+      <c r="C313" s="44"/>
+      <c r="D313" s="44"/>
+      <c r="E313" s="44"/>
+      <c r="F313" s="44"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="41" t="s">
+      <c r="C314" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="42"/>
-      <c r="E314" s="42"/>
-      <c r="F314" s="43"/>
+      <c r="D314" s="46"/>
+      <c r="E314" s="46"/>
+      <c r="F314" s="47"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="41" t="s">
+      <c r="C315" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="42"/>
-      <c r="E315" s="42"/>
-      <c r="F315" s="43"/>
+      <c r="D315" s="46"/>
+      <c r="E315" s="46"/>
+      <c r="F315" s="47"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="44" t="s">
+      <c r="C316" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="45"/>
-      <c r="E316" s="45"/>
-      <c r="F316" s="46"/>
+      <c r="D316" s="49"/>
+      <c r="E316" s="49"/>
+      <c r="F316" s="50"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="47" t="s">
+      <c r="C317" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="48"/>
-      <c r="E317" s="48"/>
-      <c r="F317" s="49"/>
+      <c r="D317" s="52"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="50"/>
-      <c r="D318" s="51"/>
-      <c r="E318" s="51"/>
-      <c r="F318" s="52"/>
+      <c r="C318" s="54"/>
+      <c r="D318" s="55"/>
+      <c r="E318" s="55"/>
+      <c r="F318" s="56"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="53" t="s">
+      <c r="C319" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="54"/>
-      <c r="E319" s="54"/>
-      <c r="F319" s="55"/>
+      <c r="D319" s="26"/>
+      <c r="E319" s="26"/>
+      <c r="F319" s="27"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="53" t="s">
+      <c r="C320" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="54"/>
-      <c r="E320" s="54"/>
-      <c r="F320" s="55"/>
+      <c r="D320" s="26"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="27"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="53"/>
-      <c r="C321" s="54"/>
-      <c r="D321" s="54"/>
-      <c r="E321" s="54"/>
-      <c r="F321" s="55"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
+      <c r="F321" s="27"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11725,13 +11725,13 @@
       </c>
     </row>
     <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B323" s="25" t="s">
+      <c r="B323" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C323" s="26"/>
-      <c r="D323" s="26"/>
-      <c r="E323" s="26"/>
-      <c r="F323" s="27"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
+      <c r="E323" s="29"/>
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
       <c r="B324" s="1" t="s">
@@ -11749,20 +11749,20 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="28"/>
-      <c r="C325" s="29"/>
-      <c r="D325" s="29"/>
-      <c r="E325" s="29"/>
-      <c r="F325" s="30"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="32"/>
+      <c r="E325" s="32"/>
+      <c r="F325" s="33"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B326" s="25" t="s">
+      <c r="B326" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="26"/>
-      <c r="D326" s="26"/>
-      <c r="E326" s="26"/>
-      <c r="F326" s="27"/>
+      <c r="C326" s="29"/>
+      <c r="D326" s="29"/>
+      <c r="E326" s="29"/>
+      <c r="F326" s="30"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
@@ -11834,142 +11834,142 @@
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B332" s="25" t="s">
+      <c r="B332" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="26"/>
-      <c r="D332" s="26"/>
-      <c r="E332" s="26"/>
-      <c r="F332" s="27"/>
+      <c r="C332" s="29"/>
+      <c r="D332" s="29"/>
+      <c r="E332" s="29"/>
+      <c r="F332" s="30"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="31" t="s">
+      <c r="B333" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="32"/>
-      <c r="D333" s="32"/>
-      <c r="E333" s="32"/>
-      <c r="F333" s="33"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="35"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="36"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="34"/>
-      <c r="C334" s="35"/>
-      <c r="D334" s="35"/>
-      <c r="E334" s="35"/>
-      <c r="F334" s="36"/>
+      <c r="B334" s="37"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="39"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="34"/>
-      <c r="C335" s="35"/>
-      <c r="D335" s="35"/>
-      <c r="E335" s="35"/>
-      <c r="F335" s="36"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="38"/>
+      <c r="E335" s="38"/>
+      <c r="F335" s="39"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="34"/>
-      <c r="C336" s="35"/>
-      <c r="D336" s="35"/>
-      <c r="E336" s="35"/>
-      <c r="F336" s="36"/>
+      <c r="B336" s="37"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="38"/>
+      <c r="E336" s="38"/>
+      <c r="F336" s="39"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="37"/>
-      <c r="C337" s="38"/>
-      <c r="D337" s="38"/>
-      <c r="E337" s="38"/>
-      <c r="F337" s="39"/>
+      <c r="B337" s="40"/>
+      <c r="C337" s="41"/>
+      <c r="D337" s="41"/>
+      <c r="E337" s="41"/>
+      <c r="F337" s="42"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="40" t="s">
+      <c r="B339" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="40"/>
-      <c r="D339" s="40"/>
-      <c r="E339" s="40"/>
-      <c r="F339" s="40"/>
+      <c r="C339" s="44"/>
+      <c r="D339" s="44"/>
+      <c r="E339" s="44"/>
+      <c r="F339" s="44"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="41" t="s">
+      <c r="C340" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="42"/>
-      <c r="E340" s="42"/>
-      <c r="F340" s="43"/>
+      <c r="D340" s="46"/>
+      <c r="E340" s="46"/>
+      <c r="F340" s="47"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="41" t="s">
+      <c r="C341" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D341" s="42"/>
-      <c r="E341" s="42"/>
-      <c r="F341" s="43"/>
+      <c r="D341" s="46"/>
+      <c r="E341" s="46"/>
+      <c r="F341" s="47"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="44" t="s">
+      <c r="C342" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="45"/>
-      <c r="E342" s="45"/>
-      <c r="F342" s="46"/>
+      <c r="D342" s="49"/>
+      <c r="E342" s="49"/>
+      <c r="F342" s="50"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="47" t="s">
+      <c r="C343" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="48"/>
-      <c r="E343" s="48"/>
-      <c r="F343" s="49"/>
+      <c r="D343" s="52"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="53"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="50"/>
-      <c r="D344" s="51"/>
-      <c r="E344" s="51"/>
-      <c r="F344" s="52"/>
+      <c r="C344" s="54"/>
+      <c r="D344" s="55"/>
+      <c r="E344" s="55"/>
+      <c r="F344" s="56"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="53" t="s">
+      <c r="C345" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="54"/>
-      <c r="E345" s="54"/>
-      <c r="F345" s="55"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="27"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="53" t="s">
+      <c r="C346" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="54"/>
-      <c r="E346" s="54"/>
-      <c r="F346" s="55"/>
+      <c r="D346" s="26"/>
+      <c r="E346" s="26"/>
+      <c r="F346" s="27"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="53"/>
-      <c r="C347" s="54"/>
-      <c r="D347" s="54"/>
-      <c r="E347" s="54"/>
-      <c r="F347" s="55"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="27"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11987,13 +11987,13 @@
       </c>
     </row>
     <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B349" s="25" t="s">
+      <c r="B349" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C349" s="26"/>
-      <c r="D349" s="26"/>
-      <c r="E349" s="26"/>
-      <c r="F349" s="27"/>
+      <c r="C349" s="29"/>
+      <c r="D349" s="29"/>
+      <c r="E349" s="29"/>
+      <c r="F349" s="30"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
@@ -12030,20 +12030,20 @@
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="28"/>
-      <c r="C352" s="29"/>
-      <c r="D352" s="29"/>
-      <c r="E352" s="29"/>
-      <c r="F352" s="30"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="32"/>
+      <c r="D352" s="32"/>
+      <c r="E352" s="32"/>
+      <c r="F352" s="33"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B353" s="25" t="s">
+      <c r="B353" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="26"/>
-      <c r="D353" s="26"/>
-      <c r="E353" s="26"/>
-      <c r="F353" s="27"/>
+      <c r="C353" s="29"/>
+      <c r="D353" s="29"/>
+      <c r="E353" s="29"/>
+      <c r="F353" s="30"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
@@ -12113,141 +12113,141 @@
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B359" s="25" t="s">
+      <c r="B359" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="26"/>
-      <c r="D359" s="26"/>
-      <c r="E359" s="26"/>
-      <c r="F359" s="27"/>
+      <c r="C359" s="29"/>
+      <c r="D359" s="29"/>
+      <c r="E359" s="29"/>
+      <c r="F359" s="30"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="31" t="s">
+      <c r="B360" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="32"/>
-      <c r="D360" s="32"/>
-      <c r="E360" s="32"/>
-      <c r="F360" s="33"/>
+      <c r="C360" s="35"/>
+      <c r="D360" s="35"/>
+      <c r="E360" s="35"/>
+      <c r="F360" s="36"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="34"/>
-      <c r="C361" s="35"/>
-      <c r="D361" s="35"/>
-      <c r="E361" s="35"/>
-      <c r="F361" s="36"/>
+      <c r="B361" s="37"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="38"/>
+      <c r="E361" s="38"/>
+      <c r="F361" s="39"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="34"/>
-      <c r="C362" s="35"/>
-      <c r="D362" s="35"/>
-      <c r="E362" s="35"/>
-      <c r="F362" s="36"/>
+      <c r="B362" s="37"/>
+      <c r="C362" s="38"/>
+      <c r="D362" s="38"/>
+      <c r="E362" s="38"/>
+      <c r="F362" s="39"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="34"/>
-      <c r="C363" s="35"/>
-      <c r="D363" s="35"/>
-      <c r="E363" s="35"/>
-      <c r="F363" s="36"/>
+      <c r="B363" s="37"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="38"/>
+      <c r="E363" s="38"/>
+      <c r="F363" s="39"/>
     </row>
     <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B364" s="37"/>
-      <c r="C364" s="38"/>
-      <c r="D364" s="38"/>
-      <c r="E364" s="38"/>
-      <c r="F364" s="39"/>
+      <c r="B364" s="40"/>
+      <c r="C364" s="41"/>
+      <c r="D364" s="41"/>
+      <c r="E364" s="41"/>
+      <c r="F364" s="42"/>
     </row>
     <row r="365" spans="2:6" ht="21" thickBot="1">
-      <c r="B365" s="40" t="s">
+      <c r="B365" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="C365" s="40"/>
-      <c r="D365" s="40"/>
-      <c r="E365" s="40"/>
-      <c r="F365" s="40"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="44"/>
+      <c r="E365" s="44"/>
+      <c r="F365" s="44"/>
     </row>
     <row r="366" spans="2:6" ht="13.5" thickBot="1">
       <c r="B366" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C366" s="41" t="s">
+      <c r="C366" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D366" s="42"/>
-      <c r="E366" s="42"/>
-      <c r="F366" s="43"/>
+      <c r="D366" s="46"/>
+      <c r="E366" s="46"/>
+      <c r="F366" s="47"/>
     </row>
     <row r="367" spans="2:6" ht="13.5" thickBot="1">
       <c r="B367" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C367" s="41" t="s">
+      <c r="C367" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D367" s="42"/>
-      <c r="E367" s="42"/>
-      <c r="F367" s="43"/>
+      <c r="D367" s="46"/>
+      <c r="E367" s="46"/>
+      <c r="F367" s="47"/>
     </row>
     <row r="368" spans="2:6" ht="13.5" thickBot="1">
       <c r="B368" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C368" s="44" t="s">
+      <c r="C368" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D368" s="45"/>
-      <c r="E368" s="45"/>
-      <c r="F368" s="46"/>
+      <c r="D368" s="49"/>
+      <c r="E368" s="49"/>
+      <c r="F368" s="50"/>
     </row>
     <row r="369" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B369" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C369" s="47" t="s">
+      <c r="C369" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D369" s="48"/>
-      <c r="E369" s="48"/>
-      <c r="F369" s="49"/>
+      <c r="D369" s="52"/>
+      <c r="E369" s="52"/>
+      <c r="F369" s="53"/>
     </row>
     <row r="370" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B370" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C370" s="50"/>
-      <c r="D370" s="51"/>
-      <c r="E370" s="51"/>
-      <c r="F370" s="52"/>
+      <c r="C370" s="54"/>
+      <c r="D370" s="55"/>
+      <c r="E370" s="55"/>
+      <c r="F370" s="56"/>
     </row>
     <row r="371" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B371" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C371" s="53" t="s">
+      <c r="C371" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="54"/>
-      <c r="E371" s="54"/>
-      <c r="F371" s="55"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="27"/>
     </row>
     <row r="372" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C372" s="53" t="s">
+      <c r="C372" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D372" s="54"/>
-      <c r="E372" s="54"/>
-      <c r="F372" s="55"/>
+      <c r="D372" s="26"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="27"/>
     </row>
     <row r="373" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B373" s="53"/>
-      <c r="C373" s="54"/>
-      <c r="D373" s="54"/>
-      <c r="E373" s="54"/>
-      <c r="F373" s="55"/>
+      <c r="B373" s="25"/>
+      <c r="C373" s="26"/>
+      <c r="D373" s="26"/>
+      <c r="E373" s="26"/>
+      <c r="F373" s="27"/>
     </row>
     <row r="374" spans="2:6" ht="13.5" thickBot="1">
       <c r="B374" s="7" t="s">
@@ -12265,13 +12265,13 @@
       </c>
     </row>
     <row r="375" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B375" s="25" t="s">
+      <c r="B375" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C375" s="26"/>
-      <c r="D375" s="26"/>
-      <c r="E375" s="26"/>
-      <c r="F375" s="27"/>
+      <c r="C375" s="29"/>
+      <c r="D375" s="29"/>
+      <c r="E375" s="29"/>
+      <c r="F375" s="30"/>
     </row>
     <row r="376" spans="2:6" ht="14.25" thickBot="1">
       <c r="B376" s="1" t="s">
@@ -12289,20 +12289,20 @@
       <c r="F376" s="9"/>
     </row>
     <row r="377" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B377" s="28"/>
-      <c r="C377" s="29"/>
-      <c r="D377" s="29"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="30"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="32"/>
+      <c r="D377" s="32"/>
+      <c r="E377" s="32"/>
+      <c r="F377" s="33"/>
     </row>
     <row r="378" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B378" s="25" t="s">
+      <c r="B378" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C378" s="26"/>
-      <c r="D378" s="26"/>
-      <c r="E378" s="26"/>
-      <c r="F378" s="27"/>
+      <c r="C378" s="29"/>
+      <c r="D378" s="29"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="30"/>
     </row>
     <row r="379" spans="2:6" ht="14.25" thickBot="1">
       <c r="B379" s="1" t="s">
@@ -12374,150 +12374,150 @@
       <c r="F383" s="4"/>
     </row>
     <row r="384" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B384" s="25" t="s">
+      <c r="B384" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C384" s="26"/>
-      <c r="D384" s="26"/>
-      <c r="E384" s="26"/>
-      <c r="F384" s="27"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
+      <c r="F384" s="30"/>
     </row>
     <row r="385" spans="2:6">
-      <c r="B385" s="31" t="s">
+      <c r="B385" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="C385" s="32"/>
-      <c r="D385" s="32"/>
-      <c r="E385" s="32"/>
-      <c r="F385" s="33"/>
+      <c r="C385" s="35"/>
+      <c r="D385" s="35"/>
+      <c r="E385" s="35"/>
+      <c r="F385" s="36"/>
     </row>
     <row r="386" spans="2:6">
-      <c r="B386" s="34"/>
-      <c r="C386" s="35"/>
-      <c r="D386" s="35"/>
-      <c r="E386" s="35"/>
-      <c r="F386" s="36"/>
+      <c r="B386" s="37"/>
+      <c r="C386" s="38"/>
+      <c r="D386" s="38"/>
+      <c r="E386" s="38"/>
+      <c r="F386" s="39"/>
     </row>
     <row r="387" spans="2:6">
-      <c r="B387" s="34"/>
-      <c r="C387" s="35"/>
-      <c r="D387" s="35"/>
-      <c r="E387" s="35"/>
-      <c r="F387" s="36"/>
+      <c r="B387" s="37"/>
+      <c r="C387" s="38"/>
+      <c r="D387" s="38"/>
+      <c r="E387" s="38"/>
+      <c r="F387" s="39"/>
     </row>
     <row r="388" spans="2:6">
-      <c r="B388" s="34"/>
-      <c r="C388" s="35"/>
-      <c r="D388" s="35"/>
-      <c r="E388" s="35"/>
-      <c r="F388" s="36"/>
+      <c r="B388" s="37"/>
+      <c r="C388" s="38"/>
+      <c r="D388" s="38"/>
+      <c r="E388" s="38"/>
+      <c r="F388" s="39"/>
     </row>
     <row r="389" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B389" s="37"/>
-      <c r="C389" s="38"/>
-      <c r="D389" s="38"/>
-      <c r="E389" s="38"/>
-      <c r="F389" s="39"/>
+      <c r="B389" s="40"/>
+      <c r="C389" s="41"/>
+      <c r="D389" s="41"/>
+      <c r="E389" s="41"/>
+      <c r="F389" s="42"/>
     </row>
     <row r="391" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B391" s="59" t="s">
+      <c r="B391" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C391" s="59"/>
-      <c r="D391" s="59"/>
-      <c r="E391" s="59"/>
-      <c r="F391" s="59"/>
+      <c r="C391" s="43"/>
+      <c r="D391" s="43"/>
+      <c r="E391" s="43"/>
+      <c r="F391" s="43"/>
     </row>
     <row r="392" spans="2:6" ht="21" thickBot="1">
-      <c r="B392" s="40" t="s">
+      <c r="B392" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C392" s="40"/>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="40"/>
+      <c r="C392" s="44"/>
+      <c r="D392" s="44"/>
+      <c r="E392" s="44"/>
+      <c r="F392" s="44"/>
     </row>
     <row r="393" spans="2:6" ht="13.5" thickBot="1">
       <c r="B393" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C393" s="41" t="s">
+      <c r="C393" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D393" s="42"/>
-      <c r="E393" s="42"/>
-      <c r="F393" s="43"/>
+      <c r="D393" s="46"/>
+      <c r="E393" s="46"/>
+      <c r="F393" s="47"/>
     </row>
     <row r="394" spans="2:6" ht="13.5" thickBot="1">
       <c r="B394" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C394" s="41" t="s">
+      <c r="C394" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D394" s="42"/>
-      <c r="E394" s="42"/>
-      <c r="F394" s="43"/>
+      <c r="D394" s="46"/>
+      <c r="E394" s="46"/>
+      <c r="F394" s="47"/>
     </row>
     <row r="395" spans="2:6" ht="13.5" thickBot="1">
       <c r="B395" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C395" s="44" t="s">
+      <c r="C395" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D395" s="45"/>
-      <c r="E395" s="45"/>
-      <c r="F395" s="46"/>
+      <c r="D395" s="49"/>
+      <c r="E395" s="49"/>
+      <c r="F395" s="50"/>
     </row>
     <row r="396" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B396" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C396" s="47" t="s">
+      <c r="C396" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="48"/>
-      <c r="E396" s="48"/>
-      <c r="F396" s="49"/>
+      <c r="D396" s="52"/>
+      <c r="E396" s="52"/>
+      <c r="F396" s="53"/>
     </row>
     <row r="397" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B397" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C397" s="50"/>
-      <c r="D397" s="51"/>
-      <c r="E397" s="51"/>
-      <c r="F397" s="52"/>
+      <c r="C397" s="54"/>
+      <c r="D397" s="55"/>
+      <c r="E397" s="55"/>
+      <c r="F397" s="56"/>
     </row>
     <row r="398" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B398" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C398" s="53" t="s">
+      <c r="C398" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D398" s="54"/>
-      <c r="E398" s="54"/>
-      <c r="F398" s="55"/>
+      <c r="D398" s="26"/>
+      <c r="E398" s="26"/>
+      <c r="F398" s="27"/>
     </row>
     <row r="399" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B399" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C399" s="53" t="s">
+      <c r="C399" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D399" s="54"/>
-      <c r="E399" s="54"/>
-      <c r="F399" s="55"/>
+      <c r="D399" s="26"/>
+      <c r="E399" s="26"/>
+      <c r="F399" s="27"/>
     </row>
     <row r="400" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B400" s="53"/>
-      <c r="C400" s="54"/>
-      <c r="D400" s="54"/>
-      <c r="E400" s="54"/>
-      <c r="F400" s="55"/>
+      <c r="B400" s="25"/>
+      <c r="C400" s="26"/>
+      <c r="D400" s="26"/>
+      <c r="E400" s="26"/>
+      <c r="F400" s="27"/>
     </row>
     <row r="401" spans="2:6" ht="13.5" thickBot="1">
       <c r="B401" s="7" t="s">
@@ -12535,13 +12535,13 @@
       </c>
     </row>
     <row r="402" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B402" s="25" t="s">
+      <c r="B402" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C402" s="26"/>
-      <c r="D402" s="26"/>
-      <c r="E402" s="26"/>
-      <c r="F402" s="27"/>
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="30"/>
     </row>
     <row r="403" spans="2:6" ht="14.25" thickBot="1">
       <c r="B403" s="1" t="s">
@@ -12568,20 +12568,20 @@
       <c r="F404" s="9"/>
     </row>
     <row r="405" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B405" s="28"/>
-      <c r="C405" s="29"/>
-      <c r="D405" s="29"/>
-      <c r="E405" s="29"/>
-      <c r="F405" s="30"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="32"/>
+      <c r="D405" s="32"/>
+      <c r="E405" s="32"/>
+      <c r="F405" s="33"/>
     </row>
     <row r="406" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B406" s="25" t="s">
+      <c r="B406" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C406" s="26"/>
-      <c r="D406" s="26"/>
-      <c r="E406" s="26"/>
-      <c r="F406" s="27"/>
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29"/>
+      <c r="F406" s="30"/>
     </row>
     <row r="407" spans="2:6" ht="14.25" thickBot="1">
       <c r="B407" s="1" t="s">
@@ -12651,142 +12651,142 @@
       <c r="F411" s="4"/>
     </row>
     <row r="412" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B412" s="25" t="s">
+      <c r="B412" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C412" s="26"/>
-      <c r="D412" s="26"/>
-      <c r="E412" s="26"/>
-      <c r="F412" s="27"/>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+      <c r="E412" s="29"/>
+      <c r="F412" s="30"/>
     </row>
     <row r="413" spans="2:6">
-      <c r="B413" s="31" t="s">
+      <c r="B413" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C413" s="32"/>
-      <c r="D413" s="32"/>
-      <c r="E413" s="32"/>
-      <c r="F413" s="33"/>
+      <c r="C413" s="35"/>
+      <c r="D413" s="35"/>
+      <c r="E413" s="35"/>
+      <c r="F413" s="36"/>
     </row>
     <row r="414" spans="2:6">
-      <c r="B414" s="34"/>
-      <c r="C414" s="35"/>
-      <c r="D414" s="35"/>
-      <c r="E414" s="35"/>
-      <c r="F414" s="36"/>
+      <c r="B414" s="37"/>
+      <c r="C414" s="38"/>
+      <c r="D414" s="38"/>
+      <c r="E414" s="38"/>
+      <c r="F414" s="39"/>
     </row>
     <row r="415" spans="2:6">
-      <c r="B415" s="34"/>
-      <c r="C415" s="35"/>
-      <c r="D415" s="35"/>
-      <c r="E415" s="35"/>
-      <c r="F415" s="36"/>
+      <c r="B415" s="37"/>
+      <c r="C415" s="38"/>
+      <c r="D415" s="38"/>
+      <c r="E415" s="38"/>
+      <c r="F415" s="39"/>
     </row>
     <row r="416" spans="2:6">
-      <c r="B416" s="34"/>
-      <c r="C416" s="35"/>
-      <c r="D416" s="35"/>
-      <c r="E416" s="35"/>
-      <c r="F416" s="36"/>
+      <c r="B416" s="37"/>
+      <c r="C416" s="38"/>
+      <c r="D416" s="38"/>
+      <c r="E416" s="38"/>
+      <c r="F416" s="39"/>
     </row>
     <row r="417" spans="2:6" ht="193.5" customHeight="1" thickBot="1">
-      <c r="B417" s="37"/>
-      <c r="C417" s="38"/>
-      <c r="D417" s="38"/>
-      <c r="E417" s="38"/>
-      <c r="F417" s="39"/>
+      <c r="B417" s="40"/>
+      <c r="C417" s="41"/>
+      <c r="D417" s="41"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="42"/>
     </row>
     <row r="418" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="419" spans="2:6" ht="21" thickBot="1">
-      <c r="B419" s="40" t="s">
+      <c r="B419" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="C419" s="40"/>
-      <c r="D419" s="40"/>
-      <c r="E419" s="40"/>
-      <c r="F419" s="40"/>
+      <c r="C419" s="44"/>
+      <c r="D419" s="44"/>
+      <c r="E419" s="44"/>
+      <c r="F419" s="44"/>
     </row>
     <row r="420" spans="2:6" ht="13.5" thickBot="1">
       <c r="B420" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C420" s="41" t="s">
+      <c r="C420" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="D420" s="42"/>
-      <c r="E420" s="42"/>
-      <c r="F420" s="43"/>
+      <c r="D420" s="46"/>
+      <c r="E420" s="46"/>
+      <c r="F420" s="47"/>
     </row>
     <row r="421" spans="2:6" ht="13.5" thickBot="1">
       <c r="B421" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C421" s="41" t="s">
+      <c r="C421" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D421" s="42"/>
-      <c r="E421" s="42"/>
-      <c r="F421" s="43"/>
+      <c r="D421" s="46"/>
+      <c r="E421" s="46"/>
+      <c r="F421" s="47"/>
     </row>
     <row r="422" spans="2:6" ht="13.5" thickBot="1">
       <c r="B422" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C422" s="44" t="s">
+      <c r="C422" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D422" s="45"/>
-      <c r="E422" s="45"/>
-      <c r="F422" s="46"/>
+      <c r="D422" s="49"/>
+      <c r="E422" s="49"/>
+      <c r="F422" s="50"/>
     </row>
     <row r="423" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B423" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C423" s="47" t="s">
+      <c r="C423" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D423" s="48"/>
-      <c r="E423" s="48"/>
-      <c r="F423" s="49"/>
+      <c r="D423" s="52"/>
+      <c r="E423" s="52"/>
+      <c r="F423" s="53"/>
     </row>
     <row r="424" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B424" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C424" s="50"/>
-      <c r="D424" s="51"/>
-      <c r="E424" s="51"/>
-      <c r="F424" s="52"/>
+      <c r="C424" s="54"/>
+      <c r="D424" s="55"/>
+      <c r="E424" s="55"/>
+      <c r="F424" s="56"/>
     </row>
     <row r="425" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B425" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C425" s="53" t="s">
+      <c r="C425" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D425" s="54"/>
-      <c r="E425" s="54"/>
-      <c r="F425" s="55"/>
+      <c r="D425" s="26"/>
+      <c r="E425" s="26"/>
+      <c r="F425" s="27"/>
     </row>
     <row r="426" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B426" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C426" s="53" t="s">
+      <c r="C426" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D426" s="54"/>
-      <c r="E426" s="54"/>
-      <c r="F426" s="55"/>
+      <c r="D426" s="26"/>
+      <c r="E426" s="26"/>
+      <c r="F426" s="27"/>
     </row>
     <row r="427" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B427" s="53"/>
-      <c r="C427" s="54"/>
-      <c r="D427" s="54"/>
-      <c r="E427" s="54"/>
-      <c r="F427" s="55"/>
+      <c r="B427" s="25"/>
+      <c r="C427" s="26"/>
+      <c r="D427" s="26"/>
+      <c r="E427" s="26"/>
+      <c r="F427" s="27"/>
     </row>
     <row r="428" spans="2:6" ht="13.5" thickBot="1">
       <c r="B428" s="7" t="s">
@@ -12804,13 +12804,13 @@
       </c>
     </row>
     <row r="429" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B429" s="25" t="s">
+      <c r="B429" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C429" s="26"/>
-      <c r="D429" s="26"/>
-      <c r="E429" s="26"/>
-      <c r="F429" s="27"/>
+      <c r="C429" s="29"/>
+      <c r="D429" s="29"/>
+      <c r="E429" s="29"/>
+      <c r="F429" s="30"/>
     </row>
     <row r="430" spans="2:6" ht="14.25" thickBot="1">
       <c r="B430" s="1" t="s">
@@ -12837,20 +12837,20 @@
       <c r="F431" s="9"/>
     </row>
     <row r="432" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B432" s="28"/>
-      <c r="C432" s="29"/>
-      <c r="D432" s="29"/>
-      <c r="E432" s="29"/>
-      <c r="F432" s="30"/>
+      <c r="B432" s="31"/>
+      <c r="C432" s="32"/>
+      <c r="D432" s="32"/>
+      <c r="E432" s="32"/>
+      <c r="F432" s="33"/>
     </row>
     <row r="433" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B433" s="25" t="s">
+      <c r="B433" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C433" s="26"/>
-      <c r="D433" s="26"/>
-      <c r="E433" s="26"/>
-      <c r="F433" s="27"/>
+      <c r="C433" s="29"/>
+      <c r="D433" s="29"/>
+      <c r="E433" s="29"/>
+      <c r="F433" s="30"/>
     </row>
     <row r="434" spans="2:6" ht="14.25" thickBot="1">
       <c r="B434" s="1" t="s">
@@ -12920,53 +12920,262 @@
       <c r="F438" s="4"/>
     </row>
     <row r="439" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B439" s="25" t="s">
+      <c r="B439" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C439" s="26"/>
-      <c r="D439" s="26"/>
-      <c r="E439" s="26"/>
-      <c r="F439" s="27"/>
+      <c r="C439" s="29"/>
+      <c r="D439" s="29"/>
+      <c r="E439" s="29"/>
+      <c r="F439" s="30"/>
     </row>
     <row r="440" spans="2:6">
-      <c r="B440" s="31" t="s">
+      <c r="B440" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C440" s="32"/>
-      <c r="D440" s="32"/>
-      <c r="E440" s="32"/>
-      <c r="F440" s="33"/>
+      <c r="C440" s="35"/>
+      <c r="D440" s="35"/>
+      <c r="E440" s="35"/>
+      <c r="F440" s="36"/>
     </row>
     <row r="441" spans="2:6">
-      <c r="B441" s="34"/>
-      <c r="C441" s="35"/>
-      <c r="D441" s="35"/>
-      <c r="E441" s="35"/>
-      <c r="F441" s="36"/>
+      <c r="B441" s="37"/>
+      <c r="C441" s="38"/>
+      <c r="D441" s="38"/>
+      <c r="E441" s="38"/>
+      <c r="F441" s="39"/>
     </row>
     <row r="442" spans="2:6">
-      <c r="B442" s="34"/>
-      <c r="C442" s="35"/>
-      <c r="D442" s="35"/>
-      <c r="E442" s="35"/>
-      <c r="F442" s="36"/>
+      <c r="B442" s="37"/>
+      <c r="C442" s="38"/>
+      <c r="D442" s="38"/>
+      <c r="E442" s="38"/>
+      <c r="F442" s="39"/>
     </row>
     <row r="443" spans="2:6">
-      <c r="B443" s="34"/>
-      <c r="C443" s="35"/>
-      <c r="D443" s="35"/>
-      <c r="E443" s="35"/>
-      <c r="F443" s="36"/>
+      <c r="B443" s="37"/>
+      <c r="C443" s="38"/>
+      <c r="D443" s="38"/>
+      <c r="E443" s="38"/>
+      <c r="F443" s="39"/>
     </row>
     <row r="444" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B444" s="37"/>
-      <c r="C444" s="38"/>
-      <c r="D444" s="38"/>
-      <c r="E444" s="38"/>
-      <c r="F444" s="39"/>
+      <c r="B444" s="40"/>
+      <c r="C444" s="41"/>
+      <c r="D444" s="41"/>
+      <c r="E444" s="41"/>
+      <c r="F444" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="C396:F396"/>
+    <mergeCell ref="C397:F397"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F389"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C367:F367"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C264:F264"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F337"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="C318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="C316:F316"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B279:F283"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
     <mergeCell ref="B427:F427"/>
     <mergeCell ref="B429:F429"/>
     <mergeCell ref="B432:F432"/>
@@ -12991,215 +13200,6 @@
     <mergeCell ref="C393:F393"/>
     <mergeCell ref="C394:F394"/>
     <mergeCell ref="C395:F395"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F337"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="C318:F318"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="C316:F316"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B279:F283"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C264:F264"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C266:F266"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="C261:F261"/>
-    <mergeCell ref="C262:F262"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="C396:F396"/>
-    <mergeCell ref="C397:F397"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="C399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F389"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="C372:F372"/>
-    <mergeCell ref="B373:F373"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/doc/Es搜索api接口_v2.xlsx
+++ b/doc/Es搜索api接口_v2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="244">
   <si>
     <t>服务地址</t>
   </si>
@@ -6403,23 +6403,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研报索引删除</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost:8999/es/del/reports/ids?ids=AP201609060017504111,AP201609060017504111</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6446,6 +6429,95 @@
   </si>
   <si>
     <t>Arrat[hot-&gt;热度值,pulse-&gt;异动值]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研报索引删除</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研报索引新建</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/index/reports</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>docs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建索引的文档集合</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array(JsonObj)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12(10.0.3.90):8999/es/index/reports</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"count":返回总数,
+        "result":[
+            {
+                "summary":新闻摘要(str),
+                "auth":新闻来源(str),
+                "create_on":新闻创建时间(str),
+                "title":新闻标题(str)
+            }
+]</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6938,7 +7010,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7014,6 +7086,27 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7068,9 +7161,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7092,24 +7182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,17 +7191,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8428,10 +8503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F444"/>
+  <dimension ref="B2:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B395" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371:F371"/>
+    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8444,113 +8519,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -8568,13 +8643,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -8599,20 +8674,20 @@
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -8686,148 +8761,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -8845,13 +8920,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -8940,66 +9015,66 @@
       <c r="F49" s="59"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -9019,95 +9094,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="56"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -9125,13 +9200,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -9188,13 +9263,13 @@
       <c r="F75" s="59"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -9268,50 +9343,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="37"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="46"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="37"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="46"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="49"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -9331,95 +9406,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C92" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="53"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="53"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="50"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="56"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="53"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="27"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="27"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="34"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="27"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -9437,13 +9512,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -9487,13 +9562,13 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="37"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -9565,50 +9640,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="30"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="37"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="36"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="43"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="37"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="39"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="46"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="37"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="39"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="46"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="37"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="46"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="40"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="42"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="49"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -9628,95 +9703,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="47"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="53"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="45" t="s">
+      <c r="C122" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="47"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="53"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="50"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="56"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="53"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="28"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="54"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="56"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="31"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="34"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="27"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="34"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="25"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="27"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="34"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -9734,13 +9809,13 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="37"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
       <c r="B131" s="57"/>
@@ -9750,13 +9825,13 @@
       <c r="F131" s="59"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="30"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="37"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -9828,50 +9903,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="28" t="s">
+      <c r="B138" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="30"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="37"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="60" t="s">
+      <c r="B139" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="36"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="43"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="37"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="39"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="46"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="37"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="39"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="46"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="37"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="39"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="46"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="40"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="42"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="49"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -9891,95 +9966,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="44" t="s">
+      <c r="B147" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="45" t="s">
+      <c r="C148" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="47"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="53"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="45" t="s">
+      <c r="C149" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="47"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="53"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="50"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="56"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="53"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="28"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="54"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="56"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="31"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="27"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="34"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="27"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="34"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="25"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="27"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -9997,13 +10072,13 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="30"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="37"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
       <c r="B158" s="57"/>
@@ -10013,13 +10088,13 @@
       <c r="F158" s="59"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="28" t="s">
+      <c r="B159" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="30"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="37"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -10091,50 +10166,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="28" t="s">
+      <c r="B165" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="30"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="37"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="60" t="s">
+      <c r="B166" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="35"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="36"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="43"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="37"/>
-      <c r="C167" s="38"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="39"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="46"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="37"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="39"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="46"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="37"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="39"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="46"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="40"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="42"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="49"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -10144,95 +10219,95 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B172" s="44" t="s">
+      <c r="B172" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="44"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="44"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
     </row>
     <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="45" t="s">
+      <c r="C173" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="47"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="53"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="45" t="s">
+      <c r="C174" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="47"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="53"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="48" t="s">
+      <c r="C175" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="50"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="56"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="52"/>
-      <c r="E176" s="52"/>
-      <c r="F176" s="53"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="56"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="31"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="27"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="34"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="27"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="34"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="25"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="27"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="34"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -10250,13 +10325,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="28" t="s">
+      <c r="B182" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="30"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="37"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -10281,13 +10356,13 @@
       <c r="F184" s="59"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="28" t="s">
+      <c r="B185" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="37"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -10359,50 +10434,50 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="28" t="s">
+      <c r="B191" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="30"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="37"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="60" t="s">
+      <c r="B192" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="35"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="36"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="42"/>
+      <c r="F192" s="43"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="37"/>
-      <c r="C193" s="38"/>
-      <c r="D193" s="38"/>
-      <c r="E193" s="38"/>
-      <c r="F193" s="39"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="46"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="37"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="39"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="45"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="46"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="37"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="38"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="39"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="46"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="40"/>
-      <c r="C196" s="41"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="41"/>
-      <c r="F196" s="42"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="49"/>
     </row>
     <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B197" s="22"/>
@@ -10412,95 +10487,95 @@
       <c r="F197" s="22"/>
     </row>
     <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B198" s="44" t="s">
+      <c r="B198" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C198" s="44"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="44"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
     </row>
     <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B199" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="45" t="s">
+      <c r="C199" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="47"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="53"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C200" s="45" t="s">
+      <c r="C200" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="46"/>
-      <c r="E200" s="46"/>
-      <c r="F200" s="47"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="53"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="48" t="s">
+      <c r="C201" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="50"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="56"/>
     </row>
     <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="52"/>
-      <c r="E202" s="52"/>
-      <c r="F202" s="53"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="28"/>
     </row>
     <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="54"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="56"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="31"/>
     </row>
     <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B204" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="27"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="34"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="27"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="34"/>
     </row>
     <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="25"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="27"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="34"/>
     </row>
     <row r="207" spans="2:6" ht="13.5" thickBot="1">
       <c r="B207" s="7" t="s">
@@ -10518,13 +10593,13 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="28" t="s">
+      <c r="B208" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="30"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
+      <c r="E208" s="36"/>
+      <c r="F208" s="37"/>
     </row>
     <row r="209" spans="2:6" ht="14.25" thickBot="1">
       <c r="B209" s="20" t="s">
@@ -10566,13 +10641,13 @@
       <c r="F211" s="59"/>
     </row>
     <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B212" s="28" t="s">
+      <c r="B212" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="30"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="36"/>
+      <c r="F212" s="37"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -10644,50 +10719,50 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B218" s="28" t="s">
+      <c r="B218" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="30"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="37"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="60" t="s">
+      <c r="B219" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="36"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="42"/>
+      <c r="E219" s="42"/>
+      <c r="F219" s="43"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="37"/>
-      <c r="C220" s="38"/>
-      <c r="D220" s="38"/>
-      <c r="E220" s="38"/>
-      <c r="F220" s="39"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="46"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="37"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="38"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="39"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="46"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="37"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="39"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="45"/>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="46"/>
     </row>
     <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B223" s="40"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="41"/>
-      <c r="F223" s="42"/>
+      <c r="B223" s="47"/>
+      <c r="C223" s="48"/>
+      <c r="D223" s="48"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="49"/>
     </row>
     <row r="224" spans="2:6" ht="90" customHeight="1" thickBot="1">
       <c r="B224" s="23"/>
@@ -10697,95 +10772,95 @@
       <c r="F224" s="23"/>
     </row>
     <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="44"/>
-      <c r="D225" s="44"/>
-      <c r="E225" s="44"/>
-      <c r="F225" s="44"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="50"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="50"/>
     </row>
     <row r="226" spans="2:6" ht="13.5" thickBot="1">
       <c r="B226" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="45" t="s">
+      <c r="C226" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D226" s="46"/>
-      <c r="E226" s="46"/>
-      <c r="F226" s="47"/>
+      <c r="D226" s="52"/>
+      <c r="E226" s="52"/>
+      <c r="F226" s="53"/>
     </row>
     <row r="227" spans="2:6" ht="13.5" thickBot="1">
       <c r="B227" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="48" t="s">
+      <c r="C227" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="50"/>
+      <c r="D227" s="55"/>
+      <c r="E227" s="55"/>
+      <c r="F227" s="56"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C228" s="48" t="s">
+      <c r="C228" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
-      <c r="F228" s="50"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="56"/>
     </row>
     <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B229" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D229" s="52"/>
-      <c r="E229" s="52"/>
-      <c r="F229" s="53"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="28"/>
     </row>
     <row r="230" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="54"/>
-      <c r="D230" s="55"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="56"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30"/>
+      <c r="F230" s="31"/>
     </row>
     <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="27"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="34"/>
     </row>
     <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="27"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="34"/>
     </row>
     <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="25"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-      <c r="F233" s="27"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="34"/>
     </row>
     <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
@@ -10803,13 +10878,13 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="28" t="s">
+      <c r="B235" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="30"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="36"/>
+      <c r="E235" s="36"/>
+      <c r="F235" s="37"/>
     </row>
     <row r="236" spans="2:6" ht="14.25" thickBot="1">
       <c r="B236" s="10" t="s">
@@ -10938,20 +11013,20 @@
       <c r="F243" s="59"/>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B244" s="31"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="33"/>
+      <c r="B244" s="38"/>
+      <c r="C244" s="39"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="39"/>
+      <c r="F244" s="40"/>
     </row>
     <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="28" t="s">
+      <c r="B245" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="30"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="36"/>
+      <c r="E245" s="36"/>
+      <c r="F245" s="37"/>
     </row>
     <row r="246" spans="2:6" ht="14.25" thickBot="1">
       <c r="B246" s="1" t="s">
@@ -10979,7 +11054,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="2:6" ht="14.25" thickBot="1">
+    <row r="248" spans="2:6" ht="115.5" thickBot="1">
       <c r="B248" s="1" t="s">
         <v>96</v>
       </c>
@@ -10987,7 +11062,7 @@
         <v>97</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4" t="s">
@@ -11001,9 +11076,7 @@
       <c r="C249" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D249" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="D249" s="8"/>
       <c r="E249" s="11"/>
       <c r="F249" s="4" t="s">
         <v>102</v>
@@ -11025,50 +11098,50 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B251" s="28" t="s">
+      <c r="B251" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C251" s="29"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="29"/>
-      <c r="F251" s="30"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="37"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="34" t="s">
+      <c r="B252" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
-      <c r="E252" s="35"/>
-      <c r="F252" s="36"/>
+      <c r="C252" s="42"/>
+      <c r="D252" s="42"/>
+      <c r="E252" s="42"/>
+      <c r="F252" s="43"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="37"/>
-      <c r="C253" s="38"/>
-      <c r="D253" s="38"/>
-      <c r="E253" s="38"/>
-      <c r="F253" s="39"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="45"/>
+      <c r="D253" s="45"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="46"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="37"/>
-      <c r="C254" s="38"/>
-      <c r="D254" s="38"/>
-      <c r="E254" s="38"/>
-      <c r="F254" s="39"/>
+      <c r="B254" s="44"/>
+      <c r="C254" s="45"/>
+      <c r="D254" s="45"/>
+      <c r="E254" s="45"/>
+      <c r="F254" s="46"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="37"/>
-      <c r="C255" s="38"/>
-      <c r="D255" s="38"/>
-      <c r="E255" s="38"/>
-      <c r="F255" s="39"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="45"/>
+      <c r="D255" s="45"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="46"/>
     </row>
     <row r="256" spans="2:6" ht="145.5" customHeight="1" thickBot="1">
-      <c r="B256" s="40"/>
-      <c r="C256" s="41"/>
-      <c r="D256" s="41"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="42"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="48"/>
+      <c r="D256" s="48"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="49"/>
     </row>
     <row r="257" spans="2:6" ht="90" customHeight="1">
       <c r="B257" s="15"/>
@@ -11078,104 +11151,104 @@
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B258" s="43" t="s">
+      <c r="B258" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="43"/>
-      <c r="D258" s="43"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="60"/>
     </row>
     <row r="259" spans="2:6" ht="21" thickBot="1">
-      <c r="B259" s="44" t="s">
+      <c r="B259" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C259" s="44"/>
-      <c r="D259" s="44"/>
-      <c r="E259" s="44"/>
-      <c r="F259" s="44"/>
+      <c r="C259" s="50"/>
+      <c r="D259" s="50"/>
+      <c r="E259" s="50"/>
+      <c r="F259" s="50"/>
     </row>
     <row r="260" spans="2:6" ht="13.5" thickBot="1">
       <c r="B260" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="45" t="s">
+      <c r="C260" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="46"/>
-      <c r="E260" s="46"/>
-      <c r="F260" s="47"/>
+      <c r="D260" s="52"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="53"/>
     </row>
     <row r="261" spans="2:6" ht="13.5" thickBot="1">
       <c r="B261" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C261" s="45" t="s">
+      <c r="C261" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D261" s="46"/>
-      <c r="E261" s="46"/>
-      <c r="F261" s="47"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="53"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="48" t="s">
+      <c r="C262" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D262" s="49"/>
-      <c r="E262" s="49"/>
-      <c r="F262" s="50"/>
+      <c r="D262" s="55"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="56"/>
     </row>
     <row r="263" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="52"/>
-      <c r="E263" s="52"/>
-      <c r="F263" s="53"/>
+      <c r="D263" s="27"/>
+      <c r="E263" s="27"/>
+      <c r="F263" s="28"/>
     </row>
     <row r="264" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="54"/>
-      <c r="D264" s="55"/>
-      <c r="E264" s="55"/>
-      <c r="F264" s="56"/>
+      <c r="C264" s="29"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
+      <c r="F264" s="31"/>
     </row>
     <row r="265" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B265" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="25" t="s">
+      <c r="C265" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-      <c r="F265" s="27"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="34"/>
     </row>
     <row r="266" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="25" t="s">
+      <c r="C266" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="27"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="34"/>
     </row>
     <row r="267" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B267" s="25"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="27"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="34"/>
     </row>
     <row r="268" spans="2:6" ht="13.5" thickBot="1">
       <c r="B268" s="2" t="s">
@@ -11193,13 +11266,13 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B269" s="28" t="s">
+      <c r="B269" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="30"/>
+      <c r="C269" s="36"/>
+      <c r="D269" s="36"/>
+      <c r="E269" s="36"/>
+      <c r="F269" s="37"/>
     </row>
     <row r="270" spans="2:6" ht="14.25" thickBot="1">
       <c r="B270" s="1" t="s">
@@ -11217,20 +11290,20 @@
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B271" s="31"/>
-      <c r="C271" s="32"/>
-      <c r="D271" s="32"/>
-      <c r="E271" s="32"/>
-      <c r="F271" s="33"/>
+      <c r="B271" s="38"/>
+      <c r="C271" s="39"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="39"/>
+      <c r="F271" s="40"/>
     </row>
     <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="28" t="s">
+      <c r="B272" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C272" s="29"/>
-      <c r="D272" s="29"/>
-      <c r="E272" s="29"/>
-      <c r="F272" s="30"/>
+      <c r="C272" s="36"/>
+      <c r="D272" s="36"/>
+      <c r="E272" s="36"/>
+      <c r="F272" s="37"/>
     </row>
     <row r="273" spans="2:6" ht="14.25" thickBot="1">
       <c r="B273" s="1" t="s">
@@ -11302,142 +11375,142 @@
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B278" s="28" t="s">
+      <c r="B278" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="30"/>
+      <c r="C278" s="36"/>
+      <c r="D278" s="36"/>
+      <c r="E278" s="36"/>
+      <c r="F278" s="37"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="34" t="s">
+      <c r="B279" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="35"/>
-      <c r="D279" s="35"/>
-      <c r="E279" s="35"/>
-      <c r="F279" s="36"/>
+      <c r="C279" s="42"/>
+      <c r="D279" s="42"/>
+      <c r="E279" s="42"/>
+      <c r="F279" s="43"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="B280" s="37"/>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-      <c r="F280" s="39"/>
+      <c r="B280" s="44"/>
+      <c r="C280" s="45"/>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="46"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="37"/>
-      <c r="C281" s="38"/>
-      <c r="D281" s="38"/>
-      <c r="E281" s="38"/>
-      <c r="F281" s="39"/>
+      <c r="B281" s="44"/>
+      <c r="C281" s="45"/>
+      <c r="D281" s="45"/>
+      <c r="E281" s="45"/>
+      <c r="F281" s="46"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="37"/>
-      <c r="C282" s="38"/>
-      <c r="D282" s="38"/>
-      <c r="E282" s="38"/>
-      <c r="F282" s="39"/>
+      <c r="B282" s="44"/>
+      <c r="C282" s="45"/>
+      <c r="D282" s="45"/>
+      <c r="E282" s="45"/>
+      <c r="F282" s="46"/>
     </row>
     <row r="283" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B283" s="40"/>
-      <c r="C283" s="41"/>
-      <c r="D283" s="41"/>
-      <c r="E283" s="41"/>
-      <c r="F283" s="42"/>
-    </row>
-    <row r="284" spans="2:6" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="48"/>
+      <c r="D283" s="48"/>
+      <c r="E283" s="48"/>
+      <c r="F283" s="49"/>
+    </row>
+    <row r="284" spans="2:6" s="64" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="285" spans="2:6" ht="21" thickBot="1">
-      <c r="B285" s="44" t="s">
+      <c r="B285" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="44"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="44"/>
-      <c r="F285" s="44"/>
+      <c r="C285" s="50"/>
+      <c r="D285" s="50"/>
+      <c r="E285" s="50"/>
+      <c r="F285" s="50"/>
     </row>
     <row r="286" spans="2:6" ht="13.5" thickBot="1">
       <c r="B286" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="45" t="s">
+      <c r="C286" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D286" s="46"/>
-      <c r="E286" s="46"/>
-      <c r="F286" s="47"/>
+      <c r="D286" s="52"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="53"/>
     </row>
     <row r="287" spans="2:6" ht="13.5" thickBot="1">
       <c r="B287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C287" s="45" t="s">
+      <c r="C287" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="46"/>
-      <c r="E287" s="46"/>
-      <c r="F287" s="47"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="53"/>
     </row>
     <row r="288" spans="2:6" ht="13.5" thickBot="1">
       <c r="B288" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="48" t="s">
+      <c r="C288" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D288" s="49"/>
-      <c r="E288" s="49"/>
-      <c r="F288" s="50"/>
+      <c r="D288" s="55"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="56"/>
     </row>
     <row r="289" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B289" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="51" t="s">
+      <c r="C289" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="52"/>
-      <c r="E289" s="52"/>
-      <c r="F289" s="53"/>
+      <c r="D289" s="27"/>
+      <c r="E289" s="27"/>
+      <c r="F289" s="28"/>
     </row>
     <row r="290" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C290" s="54"/>
-      <c r="D290" s="55"/>
-      <c r="E290" s="55"/>
-      <c r="F290" s="56"/>
+      <c r="C290" s="29"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="31"/>
     </row>
     <row r="291" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B291" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="25" t="s">
+      <c r="C291" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="26"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="27"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33"/>
+      <c r="F291" s="34"/>
     </row>
     <row r="292" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C292" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="26"/>
-      <c r="E292" s="26"/>
-      <c r="F292" s="27"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="33"/>
+      <c r="F292" s="34"/>
     </row>
     <row r="293" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B293" s="25"/>
-      <c r="C293" s="26"/>
-      <c r="D293" s="26"/>
-      <c r="E293" s="26"/>
-      <c r="F293" s="27"/>
+      <c r="B293" s="32"/>
+      <c r="C293" s="33"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="33"/>
+      <c r="F293" s="34"/>
     </row>
     <row r="294" spans="2:6" ht="13.5" thickBot="1">
       <c r="B294" s="7" t="s">
@@ -11455,13 +11528,13 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B295" s="28" t="s">
+      <c r="B295" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C295" s="29"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="29"/>
-      <c r="F295" s="30"/>
+      <c r="C295" s="36"/>
+      <c r="D295" s="36"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="37"/>
     </row>
     <row r="296" spans="2:6" ht="27.75" thickBot="1">
       <c r="B296" s="1" t="s">
@@ -11486,20 +11559,20 @@
       <c r="F297" s="9"/>
     </row>
     <row r="298" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B298" s="31"/>
-      <c r="C298" s="32"/>
-      <c r="D298" s="32"/>
-      <c r="E298" s="32"/>
-      <c r="F298" s="33"/>
+      <c r="B298" s="38"/>
+      <c r="C298" s="39"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="39"/>
+      <c r="F298" s="40"/>
     </row>
     <row r="299" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B299" s="28" t="s">
+      <c r="B299" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C299" s="29"/>
-      <c r="D299" s="29"/>
-      <c r="E299" s="29"/>
-      <c r="F299" s="30"/>
+      <c r="C299" s="36"/>
+      <c r="D299" s="36"/>
+      <c r="E299" s="36"/>
+      <c r="F299" s="37"/>
     </row>
     <row r="300" spans="2:6" ht="14.25" thickBot="1">
       <c r="B300" s="1" t="s">
@@ -11571,143 +11644,143 @@
       <c r="F304" s="4"/>
     </row>
     <row r="305" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B305" s="28" t="s">
+      <c r="B305" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C305" s="29"/>
-      <c r="D305" s="29"/>
-      <c r="E305" s="29"/>
-      <c r="F305" s="30"/>
+      <c r="C305" s="36"/>
+      <c r="D305" s="36"/>
+      <c r="E305" s="36"/>
+      <c r="F305" s="37"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="35"/>
-      <c r="D306" s="35"/>
-      <c r="E306" s="35"/>
-      <c r="F306" s="36"/>
+      <c r="C306" s="42"/>
+      <c r="D306" s="42"/>
+      <c r="E306" s="42"/>
+      <c r="F306" s="43"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="37"/>
-      <c r="C307" s="38"/>
-      <c r="D307" s="38"/>
-      <c r="E307" s="38"/>
-      <c r="F307" s="39"/>
+      <c r="B307" s="44"/>
+      <c r="C307" s="45"/>
+      <c r="D307" s="45"/>
+      <c r="E307" s="45"/>
+      <c r="F307" s="46"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="37"/>
-      <c r="C308" s="38"/>
-      <c r="D308" s="38"/>
-      <c r="E308" s="38"/>
-      <c r="F308" s="39"/>
+      <c r="B308" s="44"/>
+      <c r="C308" s="45"/>
+      <c r="D308" s="45"/>
+      <c r="E308" s="45"/>
+      <c r="F308" s="46"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="37"/>
-      <c r="C309" s="38"/>
-      <c r="D309" s="38"/>
-      <c r="E309" s="38"/>
-      <c r="F309" s="39"/>
+      <c r="B309" s="44"/>
+      <c r="C309" s="45"/>
+      <c r="D309" s="45"/>
+      <c r="E309" s="45"/>
+      <c r="F309" s="46"/>
     </row>
     <row r="310" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B310" s="40"/>
-      <c r="C310" s="41"/>
-      <c r="D310" s="41"/>
-      <c r="E310" s="41"/>
-      <c r="F310" s="42"/>
+      <c r="B310" s="47"/>
+      <c r="C310" s="48"/>
+      <c r="D310" s="48"/>
+      <c r="E310" s="48"/>
+      <c r="F310" s="49"/>
     </row>
     <row r="311" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="312" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="313" spans="2:6" ht="21" thickBot="1">
-      <c r="B313" s="44" t="s">
+      <c r="B313" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C313" s="44"/>
-      <c r="D313" s="44"/>
-      <c r="E313" s="44"/>
-      <c r="F313" s="44"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="50"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="50"/>
     </row>
     <row r="314" spans="2:6" ht="13.5" thickBot="1">
       <c r="B314" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="45" t="s">
+      <c r="C314" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D314" s="46"/>
-      <c r="E314" s="46"/>
-      <c r="F314" s="47"/>
+      <c r="D314" s="52"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="53"/>
     </row>
     <row r="315" spans="2:6" ht="13.5" thickBot="1">
       <c r="B315" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C315" s="45" t="s">
+      <c r="C315" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D315" s="46"/>
-      <c r="E315" s="46"/>
-      <c r="F315" s="47"/>
+      <c r="D315" s="52"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="53"/>
     </row>
     <row r="316" spans="2:6" ht="13.5" thickBot="1">
       <c r="B316" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C316" s="48" t="s">
+      <c r="C316" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="49"/>
-      <c r="E316" s="49"/>
-      <c r="F316" s="50"/>
+      <c r="D316" s="55"/>
+      <c r="E316" s="55"/>
+      <c r="F316" s="56"/>
     </row>
     <row r="317" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B317" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="51" t="s">
+      <c r="C317" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="52"/>
-      <c r="E317" s="52"/>
-      <c r="F317" s="53"/>
+      <c r="D317" s="27"/>
+      <c r="E317" s="27"/>
+      <c r="F317" s="28"/>
     </row>
     <row r="318" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="54"/>
-      <c r="D318" s="55"/>
-      <c r="E318" s="55"/>
-      <c r="F318" s="56"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="30"/>
+      <c r="E318" s="30"/>
+      <c r="F318" s="31"/>
     </row>
     <row r="319" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B319" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="25" t="s">
+      <c r="C319" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="26"/>
-      <c r="E319" s="26"/>
-      <c r="F319" s="27"/>
+      <c r="D319" s="33"/>
+      <c r="E319" s="33"/>
+      <c r="F319" s="34"/>
     </row>
     <row r="320" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="26"/>
-      <c r="E320" s="26"/>
-      <c r="F320" s="27"/>
+      <c r="D320" s="33"/>
+      <c r="E320" s="33"/>
+      <c r="F320" s="34"/>
     </row>
     <row r="321" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B321" s="25"/>
-      <c r="C321" s="26"/>
-      <c r="D321" s="26"/>
-      <c r="E321" s="26"/>
-      <c r="F321" s="27"/>
+      <c r="B321" s="32"/>
+      <c r="C321" s="33"/>
+      <c r="D321" s="33"/>
+      <c r="E321" s="33"/>
+      <c r="F321" s="34"/>
     </row>
     <row r="322" spans="2:6" ht="13.5" thickBot="1">
       <c r="B322" s="7" t="s">
@@ -11725,13 +11798,13 @@
       </c>
     </row>
     <row r="323" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B323" s="28" t="s">
+      <c r="B323" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C323" s="29"/>
-      <c r="D323" s="29"/>
-      <c r="E323" s="29"/>
-      <c r="F323" s="30"/>
+      <c r="C323" s="36"/>
+      <c r="D323" s="36"/>
+      <c r="E323" s="36"/>
+      <c r="F323" s="37"/>
     </row>
     <row r="324" spans="2:6" ht="14.25" thickBot="1">
       <c r="B324" s="1" t="s">
@@ -11749,20 +11822,20 @@
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B325" s="31"/>
-      <c r="C325" s="32"/>
-      <c r="D325" s="32"/>
-      <c r="E325" s="32"/>
-      <c r="F325" s="33"/>
+      <c r="B325" s="38"/>
+      <c r="C325" s="39"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="39"/>
+      <c r="F325" s="40"/>
     </row>
     <row r="326" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B326" s="28" t="s">
+      <c r="B326" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="29"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="29"/>
-      <c r="F326" s="30"/>
+      <c r="C326" s="36"/>
+      <c r="D326" s="36"/>
+      <c r="E326" s="36"/>
+      <c r="F326" s="37"/>
     </row>
     <row r="327" spans="2:6" ht="14.25" thickBot="1">
       <c r="B327" s="1" t="s">
@@ -11834,142 +11907,142 @@
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B332" s="28" t="s">
+      <c r="B332" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="29"/>
-      <c r="D332" s="29"/>
-      <c r="E332" s="29"/>
-      <c r="F332" s="30"/>
+      <c r="C332" s="36"/>
+      <c r="D332" s="36"/>
+      <c r="E332" s="36"/>
+      <c r="F332" s="37"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="34" t="s">
+      <c r="B333" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C333" s="35"/>
-      <c r="D333" s="35"/>
-      <c r="E333" s="35"/>
-      <c r="F333" s="36"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="43"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="37"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="39"/>
+      <c r="B334" s="44"/>
+      <c r="C334" s="45"/>
+      <c r="D334" s="45"/>
+      <c r="E334" s="45"/>
+      <c r="F334" s="46"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="37"/>
-      <c r="C335" s="38"/>
-      <c r="D335" s="38"/>
-      <c r="E335" s="38"/>
-      <c r="F335" s="39"/>
+      <c r="B335" s="44"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="45"/>
+      <c r="E335" s="45"/>
+      <c r="F335" s="46"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="37"/>
-      <c r="C336" s="38"/>
-      <c r="D336" s="38"/>
-      <c r="E336" s="38"/>
-      <c r="F336" s="39"/>
+      <c r="B336" s="44"/>
+      <c r="C336" s="45"/>
+      <c r="D336" s="45"/>
+      <c r="E336" s="45"/>
+      <c r="F336" s="46"/>
     </row>
     <row r="337" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B337" s="40"/>
-      <c r="C337" s="41"/>
-      <c r="D337" s="41"/>
-      <c r="E337" s="41"/>
-      <c r="F337" s="42"/>
+      <c r="B337" s="47"/>
+      <c r="C337" s="48"/>
+      <c r="D337" s="48"/>
+      <c r="E337" s="48"/>
+      <c r="F337" s="49"/>
     </row>
     <row r="338" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="339" spans="2:6" ht="21" thickBot="1">
-      <c r="B339" s="44" t="s">
+      <c r="B339" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C339" s="44"/>
-      <c r="D339" s="44"/>
-      <c r="E339" s="44"/>
-      <c r="F339" s="44"/>
+      <c r="C339" s="50"/>
+      <c r="D339" s="50"/>
+      <c r="E339" s="50"/>
+      <c r="F339" s="50"/>
     </row>
     <row r="340" spans="2:6" ht="13.5" thickBot="1">
       <c r="B340" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C340" s="45" t="s">
+      <c r="C340" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D340" s="46"/>
-      <c r="E340" s="46"/>
-      <c r="F340" s="47"/>
+      <c r="D340" s="52"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="53"/>
     </row>
     <row r="341" spans="2:6" ht="13.5" thickBot="1">
       <c r="B341" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C341" s="45" t="s">
+      <c r="C341" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D341" s="46"/>
-      <c r="E341" s="46"/>
-      <c r="F341" s="47"/>
+      <c r="D341" s="52"/>
+      <c r="E341" s="52"/>
+      <c r="F341" s="53"/>
     </row>
     <row r="342" spans="2:6" ht="13.5" thickBot="1">
       <c r="B342" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="48" t="s">
+      <c r="C342" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D342" s="49"/>
-      <c r="E342" s="49"/>
-      <c r="F342" s="50"/>
+      <c r="D342" s="55"/>
+      <c r="E342" s="55"/>
+      <c r="F342" s="56"/>
     </row>
     <row r="343" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B343" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="51" t="s">
+      <c r="C343" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="52"/>
-      <c r="E343" s="52"/>
-      <c r="F343" s="53"/>
+      <c r="D343" s="27"/>
+      <c r="E343" s="27"/>
+      <c r="F343" s="28"/>
     </row>
     <row r="344" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="54"/>
-      <c r="D344" s="55"/>
-      <c r="E344" s="55"/>
-      <c r="F344" s="56"/>
+      <c r="C344" s="29"/>
+      <c r="D344" s="30"/>
+      <c r="E344" s="30"/>
+      <c r="F344" s="31"/>
     </row>
     <row r="345" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B345" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="25" t="s">
+      <c r="C345" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="26"/>
-      <c r="E345" s="26"/>
-      <c r="F345" s="27"/>
+      <c r="D345" s="33"/>
+      <c r="E345" s="33"/>
+      <c r="F345" s="34"/>
     </row>
     <row r="346" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B346" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="25" t="s">
+      <c r="C346" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="26"/>
-      <c r="E346" s="26"/>
-      <c r="F346" s="27"/>
+      <c r="D346" s="33"/>
+      <c r="E346" s="33"/>
+      <c r="F346" s="34"/>
     </row>
     <row r="347" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B347" s="25"/>
-      <c r="C347" s="26"/>
-      <c r="D347" s="26"/>
-      <c r="E347" s="26"/>
-      <c r="F347" s="27"/>
+      <c r="B347" s="32"/>
+      <c r="C347" s="33"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="33"/>
+      <c r="F347" s="34"/>
     </row>
     <row r="348" spans="2:6" ht="13.5" thickBot="1">
       <c r="B348" s="7" t="s">
@@ -11987,13 +12060,13 @@
       </c>
     </row>
     <row r="349" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B349" s="28" t="s">
+      <c r="B349" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C349" s="29"/>
-      <c r="D349" s="29"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="30"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="36"/>
+      <c r="E349" s="36"/>
+      <c r="F349" s="37"/>
     </row>
     <row r="350" spans="2:6" ht="14.25" thickBot="1">
       <c r="B350" s="1" t="s">
@@ -12030,20 +12103,20 @@
       </c>
     </row>
     <row r="352" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B352" s="31"/>
-      <c r="C352" s="32"/>
-      <c r="D352" s="32"/>
-      <c r="E352" s="32"/>
-      <c r="F352" s="33"/>
+      <c r="B352" s="38"/>
+      <c r="C352" s="39"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="39"/>
+      <c r="F352" s="40"/>
     </row>
     <row r="353" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B353" s="28" t="s">
+      <c r="B353" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C353" s="29"/>
-      <c r="D353" s="29"/>
-      <c r="E353" s="29"/>
-      <c r="F353" s="30"/>
+      <c r="C353" s="36"/>
+      <c r="D353" s="36"/>
+      <c r="E353" s="36"/>
+      <c r="F353" s="37"/>
     </row>
     <row r="354" spans="2:6" ht="14.25" thickBot="1">
       <c r="B354" s="1" t="s">
@@ -12113,216 +12186,210 @@
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B359" s="28" t="s">
+      <c r="B359" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C359" s="29"/>
-      <c r="D359" s="29"/>
-      <c r="E359" s="29"/>
-      <c r="F359" s="30"/>
+      <c r="C359" s="36"/>
+      <c r="D359" s="36"/>
+      <c r="E359" s="36"/>
+      <c r="F359" s="37"/>
     </row>
     <row r="360" spans="2:6">
-      <c r="B360" s="34" t="s">
+      <c r="B360" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C360" s="35"/>
-      <c r="D360" s="35"/>
-      <c r="E360" s="35"/>
-      <c r="F360" s="36"/>
+      <c r="C360" s="42"/>
+      <c r="D360" s="42"/>
+      <c r="E360" s="42"/>
+      <c r="F360" s="43"/>
     </row>
     <row r="361" spans="2:6">
-      <c r="B361" s="37"/>
-      <c r="C361" s="38"/>
-      <c r="D361" s="38"/>
-      <c r="E361" s="38"/>
-      <c r="F361" s="39"/>
+      <c r="B361" s="44"/>
+      <c r="C361" s="45"/>
+      <c r="D361" s="45"/>
+      <c r="E361" s="45"/>
+      <c r="F361" s="46"/>
     </row>
     <row r="362" spans="2:6">
-      <c r="B362" s="37"/>
-      <c r="C362" s="38"/>
-      <c r="D362" s="38"/>
-      <c r="E362" s="38"/>
-      <c r="F362" s="39"/>
+      <c r="B362" s="44"/>
+      <c r="C362" s="45"/>
+      <c r="D362" s="45"/>
+      <c r="E362" s="45"/>
+      <c r="F362" s="46"/>
     </row>
     <row r="363" spans="2:6">
-      <c r="B363" s="37"/>
-      <c r="C363" s="38"/>
-      <c r="D363" s="38"/>
-      <c r="E363" s="38"/>
-      <c r="F363" s="39"/>
+      <c r="B363" s="44"/>
+      <c r="C363" s="45"/>
+      <c r="D363" s="45"/>
+      <c r="E363" s="45"/>
+      <c r="F363" s="46"/>
     </row>
     <row r="364" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B364" s="40"/>
-      <c r="C364" s="41"/>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="42"/>
-    </row>
-    <row r="365" spans="2:6" ht="21" thickBot="1">
-      <c r="B365" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C365" s="44"/>
-      <c r="D365" s="44"/>
-      <c r="E365" s="44"/>
-      <c r="F365" s="44"/>
-    </row>
-    <row r="366" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B366" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C366" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D366" s="46"/>
-      <c r="E366" s="46"/>
-      <c r="F366" s="47"/>
+      <c r="B364" s="47"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="48"/>
+      <c r="F364" s="49"/>
+    </row>
+    <row r="365" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
+      <c r="D365" s="25"/>
+      <c r="E365" s="25"/>
+      <c r="F365" s="25"/>
+    </row>
+    <row r="366" spans="2:6" ht="21" thickBot="1">
+      <c r="B366" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C366" s="50"/>
+      <c r="D366" s="50"/>
+      <c r="E366" s="50"/>
+      <c r="F366" s="50"/>
     </row>
     <row r="367" spans="2:6" ht="13.5" thickBot="1">
       <c r="B367" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D367" s="52"/>
+      <c r="E367" s="52"/>
+      <c r="F367" s="53"/>
+    </row>
+    <row r="368" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B368" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C367" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D367" s="46"/>
-      <c r="E367" s="46"/>
-      <c r="F367" s="47"/>
-    </row>
-    <row r="368" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B368" s="7" t="s">
+      <c r="C368" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D368" s="52"/>
+      <c r="E368" s="52"/>
+      <c r="F368" s="53"/>
+    </row>
+    <row r="369" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B369" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C368" s="48" t="s">
+      <c r="C369" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D368" s="49"/>
-      <c r="E368" s="49"/>
-      <c r="F368" s="50"/>
-    </row>
-    <row r="369" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B369" s="7" t="s">
+      <c r="D369" s="55"/>
+      <c r="E369" s="55"/>
+      <c r="F369" s="56"/>
+    </row>
+    <row r="370" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B370" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C369" s="51" t="s">
+      <c r="C370" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D369" s="52"/>
-      <c r="E369" s="52"/>
-      <c r="F369" s="53"/>
-    </row>
-    <row r="370" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B370" s="7" t="s">
+      <c r="D370" s="27"/>
+      <c r="E370" s="27"/>
+      <c r="F370" s="28"/>
+    </row>
+    <row r="371" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B371" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C370" s="54"/>
-      <c r="D370" s="55"/>
-      <c r="E370" s="55"/>
-      <c r="F370" s="56"/>
-    </row>
-    <row r="371" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B371" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C371" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D371" s="26"/>
-      <c r="E371" s="26"/>
-      <c r="F371" s="27"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="30"/>
+      <c r="E371" s="30"/>
+      <c r="F371" s="31"/>
     </row>
     <row r="372" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B372" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C372" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" s="33"/>
+      <c r="E372" s="33"/>
+      <c r="F372" s="34"/>
+    </row>
+    <row r="373" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B373" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C372" s="25" t="s">
+      <c r="C373" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D372" s="26"/>
-      <c r="E372" s="26"/>
-      <c r="F372" s="27"/>
-    </row>
-    <row r="373" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B373" s="25"/>
-      <c r="C373" s="26"/>
-      <c r="D373" s="26"/>
-      <c r="E373" s="26"/>
-      <c r="F373" s="27"/>
-    </row>
-    <row r="374" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B374" s="7" t="s">
+      <c r="D373" s="33"/>
+      <c r="E373" s="33"/>
+      <c r="F373" s="34"/>
+    </row>
+    <row r="374" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B374" s="32"/>
+      <c r="C374" s="33"/>
+      <c r="D374" s="33"/>
+      <c r="E374" s="33"/>
+      <c r="F374" s="34"/>
+    </row>
+    <row r="375" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B375" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C375" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D374" s="9"/>
-      <c r="E374" s="9" t="s">
+      <c r="D375" s="9"/>
+      <c r="E375" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F374" s="9" t="s">
+      <c r="F375" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B375" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C375" s="29"/>
-      <c r="D375" s="29"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="30"/>
-    </row>
-    <row r="376" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B376" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C376" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D376" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E376" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F376" s="9"/>
+    <row r="376" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B376" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C376" s="36"/>
+      <c r="D376" s="36"/>
+      <c r="E376" s="36"/>
+      <c r="F376" s="37"/>
     </row>
     <row r="377" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B377" s="31"/>
-      <c r="C377" s="32"/>
-      <c r="D377" s="32"/>
-      <c r="E377" s="32"/>
-      <c r="F377" s="33"/>
-    </row>
-    <row r="378" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B378" s="28" t="s">
+      <c r="B377" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F377" s="9"/>
+    </row>
+    <row r="378" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B378" s="38"/>
+      <c r="C378" s="39"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="39"/>
+      <c r="F378" s="40"/>
+    </row>
+    <row r="379" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B379" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C378" s="29"/>
-      <c r="D378" s="29"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="30"/>
-    </row>
-    <row r="379" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B379" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C379" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D379" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
+      <c r="C379" s="36"/>
+      <c r="D379" s="36"/>
+      <c r="E379" s="36"/>
+      <c r="F379" s="37"/>
     </row>
     <row r="380" spans="2:6" ht="14.25" thickBot="1">
       <c r="B380" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>26</v>
@@ -12332,256 +12399,263 @@
     </row>
     <row r="381" spans="2:6" ht="14.25" thickBot="1">
       <c r="B381" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
+    </row>
+    <row r="382" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B382" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C382" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D381" s="9" t="s">
+      <c r="D382" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E381" s="4"/>
-      <c r="F381" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="382" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B382" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D382" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E382" s="11"/>
-      <c r="F382" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E382" s="4"/>
+      <c r="F382" s="9"/>
     </row>
     <row r="383" spans="2:6" ht="14.25" thickBot="1">
       <c r="B383" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E383" s="11"/>
+      <c r="F383" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B384" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C384" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D383" s="8" t="s">
+      <c r="D384" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E383" s="11"/>
-      <c r="F383" s="4"/>
-    </row>
-    <row r="384" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B384" s="28" t="s">
+      <c r="E384" s="11"/>
+      <c r="F384" s="4"/>
+    </row>
+    <row r="385" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B385" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="30"/>
-    </row>
-    <row r="385" spans="2:6">
-      <c r="B385" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C385" s="35"/>
-      <c r="D385" s="35"/>
-      <c r="E385" s="35"/>
-      <c r="F385" s="36"/>
+      <c r="C385" s="36"/>
+      <c r="D385" s="36"/>
+      <c r="E385" s="36"/>
+      <c r="F385" s="37"/>
     </row>
     <row r="386" spans="2:6">
-      <c r="B386" s="37"/>
-      <c r="C386" s="38"/>
-      <c r="D386" s="38"/>
-      <c r="E386" s="38"/>
-      <c r="F386" s="39"/>
+      <c r="B386" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C386" s="42"/>
+      <c r="D386" s="42"/>
+      <c r="E386" s="42"/>
+      <c r="F386" s="43"/>
     </row>
     <row r="387" spans="2:6">
-      <c r="B387" s="37"/>
-      <c r="C387" s="38"/>
-      <c r="D387" s="38"/>
-      <c r="E387" s="38"/>
-      <c r="F387" s="39"/>
+      <c r="B387" s="44"/>
+      <c r="C387" s="45"/>
+      <c r="D387" s="45"/>
+      <c r="E387" s="45"/>
+      <c r="F387" s="46"/>
     </row>
     <row r="388" spans="2:6">
-      <c r="B388" s="37"/>
-      <c r="C388" s="38"/>
-      <c r="D388" s="38"/>
-      <c r="E388" s="38"/>
-      <c r="F388" s="39"/>
-    </row>
-    <row r="389" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B389" s="40"/>
-      <c r="C389" s="41"/>
-      <c r="D389" s="41"/>
-      <c r="E389" s="41"/>
-      <c r="F389" s="42"/>
-    </row>
-    <row r="391" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B391" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="C391" s="43"/>
-      <c r="D391" s="43"/>
-      <c r="E391" s="43"/>
-      <c r="F391" s="43"/>
-    </row>
-    <row r="392" spans="2:6" ht="21" thickBot="1">
-      <c r="B392" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C392" s="44"/>
-      <c r="D392" s="44"/>
-      <c r="E392" s="44"/>
-      <c r="F392" s="44"/>
-    </row>
-    <row r="393" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B393" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C393" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D393" s="46"/>
-      <c r="E393" s="46"/>
-      <c r="F393" s="47"/>
+      <c r="B388" s="44"/>
+      <c r="C388" s="45"/>
+      <c r="D388" s="45"/>
+      <c r="E388" s="45"/>
+      <c r="F388" s="46"/>
+    </row>
+    <row r="389" spans="2:6">
+      <c r="B389" s="44"/>
+      <c r="C389" s="45"/>
+      <c r="D389" s="45"/>
+      <c r="E389" s="45"/>
+      <c r="F389" s="46"/>
+    </row>
+    <row r="390" spans="2:6" ht="89.25" customHeight="1" thickBot="1">
+      <c r="B390" s="47"/>
+      <c r="C390" s="48"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="48"/>
+      <c r="F390" s="49"/>
+    </row>
+    <row r="391" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B391" s="25"/>
+      <c r="C391" s="25"/>
+      <c r="D391" s="25"/>
+      <c r="E391" s="25"/>
+      <c r="F391" s="25"/>
+    </row>
+    <row r="392" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B392" s="25"/>
+      <c r="C392" s="25"/>
+      <c r="D392" s="25"/>
+      <c r="E392" s="25"/>
+      <c r="F392" s="25"/>
+    </row>
+    <row r="393" spans="2:6" ht="21" thickBot="1">
+      <c r="B393" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C393" s="50"/>
+      <c r="D393" s="50"/>
+      <c r="E393" s="50"/>
+      <c r="F393" s="50"/>
     </row>
     <row r="394" spans="2:6" ht="13.5" thickBot="1">
       <c r="B394" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D394" s="52"/>
+      <c r="E394" s="52"/>
+      <c r="F394" s="53"/>
+    </row>
+    <row r="395" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B395" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C394" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D394" s="46"/>
-      <c r="E394" s="46"/>
-      <c r="F394" s="47"/>
-    </row>
-    <row r="395" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B395" s="7" t="s">
+      <c r="C395" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D395" s="52"/>
+      <c r="E395" s="52"/>
+      <c r="F395" s="53"/>
+    </row>
+    <row r="396" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B396" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C395" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D395" s="49"/>
-      <c r="E395" s="49"/>
-      <c r="F395" s="50"/>
-    </row>
-    <row r="396" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B396" s="7" t="s">
+      <c r="C396" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D396" s="55"/>
+      <c r="E396" s="55"/>
+      <c r="F396" s="56"/>
+    </row>
+    <row r="397" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B397" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C396" s="51" t="s">
+      <c r="C397" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="52"/>
-      <c r="E396" s="52"/>
-      <c r="F396" s="53"/>
-    </row>
-    <row r="397" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B397" s="7" t="s">
+      <c r="D397" s="27"/>
+      <c r="E397" s="27"/>
+      <c r="F397" s="28"/>
+    </row>
+    <row r="398" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B398" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C397" s="54"/>
-      <c r="D397" s="55"/>
-      <c r="E397" s="55"/>
-      <c r="F397" s="56"/>
-    </row>
-    <row r="398" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B398" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C398" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D398" s="26"/>
-      <c r="E398" s="26"/>
-      <c r="F398" s="27"/>
+      <c r="C398" s="29"/>
+      <c r="D398" s="30"/>
+      <c r="E398" s="30"/>
+      <c r="F398" s="31"/>
     </row>
     <row r="399" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B399" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C399" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D399" s="33"/>
+      <c r="E399" s="33"/>
+      <c r="F399" s="34"/>
+    </row>
+    <row r="400" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B400" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C399" s="25" t="s">
+      <c r="C400" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D399" s="26"/>
-      <c r="E399" s="26"/>
-      <c r="F399" s="27"/>
-    </row>
-    <row r="400" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B400" s="25"/>
-      <c r="C400" s="26"/>
-      <c r="D400" s="26"/>
-      <c r="E400" s="26"/>
-      <c r="F400" s="27"/>
-    </row>
-    <row r="401" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B401" s="7" t="s">
+      <c r="D400" s="33"/>
+      <c r="E400" s="33"/>
+      <c r="F400" s="34"/>
+    </row>
+    <row r="401" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B401" s="32"/>
+      <c r="C401" s="33"/>
+      <c r="D401" s="33"/>
+      <c r="E401" s="33"/>
+      <c r="F401" s="34"/>
+    </row>
+    <row r="402" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B402" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C401" s="9" t="s">
+      <c r="C402" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D401" s="9"/>
-      <c r="E401" s="9" t="s">
+      <c r="D402" s="9"/>
+      <c r="E402" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F401" s="9" t="s">
+      <c r="F402" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B402" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C402" s="29"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="29"/>
-      <c r="F402" s="30"/>
-    </row>
-    <row r="403" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B403" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C403" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D403" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E403" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F403" s="9" t="s">
-        <v>223</v>
-      </c>
+    <row r="403" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B403" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" s="36"/>
+      <c r="D403" s="36"/>
+      <c r="E403" s="36"/>
+      <c r="F403" s="37"/>
     </row>
     <row r="404" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B404" s="10"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="14"/>
+      <c r="B404" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F404" s="9"/>
     </row>
     <row r="405" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B405" s="31"/>
-      <c r="C405" s="32"/>
-      <c r="D405" s="32"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="33"/>
+      <c r="B405" s="38"/>
+      <c r="C405" s="39"/>
+      <c r="D405" s="39"/>
+      <c r="E405" s="39"/>
+      <c r="F405" s="40"/>
     </row>
     <row r="406" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B406" s="28" t="s">
+      <c r="B406" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C406" s="29"/>
-      <c r="D406" s="29"/>
-      <c r="E406" s="29"/>
-      <c r="F406" s="30"/>
+      <c r="C406" s="36"/>
+      <c r="D406" s="36"/>
+      <c r="E406" s="36"/>
+      <c r="F406" s="37"/>
     </row>
     <row r="407" spans="2:6" ht="14.25" thickBot="1">
       <c r="B407" s="1" t="s">
@@ -12604,7 +12678,7 @@
         <v>30</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -12614,13 +12688,15 @@
         <v>28</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="E409" s="4"/>
-      <c r="F409" s="9"/>
+      <c r="F409" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="410" spans="2:6" ht="14.25" thickBot="1">
       <c r="B410" s="10" t="s">
@@ -12651,368 +12727,776 @@
       <c r="F411" s="4"/>
     </row>
     <row r="412" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B412" s="28" t="s">
+      <c r="B412" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C412" s="29"/>
-      <c r="D412" s="29"/>
-      <c r="E412" s="29"/>
-      <c r="F412" s="30"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="36"/>
+      <c r="E412" s="36"/>
+      <c r="F412" s="37"/>
     </row>
     <row r="413" spans="2:6">
-      <c r="B413" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C413" s="35"/>
-      <c r="D413" s="35"/>
-      <c r="E413" s="35"/>
-      <c r="F413" s="36"/>
+      <c r="B413" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C413" s="42"/>
+      <c r="D413" s="42"/>
+      <c r="E413" s="42"/>
+      <c r="F413" s="43"/>
     </row>
     <row r="414" spans="2:6">
-      <c r="B414" s="37"/>
-      <c r="C414" s="38"/>
-      <c r="D414" s="38"/>
-      <c r="E414" s="38"/>
-      <c r="F414" s="39"/>
+      <c r="B414" s="44"/>
+      <c r="C414" s="45"/>
+      <c r="D414" s="45"/>
+      <c r="E414" s="45"/>
+      <c r="F414" s="46"/>
     </row>
     <row r="415" spans="2:6">
-      <c r="B415" s="37"/>
-      <c r="C415" s="38"/>
-      <c r="D415" s="38"/>
-      <c r="E415" s="38"/>
-      <c r="F415" s="39"/>
+      <c r="B415" s="44"/>
+      <c r="C415" s="45"/>
+      <c r="D415" s="45"/>
+      <c r="E415" s="45"/>
+      <c r="F415" s="46"/>
     </row>
     <row r="416" spans="2:6">
-      <c r="B416" s="37"/>
-      <c r="C416" s="38"/>
-      <c r="D416" s="38"/>
-      <c r="E416" s="38"/>
-      <c r="F416" s="39"/>
-    </row>
-    <row r="417" spans="2:6" ht="193.5" customHeight="1" thickBot="1">
-      <c r="B417" s="40"/>
-      <c r="C417" s="41"/>
-      <c r="D417" s="41"/>
-      <c r="E417" s="41"/>
-      <c r="F417" s="42"/>
-    </row>
-    <row r="418" spans="2:6" ht="13.5" thickBot="1"/>
-    <row r="419" spans="2:6" ht="21" thickBot="1">
-      <c r="B419" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="C419" s="44"/>
-      <c r="D419" s="44"/>
-      <c r="E419" s="44"/>
-      <c r="F419" s="44"/>
-    </row>
-    <row r="420" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B420" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D420" s="46"/>
-      <c r="E420" s="46"/>
-      <c r="F420" s="47"/>
+      <c r="B416" s="44"/>
+      <c r="C416" s="45"/>
+      <c r="D416" s="45"/>
+      <c r="E416" s="45"/>
+      <c r="F416" s="46"/>
+    </row>
+    <row r="417" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B417" s="47"/>
+      <c r="C417" s="48"/>
+      <c r="D417" s="48"/>
+      <c r="E417" s="48"/>
+      <c r="F417" s="49"/>
+    </row>
+    <row r="419" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B419" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C419" s="60"/>
+      <c r="D419" s="60"/>
+      <c r="E419" s="60"/>
+      <c r="F419" s="60"/>
+    </row>
+    <row r="420" spans="2:6" ht="21" thickBot="1">
+      <c r="B420" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C420" s="50"/>
+      <c r="D420" s="50"/>
+      <c r="E420" s="50"/>
+      <c r="F420" s="50"/>
     </row>
     <row r="421" spans="2:6" ht="13.5" thickBot="1">
       <c r="B421" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D421" s="52"/>
+      <c r="E421" s="52"/>
+      <c r="F421" s="53"/>
+    </row>
+    <row r="422" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B422" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C421" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D421" s="46"/>
-      <c r="E421" s="46"/>
-      <c r="F421" s="47"/>
-    </row>
-    <row r="422" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B422" s="7" t="s">
+      <c r="C422" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D422" s="52"/>
+      <c r="E422" s="52"/>
+      <c r="F422" s="53"/>
+    </row>
+    <row r="423" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B423" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C422" s="48" t="s">
+      <c r="C423" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D422" s="49"/>
-      <c r="E422" s="49"/>
-      <c r="F422" s="50"/>
-    </row>
-    <row r="423" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B423" s="7" t="s">
+      <c r="D423" s="55"/>
+      <c r="E423" s="55"/>
+      <c r="F423" s="56"/>
+    </row>
+    <row r="424" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B424" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C423" s="51" t="s">
+      <c r="C424" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D423" s="52"/>
-      <c r="E423" s="52"/>
-      <c r="F423" s="53"/>
-    </row>
-    <row r="424" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B424" s="7" t="s">
+      <c r="D424" s="27"/>
+      <c r="E424" s="27"/>
+      <c r="F424" s="28"/>
+    </row>
+    <row r="425" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B425" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C424" s="54"/>
-      <c r="D424" s="55"/>
-      <c r="E424" s="55"/>
-      <c r="F424" s="56"/>
-    </row>
-    <row r="425" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B425" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C425" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D425" s="26"/>
-      <c r="E425" s="26"/>
-      <c r="F425" s="27"/>
+      <c r="C425" s="29"/>
+      <c r="D425" s="30"/>
+      <c r="E425" s="30"/>
+      <c r="F425" s="31"/>
     </row>
     <row r="426" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B426" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C426" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="33"/>
+      <c r="E426" s="33"/>
+      <c r="F426" s="34"/>
+    </row>
+    <row r="427" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B427" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C426" s="25" t="s">
+      <c r="C427" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D426" s="26"/>
-      <c r="E426" s="26"/>
-      <c r="F426" s="27"/>
-    </row>
-    <row r="427" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B427" s="25"/>
-      <c r="C427" s="26"/>
-      <c r="D427" s="26"/>
-      <c r="E427" s="26"/>
-      <c r="F427" s="27"/>
-    </row>
-    <row r="428" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B428" s="7" t="s">
+      <c r="D427" s="33"/>
+      <c r="E427" s="33"/>
+      <c r="F427" s="34"/>
+    </row>
+    <row r="428" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B428" s="32"/>
+      <c r="C428" s="33"/>
+      <c r="D428" s="33"/>
+      <c r="E428" s="33"/>
+      <c r="F428" s="34"/>
+    </row>
+    <row r="429" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B429" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C428" s="9" t="s">
+      <c r="C429" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D428" s="9"/>
-      <c r="E428" s="9" t="s">
+      <c r="D429" s="9"/>
+      <c r="E429" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F428" s="9" t="s">
+      <c r="F429" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B429" s="28" t="s">
+    <row r="430" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B430" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C429" s="29"/>
-      <c r="D429" s="29"/>
-      <c r="E429" s="29"/>
-      <c r="F429" s="30"/>
-    </row>
-    <row r="430" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B430" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C430" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D430" s="9" t="s">
+      <c r="C430" s="36"/>
+      <c r="D430" s="36"/>
+      <c r="E430" s="36"/>
+      <c r="F430" s="37"/>
+    </row>
+    <row r="431" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B431" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D431" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E430" s="24" t="s">
+      <c r="E431" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="F430" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="431" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B431" s="10"/>
-      <c r="C431" s="8"/>
-      <c r="D431" s="8"/>
-      <c r="E431" s="14"/>
-      <c r="F431" s="9"/>
+      <c r="F431" s="9" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="432" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B432" s="31"/>
-      <c r="C432" s="32"/>
-      <c r="D432" s="32"/>
-      <c r="E432" s="32"/>
-      <c r="F432" s="33"/>
-    </row>
-    <row r="433" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B433" s="28" t="s">
+      <c r="B432" s="10"/>
+      <c r="C432" s="8"/>
+      <c r="D432" s="8"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="9"/>
+    </row>
+    <row r="433" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B433" s="38"/>
+      <c r="C433" s="39"/>
+      <c r="D433" s="39"/>
+      <c r="E433" s="39"/>
+      <c r="F433" s="40"/>
+    </row>
+    <row r="434" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B434" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C433" s="29"/>
-      <c r="D433" s="29"/>
-      <c r="E433" s="29"/>
-      <c r="F433" s="30"/>
-    </row>
-    <row r="434" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B434" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C434" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D434" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E434" s="4"/>
-      <c r="F434" s="4"/>
+      <c r="C434" s="36"/>
+      <c r="D434" s="36"/>
+      <c r="E434" s="36"/>
+      <c r="F434" s="37"/>
     </row>
     <row r="435" spans="2:6" ht="14.25" thickBot="1">
       <c r="B435" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
     </row>
     <row r="436" spans="2:6" ht="14.25" thickBot="1">
       <c r="B436" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
+    </row>
+    <row r="437" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B437" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C436" s="9" t="s">
+      <c r="C437" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D436" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E436" s="4"/>
-      <c r="F436" s="9"/>
-    </row>
-    <row r="437" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B437" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C437" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D437" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E437" s="11"/>
-      <c r="F437" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D437" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E437" s="4"/>
+      <c r="F437" s="9"/>
     </row>
     <row r="438" spans="2:6" ht="14.25" thickBot="1">
       <c r="B438" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E438" s="11"/>
+      <c r="F438" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="439" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B439" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C438" s="8" t="s">
+      <c r="C439" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D438" s="8" t="s">
+      <c r="D439" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E438" s="11"/>
-      <c r="F438" s="4"/>
-    </row>
-    <row r="439" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B439" s="28" t="s">
+      <c r="E439" s="11"/>
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B440" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C439" s="29"/>
-      <c r="D439" s="29"/>
-      <c r="E439" s="29"/>
-      <c r="F439" s="30"/>
-    </row>
-    <row r="440" spans="2:6">
-      <c r="B440" s="34" t="s">
+      <c r="C440" s="36"/>
+      <c r="D440" s="36"/>
+      <c r="E440" s="36"/>
+      <c r="F440" s="37"/>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="B441" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C441" s="42"/>
+      <c r="D441" s="42"/>
+      <c r="E441" s="42"/>
+      <c r="F441" s="43"/>
+    </row>
+    <row r="442" spans="2:6">
+      <c r="B442" s="44"/>
+      <c r="C442" s="45"/>
+      <c r="D442" s="45"/>
+      <c r="E442" s="45"/>
+      <c r="F442" s="46"/>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" s="44"/>
+      <c r="C443" s="45"/>
+      <c r="D443" s="45"/>
+      <c r="E443" s="45"/>
+      <c r="F443" s="46"/>
+    </row>
+    <row r="444" spans="2:6">
+      <c r="B444" s="44"/>
+      <c r="C444" s="45"/>
+      <c r="D444" s="45"/>
+      <c r="E444" s="45"/>
+      <c r="F444" s="46"/>
+    </row>
+    <row r="445" spans="2:6" ht="193.5" customHeight="1" thickBot="1">
+      <c r="B445" s="47"/>
+      <c r="C445" s="48"/>
+      <c r="D445" s="48"/>
+      <c r="E445" s="48"/>
+      <c r="F445" s="49"/>
+    </row>
+    <row r="446" spans="2:6" ht="13.5" thickBot="1"/>
+    <row r="447" spans="2:6" ht="21" thickBot="1">
+      <c r="B447" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C447" s="50"/>
+      <c r="D447" s="50"/>
+      <c r="E447" s="50"/>
+      <c r="F447" s="50"/>
+    </row>
+    <row r="448" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B448" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D448" s="52"/>
+      <c r="E448" s="52"/>
+      <c r="F448" s="53"/>
+    </row>
+    <row r="449" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B449" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C449" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D449" s="52"/>
+      <c r="E449" s="52"/>
+      <c r="F449" s="53"/>
+    </row>
+    <row r="450" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B450" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C450" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D450" s="55"/>
+      <c r="E450" s="55"/>
+      <c r="F450" s="56"/>
+    </row>
+    <row r="451" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B451" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="27"/>
+      <c r="E451" s="27"/>
+      <c r="F451" s="28"/>
+    </row>
+    <row r="452" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B452" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C452" s="29"/>
+      <c r="D452" s="30"/>
+      <c r="E452" s="30"/>
+      <c r="F452" s="31"/>
+    </row>
+    <row r="453" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B453" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C453" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D453" s="33"/>
+      <c r="E453" s="33"/>
+      <c r="F453" s="34"/>
+    </row>
+    <row r="454" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B454" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C454" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D454" s="33"/>
+      <c r="E454" s="33"/>
+      <c r="F454" s="34"/>
+    </row>
+    <row r="455" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B455" s="32"/>
+      <c r="C455" s="33"/>
+      <c r="D455" s="33"/>
+      <c r="E455" s="33"/>
+      <c r="F455" s="34"/>
+    </row>
+    <row r="456" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B456" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" s="9"/>
+      <c r="E456" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B457" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C457" s="36"/>
+      <c r="D457" s="36"/>
+      <c r="E457" s="36"/>
+      <c r="F457" s="37"/>
+    </row>
+    <row r="458" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B458" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E458" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F458" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B459" s="10"/>
+      <c r="C459" s="8"/>
+      <c r="D459" s="8"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="9"/>
+    </row>
+    <row r="460" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B460" s="38"/>
+      <c r="C460" s="39"/>
+      <c r="D460" s="39"/>
+      <c r="E460" s="39"/>
+      <c r="F460" s="40"/>
+    </row>
+    <row r="461" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B461" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" s="36"/>
+      <c r="D461" s="36"/>
+      <c r="E461" s="36"/>
+      <c r="F461" s="37"/>
+    </row>
+    <row r="462" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B462" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
+    </row>
+    <row r="463" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B463" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
+    </row>
+    <row r="464" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E464" s="4"/>
+      <c r="F464" s="9"/>
+    </row>
+    <row r="465" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B465" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E465" s="11"/>
+      <c r="F465" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B466" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E466" s="11"/>
+      <c r="F466" s="4"/>
+    </row>
+    <row r="467" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B467" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467" s="36"/>
+      <c r="D467" s="36"/>
+      <c r="E467" s="36"/>
+      <c r="F467" s="37"/>
+    </row>
+    <row r="468" spans="2:6">
+      <c r="B468" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="C440" s="35"/>
-      <c r="D440" s="35"/>
-      <c r="E440" s="35"/>
-      <c r="F440" s="36"/>
-    </row>
-    <row r="441" spans="2:6">
-      <c r="B441" s="37"/>
-      <c r="C441" s="38"/>
-      <c r="D441" s="38"/>
-      <c r="E441" s="38"/>
-      <c r="F441" s="39"/>
-    </row>
-    <row r="442" spans="2:6">
-      <c r="B442" s="37"/>
-      <c r="C442" s="38"/>
-      <c r="D442" s="38"/>
-      <c r="E442" s="38"/>
-      <c r="F442" s="39"/>
-    </row>
-    <row r="443" spans="2:6">
-      <c r="B443" s="37"/>
-      <c r="C443" s="38"/>
-      <c r="D443" s="38"/>
-      <c r="E443" s="38"/>
-      <c r="F443" s="39"/>
-    </row>
-    <row r="444" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B444" s="40"/>
-      <c r="C444" s="41"/>
-      <c r="D444" s="41"/>
-      <c r="E444" s="41"/>
-      <c r="F444" s="42"/>
+      <c r="C468" s="42"/>
+      <c r="D468" s="42"/>
+      <c r="E468" s="42"/>
+      <c r="F468" s="43"/>
+    </row>
+    <row r="469" spans="2:6">
+      <c r="B469" s="44"/>
+      <c r="C469" s="45"/>
+      <c r="D469" s="45"/>
+      <c r="E469" s="45"/>
+      <c r="F469" s="46"/>
+    </row>
+    <row r="470" spans="2:6">
+      <c r="B470" s="44"/>
+      <c r="C470" s="45"/>
+      <c r="D470" s="45"/>
+      <c r="E470" s="45"/>
+      <c r="F470" s="46"/>
+    </row>
+    <row r="471" spans="2:6">
+      <c r="B471" s="44"/>
+      <c r="C471" s="45"/>
+      <c r="D471" s="45"/>
+      <c r="E471" s="45"/>
+      <c r="F471" s="46"/>
+    </row>
+    <row r="472" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B472" s="47"/>
+      <c r="C472" s="48"/>
+      <c r="D472" s="48"/>
+      <c r="E472" s="48"/>
+      <c r="F472" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
-    <mergeCell ref="C396:F396"/>
-    <mergeCell ref="C397:F397"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="C399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B360:F364"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B377:F377"/>
+  <mergeCells count="247">
+    <mergeCell ref="B376:F376"/>
     <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F389"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F390"/>
+    <mergeCell ref="B366:F366"/>
     <mergeCell ref="C367:F367"/>
     <mergeCell ref="C368:F368"/>
     <mergeCell ref="C369:F369"/>
     <mergeCell ref="C370:F370"/>
     <mergeCell ref="C371:F371"/>
     <mergeCell ref="C372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C343:F343"/>
-    <mergeCell ref="C344:F344"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="C286:F286"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C289:F289"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B306:F310"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B468:F472"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="C448:F448"/>
+    <mergeCell ref="C449:F449"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C451:F451"/>
+    <mergeCell ref="C452:F452"/>
+    <mergeCell ref="C453:F453"/>
+    <mergeCell ref="C454:F454"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F445"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B252:F256"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F337"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="C318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="C316:F316"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B279:F283"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:F14"/>
@@ -13037,169 +13521,52 @@
     <mergeCell ref="C261:F261"/>
     <mergeCell ref="C262:F262"/>
     <mergeCell ref="C263:F263"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F337"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="C318:F318"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="C316:F316"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B279:F283"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B166:F170"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F256"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F444"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="C420:F420"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B306:F310"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C344:F344"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="B347:F347"/>
     <mergeCell ref="C424:F424"/>
     <mergeCell ref="C425:F425"/>
     <mergeCell ref="C426:F426"/>
-    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B360:F364"/>
+    <mergeCell ref="B403:F403"/>
     <mergeCell ref="B405:F405"/>
     <mergeCell ref="B406:F406"/>
     <mergeCell ref="B412:F412"/>
     <mergeCell ref="B413:F417"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="B393:F393"/>
     <mergeCell ref="C394:F394"/>
     <mergeCell ref="C395:F395"/>
+    <mergeCell ref="C396:F396"/>
+    <mergeCell ref="C397:F397"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="C400:F400"/>
+    <mergeCell ref="B401:F401"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -13229,15 +13596,17 @@
     <hyperlink ref="C227" r:id="rId24"/>
     <hyperlink ref="C200" r:id="rId25"/>
     <hyperlink ref="C199" r:id="rId26"/>
-    <hyperlink ref="C394" r:id="rId27"/>
-    <hyperlink ref="C393" r:id="rId28"/>
-    <hyperlink ref="C421" r:id="rId29"/>
-    <hyperlink ref="C420" r:id="rId30"/>
-    <hyperlink ref="C367" r:id="rId31"/>
-    <hyperlink ref="C366" r:id="rId32"/>
+    <hyperlink ref="C422" r:id="rId27"/>
+    <hyperlink ref="C421" r:id="rId28"/>
+    <hyperlink ref="C449" r:id="rId29"/>
+    <hyperlink ref="C448" r:id="rId30"/>
+    <hyperlink ref="C395" r:id="rId31"/>
+    <hyperlink ref="C394" r:id="rId32"/>
+    <hyperlink ref="C368" r:id="rId33"/>
+    <hyperlink ref="C367" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId33"/>
-  <drawing r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>